--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T348"/>
+  <dimension ref="A1:T352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E149" t="n">
         <v>9</v>
@@ -12275,29 +12275,29 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="N149" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O149" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P149" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="T149" t="n">
         <v>18</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E150" t="n">
         <v>9</v>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="N150" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O150" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P150" t="n">
-        <v>16000</v>
+        <v>12538</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>889</v>
+        <v>697</v>
       </c>
       <c r="T150" t="n">
         <v>18</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E151" t="n">
         <v>9</v>
@@ -12435,29 +12435,29 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="N151" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O151" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P151" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -12466,10 +12466,10 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T151" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44237</v>
+        <v>44413</v>
       </c>
       <c r="E152" t="n">
         <v>9</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P152" t="n">
-        <v>14542</v>
+        <v>12000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>808</v>
+        <v>667</v>
       </c>
       <c r="T152" t="n">
         <v>18</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E153" t="n">
         <v>9</v>
@@ -12600,24 +12600,24 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N153" t="n">
-        <v>270000</v>
+        <v>22000</v>
       </c>
       <c r="O153" t="n">
-        <v>270000</v>
+        <v>22000</v>
       </c>
       <c r="P153" t="n">
-        <v>270000</v>
+        <v>22000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>600</v>
+        <v>1222</v>
       </c>
       <c r="T153" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E154" t="n">
         <v>9</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N154" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O154" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="P154" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>583</v>
+        <v>889</v>
       </c>
       <c r="T154" t="n">
         <v>18</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E155" t="n">
         <v>9</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N155" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="O155" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="P155" t="n">
-        <v>150000</v>
+        <v>280000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>333</v>
+        <v>622</v>
       </c>
       <c r="T155" t="n">
         <v>450</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E156" t="n">
         <v>9</v>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12844,32 +12844,32 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N156" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="O156" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P156" t="n">
-        <v>150000</v>
+        <v>14542</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>333</v>
+        <v>808</v>
       </c>
       <c r="T156" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E157" t="n">
         <v>9</v>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N157" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O157" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P157" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T157" t="n">
         <v>450</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
@@ -12995,25 +12995,25 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N158" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O158" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P158" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="T158" t="n">
         <v>18</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E159" t="n">
         <v>9</v>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -13084,32 +13084,32 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N159" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O159" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P159" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E160" t="n">
         <v>9</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -13164,32 +13164,32 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N160" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O160" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P160" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E161" t="n">
         <v>9</v>
@@ -13235,41 +13235,41 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T161" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E162" t="n">
         <v>9</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="N162" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O162" t="n">
         <v>10000</v>
       </c>
       <c r="P162" t="n">
-        <v>9746</v>
+        <v>10000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T162" t="n">
         <v>18</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E163" t="n">
         <v>9</v>
@@ -13400,24 +13400,24 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P163" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T163" t="n">
         <v>18</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E164" t="n">
         <v>9</v>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P164" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T164" t="n">
         <v>18</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E165" t="n">
         <v>9</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T165" t="n">
         <v>18</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E166" t="n">
         <v>9</v>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>9746</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>667</v>
+        <v>541</v>
       </c>
       <c r="T166" t="n">
         <v>18</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E167" t="n">
         <v>9</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N167" t="n">
         <v>17000</v>
       </c>
       <c r="O167" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P167" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T167" t="n">
         <v>18</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E168" t="n">
         <v>9</v>
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N168" t="n">
         <v>12000</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E169" t="n">
         <v>9</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N169" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T169" t="n">
         <v>18</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44390</v>
+        <v>44225</v>
       </c>
       <c r="E170" t="n">
         <v>9</v>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T170" t="n">
         <v>18</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E171" t="n">
         <v>9</v>
@@ -14044,17 +14044,17 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="N171" t="n">
         <v>17000</v>
       </c>
       <c r="O171" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P171" t="n">
         <v>18000</v>
       </c>
-      <c r="P171" t="n">
-        <v>17556</v>
-      </c>
       <c r="Q171" t="inlineStr">
         <is>
           <t>$/caja 18 kilos embalada</t>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T171" t="n">
         <v>18</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E172" t="n">
         <v>9</v>
@@ -14124,7 +14124,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N172" t="n">
         <v>12000</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E173" t="n">
         <v>9</v>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N173" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O173" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P173" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="T173" t="n">
         <v>18</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E174" t="n">
         <v>9</v>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E175" t="n">
         <v>9</v>
@@ -14360,24 +14360,24 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="N175" t="n">
-        <v>230000</v>
+        <v>17000</v>
       </c>
       <c r="O175" t="n">
-        <v>230000</v>
+        <v>18000</v>
       </c>
       <c r="P175" t="n">
-        <v>230000</v>
+        <v>17556</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -14386,10 +14386,10 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>511</v>
+        <v>975</v>
       </c>
       <c r="T175" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E176" t="n">
         <v>9</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T176" t="n">
         <v>18</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E177" t="n">
         <v>9</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N177" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O177" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P177" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="T177" t="n">
         <v>18</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E178" t="n">
         <v>9</v>
@@ -14600,24 +14600,24 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T178" t="n">
         <v>18</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E179" t="n">
         <v>9</v>
@@ -14684,20 +14684,20 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="N179" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O179" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P179" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -14706,10 +14706,10 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T179" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E180" t="n">
         <v>9</v>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N180" t="n">
         <v>10000</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E181" t="n">
         <v>9</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N181" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O181" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P181" t="n">
-        <v>12409</v>
+        <v>5000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>689</v>
+        <v>278</v>
       </c>
       <c r="T181" t="n">
         <v>18</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E182" t="n">
         <v>9</v>
@@ -14915,29 +14915,29 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N182" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O182" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P182" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T182" t="n">
         <v>18</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E183" t="n">
         <v>9</v>
@@ -15000,24 +15000,24 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N183" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O183" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P183" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T183" t="n">
         <v>18</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E184" t="n">
         <v>9</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N184" t="n">
         <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>11375</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="T184" t="n">
         <v>18</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E185" t="n">
         <v>9</v>
@@ -15160,24 +15160,24 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>12409</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1111</v>
+        <v>689</v>
       </c>
       <c r="T185" t="n">
         <v>18</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E186" t="n">
         <v>9</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N186" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O186" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P186" t="n">
-        <v>16571</v>
+        <v>10000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>921</v>
+        <v>556</v>
       </c>
       <c r="T186" t="n">
         <v>18</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E187" t="n">
         <v>9</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N187" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O187" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P187" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T187" t="n">
         <v>18</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E188" t="n">
         <v>9</v>
@@ -15400,24 +15400,24 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O188" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P188" t="n">
-        <v>17000</v>
+        <v>11375</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>944</v>
+        <v>632</v>
       </c>
       <c r="T188" t="n">
         <v>18</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E189" t="n">
         <v>9</v>
@@ -15480,24 +15480,24 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="N189" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O189" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P189" t="n">
-        <v>12390</v>
+        <v>20000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>688</v>
+        <v>1111</v>
       </c>
       <c r="T189" t="n">
         <v>18</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E190" t="n">
         <v>9</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N190" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O190" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P190" t="n">
-        <v>10000</v>
+        <v>16571</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>556</v>
+        <v>921</v>
       </c>
       <c r="T190" t="n">
         <v>18</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E191" t="n">
         <v>9</v>
@@ -15640,24 +15640,24 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N191" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O191" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P191" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T191" t="n">
         <v>18</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E192" t="n">
         <v>9</v>
@@ -15715,29 +15715,29 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M192" t="n">
         <v>125</v>
       </c>
       <c r="N192" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O192" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P192" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T192" t="n">
         <v>18</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E193" t="n">
         <v>9</v>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="N193" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O193" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P193" t="n">
-        <v>8000</v>
+        <v>12390</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>444</v>
+        <v>688</v>
       </c>
       <c r="T193" t="n">
         <v>18</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E194" t="n">
         <v>9</v>
@@ -15875,29 +15875,29 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="N194" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O194" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P194" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T194" t="n">
         <v>18</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E195" t="n">
         <v>9</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="N195" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O195" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P195" t="n">
-        <v>10909</v>
+        <v>13000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="T195" t="n">
         <v>18</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E196" t="n">
         <v>9</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="N196" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O196" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P196" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T196" t="n">
         <v>18</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E197" t="n">
         <v>9</v>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -16124,20 +16124,20 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N197" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O197" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P197" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T197" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E198" t="n">
         <v>9</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="N198" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O198" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P198" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T198" t="n">
         <v>18</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E199" t="n">
         <v>9</v>
@@ -16280,24 +16280,24 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="N199" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O199" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P199" t="n">
-        <v>21000</v>
+        <v>10909</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1167</v>
+        <v>606</v>
       </c>
       <c r="T199" t="n">
         <v>18</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E200" t="n">
         <v>9</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="N200" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O200" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P200" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T200" t="n">
         <v>18</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E201" t="n">
         <v>9</v>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -16444,20 +16444,20 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="N201" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="O201" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="P201" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T201" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16515,16 +16515,16 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N202" t="n">
         <v>8000</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44238</v>
+        <v>44172</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
@@ -16600,24 +16600,24 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N203" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O203" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P203" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="T203" t="n">
         <v>18</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E204" t="n">
         <v>9</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="N204" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O204" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P204" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44320</v>
+        <v>44214</v>
       </c>
       <c r="E205" t="n">
         <v>9</v>
@@ -16755,29 +16755,29 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="N205" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O205" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P205" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E206" t="n">
         <v>9</v>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P206" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16915,29 +16915,29 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N207" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O207" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P207" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T207" t="n">
         <v>18</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -17007,13 +17007,13 @@
         <v>180</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E209" t="n">
         <v>9</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>180</v>
       </c>
       <c r="N209" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O209" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P209" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1056</v>
+        <v>944</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17160,24 +17160,24 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N210" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P210" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E211" t="n">
         <v>9</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N211" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O211" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P211" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T211" t="n">
         <v>18</v>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N212" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P212" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>639</v>
+        <v>444</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17400,24 +17400,24 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N213" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="O213" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="P213" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>533</v>
+        <v>1056</v>
       </c>
       <c r="T213" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17475,29 +17475,29 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N214" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O214" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P214" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E215" t="n">
         <v>9</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N215" t="n">
         <v>12000</v>
       </c>
       <c r="O215" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P215" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N216" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O216" t="n">
         <v>12000</v>
       </c>
       <c r="P216" t="n">
-        <v>10909</v>
+        <v>11500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="T216" t="n">
         <v>18</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,20 +17724,20 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N217" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O217" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P217" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17746,10 +17746,10 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T217" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E218" t="n">
         <v>9</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N218" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T218" t="n">
         <v>18</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E219" t="n">
         <v>9</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O219" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P219" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T219" t="n">
         <v>18</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E220" t="n">
         <v>9</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -17964,20 +17964,20 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="N220" t="n">
-        <v>380000</v>
+        <v>10000</v>
       </c>
       <c r="O220" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>380000</v>
+        <v>10909</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>844</v>
+        <v>606</v>
       </c>
       <c r="T220" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E221" t="n">
         <v>9</v>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N221" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O221" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P221" t="n">
-        <v>14440</v>
+        <v>12000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>802</v>
+        <v>667</v>
       </c>
       <c r="T221" t="n">
         <v>18</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O222" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E223" t="n">
         <v>9</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N223" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O223" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P223" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T223" t="n">
         <v>18</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E224" t="n">
         <v>9</v>
@@ -18284,20 +18284,20 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="N224" t="n">
-        <v>13000</v>
+        <v>380000</v>
       </c>
       <c r="O224" t="n">
-        <v>13000</v>
+        <v>380000</v>
       </c>
       <c r="P224" t="n">
-        <v>13000</v>
+        <v>380000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -18306,10 +18306,10 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>722</v>
+        <v>844</v>
       </c>
       <c r="T224" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E225" t="n">
         <v>9</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N225" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O225" t="n">
         <v>15000</v>
       </c>
       <c r="P225" t="n">
-        <v>15000</v>
+        <v>14440</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="T225" t="n">
         <v>18</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18435,29 +18435,29 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O226" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P226" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T226" t="n">
         <v>18</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18520,24 +18520,24 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N227" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O227" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T227" t="n">
         <v>18</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E228" t="n">
         <v>9</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="N228" t="n">
         <v>13000</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E229" t="n">
         <v>9</v>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O229" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P229" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="N230" t="n">
         <v>17000</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18840,24 +18840,24 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="N231" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P231" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N232" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O232" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P232" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E233" t="n">
         <v>9</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P233" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N234" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O234" t="n">
         <v>17000</v>
       </c>
       <c r="P234" t="n">
-        <v>16455</v>
+        <v>17000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>9</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N235" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P235" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N236" t="n">
         <v>10000</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N237" t="n">
         <v>8000</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N238" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O238" t="n">
         <v>17000</v>
       </c>
       <c r="P238" t="n">
-        <v>16200</v>
+        <v>16455</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="N239" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O239" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>11200</v>
+        <v>14000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>622</v>
+        <v>778</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E240" t="n">
         <v>9</v>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="N240" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O240" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P240" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E241" t="n">
         <v>9</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="N241" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P241" t="n">
-        <v>11075</v>
+        <v>8000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>615</v>
+        <v>444</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E242" t="n">
         <v>9</v>
@@ -19715,29 +19715,29 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="N242" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O242" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P242" t="n">
-        <v>150000</v>
+        <v>16200</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>333</v>
+        <v>900</v>
       </c>
       <c r="T242" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
@@ -19795,29 +19795,29 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="N243" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O243" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>444</v>
+        <v>622</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N244" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O244" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T244" t="n">
         <v>18</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19964,20 +19964,20 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="N245" t="n">
-        <v>360000</v>
+        <v>10000</v>
       </c>
       <c r="O245" t="n">
-        <v>360000</v>
+        <v>12000</v>
       </c>
       <c r="P245" t="n">
-        <v>360000</v>
+        <v>11075</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>800</v>
+        <v>615</v>
       </c>
       <c r="T245" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20035,29 +20035,29 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N246" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="O246" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="P246" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T246" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N247" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O247" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P247" t="n">
-        <v>10903</v>
+        <v>8000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>606</v>
+        <v>444</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -20204,7 +20204,7 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
         <v>12000</v>
@@ -20217,7 +20217,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E249" t="n">
         <v>9</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,20 +20284,20 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N249" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="O249" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="P249" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T249" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>9</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="N250" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O250" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P250" t="n">
-        <v>17455</v>
+        <v>14000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>970</v>
+        <v>778</v>
       </c>
       <c r="T250" t="n">
         <v>18</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="N251" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P251" t="n">
-        <v>139000</v>
+        <v>10903</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>309</v>
+        <v>606</v>
       </c>
       <c r="T251" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -20524,7 +20524,7 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="N252" t="n">
         <v>12000</v>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -20675,29 +20675,29 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P254" t="n">
-        <v>8000</v>
+        <v>17455</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>444</v>
+        <v>970</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P255" t="n">
-        <v>12000</v>
+        <v>139000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>667</v>
+        <v>309</v>
       </c>
       <c r="T255" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="256">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E256" t="n">
         <v>9</v>
@@ -20844,7 +20844,7 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N256" t="n">
         <v>12000</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O257" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P257" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N258" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P258" t="n">
-        <v>15360</v>
+        <v>8000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>853</v>
+        <v>444</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N259" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O259" t="n">
         <v>12000</v>
       </c>
       <c r="P259" t="n">
-        <v>10923</v>
+        <v>12000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>607</v>
+        <v>667</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N260" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P260" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P261" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="N262" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O262" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>10000</v>
+        <v>15360</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>556</v>
+        <v>853</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N263" t="n">
         <v>10000</v>
       </c>
       <c r="O263" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P263" t="n">
-        <v>10000</v>
+        <v>10923</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21475,29 +21475,29 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="O264" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P264" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="T264" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21555,25 +21555,25 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>100</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,20 +21644,20 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T266" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -21715,29 +21715,29 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N267" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O267" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P267" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21795,29 +21795,29 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N268" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O268" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P268" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T268" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O269" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P269" t="n">
-        <v>11053</v>
+        <v>8000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>614</v>
+        <v>444</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N270" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O270" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P270" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T270" t="n">
         <v>450</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="N271" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="O271" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="P271" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>444</v>
+        <v>1111</v>
       </c>
       <c r="T271" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N272" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O272" t="n">
         <v>17000</v>
       </c>
       <c r="P272" t="n">
-        <v>16542</v>
+        <v>17000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>919</v>
+        <v>944</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N273" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>17571</v>
+        <v>11053</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>976</v>
+        <v>614</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22284,20 +22284,20 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="N274" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O274" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P274" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T274" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,29 +22355,29 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="N275" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O275" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P275" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T275" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="N276" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P276" t="n">
-        <v>11379</v>
+        <v>16542</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>632</v>
+        <v>919</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44161</v>
+        <v>44181</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22520,24 +22520,24 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="N277" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O277" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P277" t="n">
-        <v>20000</v>
+        <v>17571</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1111</v>
+        <v>976</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="N278" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="N279" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P279" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="N280" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O280" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P280" t="n">
-        <v>14000</v>
+        <v>11379</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>778</v>
+        <v>632</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N281" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O281" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P281" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N282" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O282" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P282" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -22995,29 +22995,29 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N283" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O283" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P283" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>944</v>
+        <v>1222</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N284" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O284" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P284" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>583</v>
+        <v>778</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23160,11 +23160,11 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N285" t="n">
         <v>17000</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N286" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O286" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P286" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>861</v>
+        <v>778</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23320,24 +23320,24 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O287" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P287" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44309</v>
+        <v>44333</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N288" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O288" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>389</v>
+        <v>583</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23475,29 +23475,29 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="O289" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P289" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="T289" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O290" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>10909</v>
+        <v>15500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>606</v>
+        <v>861</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23644,20 +23644,20 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="N291" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O291" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P291" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T291" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292">
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23727,13 +23727,13 @@
         <v>100</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23795,29 +23795,29 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="N293" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="O293" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="P293" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T293" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O294" t="n">
         <v>12000</v>
       </c>
       <c r="P294" t="n">
-        <v>12000</v>
+        <v>10909</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23960,24 +23960,24 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="N295" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O295" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P295" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T295" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44319</v>
+        <v>44309</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,7 +24044,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N296" t="n">
         <v>10000</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P297" t="n">
-        <v>11083</v>
+        <v>14000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>616</v>
+        <v>778</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44253</v>
+        <v>44344</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="N298" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O298" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P298" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="N299" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O299" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P299" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="N300" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O300" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P300" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T300" t="n">
         <v>18</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N301" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O301" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P301" t="n">
-        <v>17000</v>
+        <v>11083</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>944</v>
+        <v>616</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N302" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P302" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N303" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O303" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P303" t="n">
-        <v>16526</v>
+        <v>14000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>918</v>
+        <v>778</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N304" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,29 +24755,29 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44301</v>
+        <v>44281</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N306" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>95</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O307" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P307" t="n">
-        <v>12000</v>
+        <v>16526</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>667</v>
+        <v>918</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44370</v>
+        <v>44211</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O308" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P308" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="N310" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P310" t="n">
-        <v>10914</v>
+        <v>17000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>606</v>
+        <v>944</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="N311" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T311" t="n">
         <v>18</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="N312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
         <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>10917</v>
+        <v>12000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44232</v>
+        <v>44326</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="N313" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O313" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P313" t="n">
-        <v>14579</v>
+        <v>16000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>810</v>
+        <v>889</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44232</v>
+        <v>44326</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O314" t="n">
         <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>10914</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="N315" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O315" t="n">
         <v>18000</v>
       </c>
       <c r="P315" t="n">
-        <v>17552</v>
+        <v>18000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="N316" t="n">
         <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>10917</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25715,29 +25715,29 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>14579</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>556</v>
+        <v>810</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P319" t="n">
-        <v>12000</v>
+        <v>17552</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>667</v>
+        <v>975</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25964,20 +25964,20 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="N320" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T320" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26040,24 +26040,24 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="N321" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O321" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P321" t="n">
-        <v>13542</v>
+        <v>10000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>752</v>
+        <v>556</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26124,20 +26124,20 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N322" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="O322" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P322" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T322" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N323" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,20 +26284,20 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P324" t="n">
-        <v>11083</v>
+        <v>200000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>616</v>
+        <v>444</v>
       </c>
       <c r="T324" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N325" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P325" t="n">
-        <v>12000</v>
+        <v>13542</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="T325" t="n">
         <v>18</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,20 +26444,20 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="N326" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="O326" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="P326" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T326" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N327" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O327" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P327" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1167</v>
+        <v>611</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26607,13 +26607,13 @@
         <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>16000</v>
+        <v>11083</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>889</v>
+        <v>616</v>
       </c>
       <c r="T328" t="n">
         <v>18</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="N329" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>16463</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>915</v>
+        <v>667</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26755,41 +26755,41 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="N330" t="n">
-        <v>80000</v>
+        <v>18000</v>
       </c>
       <c r="O330" t="n">
-        <v>80000</v>
+        <v>18000</v>
       </c>
       <c r="P330" t="n">
-        <v>80000</v>
+        <v>18000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>178</v>
+        <v>1000</v>
       </c>
       <c r="T330" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,29 +26835,29 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="N331" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O331" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P331" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N332" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P332" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44244</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P333" t="n">
-        <v>11633</v>
+        <v>16463</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>646</v>
+        <v>915</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44208</v>
+        <v>44343</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,41 +27075,41 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N334" t="n">
-        <v>22000</v>
+        <v>80000</v>
       </c>
       <c r="O334" t="n">
-        <v>22000</v>
+        <v>80000</v>
       </c>
       <c r="P334" t="n">
-        <v>22000</v>
+        <v>80000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1222</v>
+        <v>178</v>
       </c>
       <c r="T334" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N335" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O335" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P335" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1167</v>
+        <v>944</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44179</v>
+        <v>44223</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N336" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O336" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P336" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,32 +27324,32 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N337" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="O337" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>150000</v>
+        <v>11633</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>333</v>
+        <v>646</v>
       </c>
       <c r="T337" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,32 +27404,32 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="N338" t="n">
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="O338" t="n">
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="P338" t="n">
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>444</v>
+        <v>1222</v>
       </c>
       <c r="T338" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27480,24 +27480,24 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27564,20 +27564,20 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N340" t="n">
-        <v>360000</v>
+        <v>18000</v>
       </c>
       <c r="O340" t="n">
-        <v>360000</v>
+        <v>18000</v>
       </c>
       <c r="P340" t="n">
-        <v>360000</v>
+        <v>18000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T340" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341">
@@ -27635,25 +27635,25 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
         <v>5</v>
       </c>
       <c r="N341" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="O341" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="P341" t="n">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27662,11 +27662,11 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N342" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="O342" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="P342" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27800,24 +27800,24 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N343" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O343" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P343" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="N344" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="O344" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="P344" t="n">
-        <v>10889</v>
+        <v>360000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>605</v>
+        <v>800</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27967,13 +27967,13 @@
         <v>5</v>
       </c>
       <c r="N345" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="O345" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P345" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="T345" t="n">
         <v>450</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28035,29 +28035,29 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N347" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O347" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P347" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1083</v>
+        <v>944</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,68 +28167,388 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E348" t="n">
+        <v>9</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>180</v>
+      </c>
+      <c r="N348" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O348" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P348" t="n">
+        <v>10889</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S348" t="n">
+        <v>605</v>
+      </c>
+      <c r="T348" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>10</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E349" t="n">
+        <v>9</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>5</v>
+      </c>
+      <c r="N349" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O349" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P349" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S349" t="n">
+        <v>489</v>
+      </c>
+      <c r="T349" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>10</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E350" t="n">
+        <v>9</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>70</v>
+      </c>
+      <c r="N350" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O350" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P350" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
+        <v>556</v>
+      </c>
+      <c r="T350" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>10</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E348" t="n">
-        <v>9</v>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G348" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I348" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K348" t="inlineStr">
+      <c r="E351" t="n">
+        <v>9</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L348" t="inlineStr">
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>400</v>
+      </c>
+      <c r="N351" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O351" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P351" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
+        <v>1083</v>
+      </c>
+      <c r="T351" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>10</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E352" t="n">
+        <v>9</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M348" t="n">
+      <c r="M352" t="n">
         <v>220</v>
       </c>
-      <c r="N348" t="n">
+      <c r="N352" t="n">
         <v>16000</v>
       </c>
-      <c r="O348" t="n">
+      <c r="O352" t="n">
         <v>17000</v>
       </c>
-      <c r="P348" t="n">
+      <c r="P352" t="n">
         <v>16455</v>
       </c>
-      <c r="Q348" t="inlineStr">
+      <c r="Q352" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R348" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S348" t="n">
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S352" t="n">
         <v>914</v>
       </c>
-      <c r="T348" t="n">
+      <c r="T352" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T396"/>
+  <dimension ref="A1:T398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E253" t="n">
         <v>9</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>125</v>
+        <v>410</v>
       </c>
       <c r="N253" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O253" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P253" t="n">
-        <v>14440</v>
+        <v>18378</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>802</v>
+        <v>1021</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="N254" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P254" t="n">
-        <v>15000</v>
+        <v>12448</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>833</v>
+        <v>692</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N255" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P255" t="n">
-        <v>12000</v>
+        <v>14440</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>667</v>
+        <v>802</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P256" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N257" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O257" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P257" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -21000,24 +21000,24 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N258" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O258" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P258" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>944</v>
+        <v>722</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21075,29 +21075,29 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N259" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P259" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21160,24 +21160,24 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="N260" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O260" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P260" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21235,29 +21235,29 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="N261" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O261" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P261" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21320,24 +21320,24 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="N262" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O262" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P262" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>944</v>
+        <v>722</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N263" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O263" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P263" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21475,29 +21475,29 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N264" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O264" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P264" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21635,29 +21635,29 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N266" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>16455</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21715,25 +21715,25 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N267" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N268" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>10000</v>
+        <v>16455</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>556</v>
+        <v>914</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N269" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O269" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P269" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N270" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O270" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P270" t="n">
-        <v>16200</v>
+        <v>10000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N271" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P271" t="n">
-        <v>11200</v>
+        <v>8000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22115,29 +22115,29 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O272" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P272" t="n">
-        <v>8000</v>
+        <v>16200</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>444</v>
+        <v>900</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="N273" t="n">
         <v>10000</v>
@@ -22213,7 +22213,7 @@
         <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>11075</v>
+        <v>11200</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="T273" t="n">
         <v>18</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,20 +22284,20 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N274" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P274" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T274" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,29 +22355,29 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="N275" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O275" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>8000</v>
+        <v>11075</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>444</v>
+        <v>615</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,20 +22444,20 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N276" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P276" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T276" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="277">
@@ -22515,29 +22515,29 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N277" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>360000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T277" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278">
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22684,20 +22684,20 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>360000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>360000</v>
       </c>
       <c r="P279" t="n">
-        <v>10903</v>
+        <v>360000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>606</v>
+        <v>800</v>
       </c>
       <c r="T279" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="280">
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N281" t="n">
         <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P281" t="n">
-        <v>10000</v>
+        <v>10903</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="N282" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O282" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>17455</v>
+        <v>12000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>970</v>
+        <v>667</v>
       </c>
       <c r="T282" t="n">
         <v>18</v>
@@ -22995,29 +22995,29 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O283" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P283" t="n">
-        <v>139000</v>
+        <v>10000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>309</v>
+        <v>556</v>
       </c>
       <c r="T283" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284">
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N284" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O284" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P284" t="n">
-        <v>12000</v>
+        <v>17455</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>667</v>
+        <v>970</v>
       </c>
       <c r="T284" t="n">
         <v>18</v>
@@ -23155,29 +23155,29 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N285" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O285" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="P285" t="n">
-        <v>10000</v>
+        <v>139000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>556</v>
+        <v>309</v>
       </c>
       <c r="T285" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="N286" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O286" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P286" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T286" t="n">
         <v>18</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,29 +23315,29 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O287" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P287" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="N288" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O288" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P288" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T288" t="n">
         <v>18</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23480,24 +23480,24 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="N289" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O289" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P289" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N290" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O290" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P290" t="n">
-        <v>15360</v>
+        <v>12000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>853</v>
+        <v>667</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="N291" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P291" t="n">
-        <v>10923</v>
+        <v>18000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>607</v>
+        <v>1000</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23720,24 +23720,24 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="N292" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O292" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>17000</v>
+        <v>15360</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>944</v>
+        <v>853</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N293" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O293" t="n">
         <v>12000</v>
       </c>
       <c r="P293" t="n">
-        <v>12000</v>
+        <v>10923</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>667</v>
+        <v>607</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O294" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P294" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23955,25 +23955,25 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,20 +24044,20 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="N296" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O296" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P296" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T296" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N297" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O297" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P297" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24275,29 +24275,29 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N299" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O299" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P299" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24355,29 +24355,29 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N300" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O300" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P300" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T300" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301">
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N301" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O301" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P301" t="n">
-        <v>11053</v>
+        <v>20000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>614</v>
+        <v>1111</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N302" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="O302" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P302" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>489</v>
+        <v>944</v>
       </c>
       <c r="T302" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="N303" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>200000</v>
+        <v>11053</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>444</v>
+        <v>614</v>
       </c>
       <c r="T303" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24680,36 +24680,36 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
+        <v>10</v>
+      </c>
+      <c r="N304" t="n">
+        <v>220000</v>
+      </c>
+      <c r="O304" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P304" t="n">
+        <v>220000</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S304" t="n">
+        <v>489</v>
+      </c>
+      <c r="T304" t="n">
         <v>450</v>
-      </c>
-      <c r="N304" t="n">
-        <v>18000</v>
-      </c>
-      <c r="O304" t="n">
-        <v>19000</v>
-      </c>
-      <c r="P304" t="n">
-        <v>18444</v>
-      </c>
-      <c r="Q304" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos embalada</t>
-        </is>
-      </c>
-      <c r="R304" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S304" t="n">
-        <v>1025</v>
-      </c>
-      <c r="T304" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="P305" t="n">
-        <v>12526</v>
+        <v>200000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>696</v>
+        <v>444</v>
       </c>
       <c r="T305" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="306">
@@ -24835,29 +24835,29 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>18444</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>556</v>
+        <v>1025</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>12526</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>556</v>
+        <v>696</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N308" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O309" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P309" t="n">
-        <v>12556</v>
+        <v>10000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>698</v>
+        <v>556</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25155,29 +25155,29 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M310" t="n">
         <v>100</v>
       </c>
       <c r="N310" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P310" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N311" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P311" t="n">
-        <v>18000</v>
+        <v>12556</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1000</v>
+        <v>698</v>
       </c>
       <c r="T311" t="n">
         <v>18</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N312" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="N313" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O313" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P313" t="n">
-        <v>16542</v>
+        <v>18000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>919</v>
+        <v>1000</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="N314" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O314" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P314" t="n">
-        <v>17571</v>
+        <v>13000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>976</v>
+        <v>722</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="N315" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O315" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P315" t="n">
-        <v>12000</v>
+        <v>16542</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>667</v>
+        <v>919</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>17571</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>556</v>
+        <v>976</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O317" t="n">
         <v>12000</v>
       </c>
       <c r="P317" t="n">
-        <v>11379</v>
+        <v>12000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,29 +25795,29 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="N318" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O318" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="N319" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>17000</v>
+        <v>11379</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>944</v>
+        <v>632</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,29 +25955,29 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N320" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O320" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P320" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1222</v>
+        <v>1111</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N321" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O321" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P321" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26115,29 +26115,29 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N322" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O322" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P322" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>944</v>
+        <v>1222</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N323" t="n">
         <v>14000</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26280,11 +26280,11 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N324" t="n">
         <v>17000</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N325" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O325" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P325" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>583</v>
+        <v>778</v>
       </c>
       <c r="T325" t="n">
         <v>18</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="N327" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O327" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P327" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>861</v>
+        <v>583</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26600,24 +26600,24 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T328" t="n">
         <v>18</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,25 +26675,25 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N329" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O329" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P329" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26760,24 +26760,24 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N330" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O330" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1028</v>
+        <v>667</v>
       </c>
       <c r="T330" t="n">
         <v>18</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O331" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P331" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26915,29 +26915,29 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P332" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N333" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O333" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P333" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>389</v>
+        <v>694</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,20 +27084,20 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N334" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O334" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="T334" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335">
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P335" t="n">
-        <v>10909</v>
+        <v>7000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>606</v>
+        <v>389</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N336" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O336" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="P336" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T336" t="n">
         <v>450</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="N337" t="n">
         <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>10909</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27400,24 +27400,24 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N338" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="O338" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="P338" t="n">
-        <v>14000</v>
+        <v>250000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T338" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27560,24 +27560,24 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="N340" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O340" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P340" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="N341" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P341" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27720,24 +27720,24 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N342" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O342" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P342" t="n">
-        <v>11083</v>
+        <v>17000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>616</v>
+        <v>944</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P343" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N344" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O344" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>14000</v>
+        <v>11083</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>778</v>
+        <v>616</v>
       </c>
       <c r="T344" t="n">
         <v>18</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N345" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O345" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P345" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T345" t="n">
         <v>18</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28040,24 +28040,24 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N346" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O346" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P346" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28120,11 +28120,11 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N347" t="n">
         <v>12000</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N348" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O348" t="n">
         <v>17000</v>
       </c>
       <c r="P348" t="n">
-        <v>16526</v>
+        <v>17000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T349" t="n">
         <v>18</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44301</v>
+        <v>44160</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28367,13 +28367,13 @@
         <v>95</v>
       </c>
       <c r="N350" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O350" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P350" t="n">
-        <v>8000</v>
+        <v>16526</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>444</v>
+        <v>918</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28435,29 +28435,29 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N351" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O351" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T351" t="n">
         <v>18</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
         <v>95</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28600,24 +28600,24 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N353" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O353" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P353" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44326</v>
+        <v>44301</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="N354" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P354" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
         <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>10914</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28847,13 +28847,13 @@
         <v>255</v>
       </c>
       <c r="N356" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O356" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P356" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N357" t="n">
         <v>10000</v>
@@ -28933,7 +28933,7 @@
         <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>10917</v>
+        <v>10914</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,29 +28995,29 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="N358" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O358" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P358" t="n">
-        <v>14579</v>
+        <v>18000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>810</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
         <v>18</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="N359" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
         <v>12000</v>
       </c>
       <c r="P359" t="n">
-        <v>12000</v>
+        <v>10917</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N360" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O360" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P360" t="n">
-        <v>17552</v>
+        <v>14579</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>975</v>
+        <v>810</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
         <v>55</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29320,24 +29320,24 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N362" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O362" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P362" t="n">
-        <v>10000</v>
+        <v>17552</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>556</v>
+        <v>975</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N363" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P363" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29475,29 +29475,29 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N364" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P364" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N365" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="O365" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T365" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N366" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O366" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P366" t="n">
-        <v>13542</v>
+        <v>12000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>752</v>
+        <v>667</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29727,13 +29727,13 @@
         <v>12</v>
       </c>
       <c r="N367" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O367" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P367" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T367" t="n">
         <v>450</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N368" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O368" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P368" t="n">
-        <v>11000</v>
+        <v>13542</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29884,20 +29884,20 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N369" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O369" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P369" t="n">
-        <v>11083</v>
+        <v>250000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>616</v>
+        <v>556</v>
       </c>
       <c r="T369" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N370" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P370" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="N371" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P371" t="n">
-        <v>18000</v>
+        <v>11083</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1000</v>
+        <v>616</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,25 +30115,25 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N372" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O372" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P372" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N373" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O373" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P373" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="N374" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O374" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P374" t="n">
-        <v>16463</v>
+        <v>21000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>915</v>
+        <v>1167</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,41 +30355,41 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N375" t="n">
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="O375" t="n">
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="P375" t="n">
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>178</v>
+        <v>889</v>
       </c>
       <c r="T375" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30440,24 +30440,24 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="N376" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O376" t="n">
         <v>17000</v>
       </c>
       <c r="P376" t="n">
-        <v>17000</v>
+        <v>16463</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>944</v>
+        <v>915</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30515,41 +30515,41 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="N377" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="O377" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="P377" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>667</v>
+        <v>178</v>
       </c>
       <c r="T377" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N378" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P378" t="n">
-        <v>11633</v>
+        <v>17000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>646</v>
+        <v>944</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,20 +30684,20 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N379" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N380" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O380" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>21000</v>
+        <v>11633</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1167</v>
+        <v>646</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30844,20 +30844,20 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N381" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O381" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P381" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,41 +30915,41 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>150000</v>
+        <v>21000</v>
       </c>
       <c r="O382" t="n">
-        <v>150000</v>
+        <v>21000</v>
       </c>
       <c r="P382" t="n">
-        <v>150000</v>
+        <v>21000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>333</v>
+        <v>1167</v>
       </c>
       <c r="T382" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,32 +31004,32 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="N383" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="O383" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="P383" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T383" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="384">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,32 +31084,32 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P384" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T384" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="385">
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N385" t="n">
-        <v>360000</v>
+        <v>200000</v>
       </c>
       <c r="O385" t="n">
-        <v>360000</v>
+        <v>200000</v>
       </c>
       <c r="P385" t="n">
-        <v>360000</v>
+        <v>200000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T385" t="n">
         <v>450</v>
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="N386" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>270000</v>
+        <v>12000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T386" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387">
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
         <v>3</v>
       </c>
       <c r="N387" t="n">
-        <v>150000</v>
+        <v>360000</v>
       </c>
       <c r="O387" t="n">
-        <v>150000</v>
+        <v>360000</v>
       </c>
       <c r="P387" t="n">
-        <v>150000</v>
+        <v>360000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="T387" t="n">
         <v>450</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="N388" t="n">
-        <v>17000</v>
+        <v>270000</v>
       </c>
       <c r="O388" t="n">
-        <v>17000</v>
+        <v>270000</v>
       </c>
       <c r="P388" t="n">
-        <v>17000</v>
+        <v>270000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="T388" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31480,24 +31480,24 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="N389" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P389" t="n">
-        <v>10889</v>
+        <v>150000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>605</v>
+        <v>333</v>
       </c>
       <c r="T389" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="390">
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N390" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="O390" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P390" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>489</v>
+        <v>944</v>
       </c>
       <c r="T390" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391">
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N391" t="n">
         <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>10889</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31720,24 +31720,24 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="N392" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="O392" t="n">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="P392" t="n">
-        <v>19500</v>
+        <v>220000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1083</v>
+        <v>489</v>
       </c>
       <c r="T392" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="N393" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O393" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>16455</v>
+        <v>10000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31875,29 +31875,29 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N394" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O394" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P394" t="n">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>867</v>
+        <v>1083</v>
       </c>
       <c r="T394" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31960,24 +31960,24 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N395" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O395" t="n">
         <v>17000</v>
       </c>
-      <c r="O395" t="n">
-        <v>18000</v>
-      </c>
       <c r="P395" t="n">
-        <v>17500</v>
+        <v>16455</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>972</v>
+        <v>914</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,31 +32044,191 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O396" t="n">
         <v>13000</v>
       </c>
       <c r="P396" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S396" t="n">
+        <v>867</v>
+      </c>
+      <c r="T396" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>10</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E397" t="n">
+        <v>9</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Calibre 90</t>
+        </is>
+      </c>
+      <c r="M397" t="n">
+        <v>200</v>
+      </c>
+      <c r="N397" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O397" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P397" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S397" t="n">
+        <v>972</v>
+      </c>
+      <c r="T397" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>10</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E398" t="n">
+        <v>9</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M398" t="n">
+        <v>270</v>
+      </c>
+      <c r="N398" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O398" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P398" t="n">
         <v>12444</v>
       </c>
-      <c r="Q396" t="inlineStr">
+      <c r="Q398" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R396" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S396" t="n">
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S398" t="n">
         <v>691</v>
       </c>
-      <c r="T396" t="n">
+      <c r="T398" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T405"/>
+  <dimension ref="A1:T407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E202" t="n">
         <v>9</v>
@@ -16515,29 +16515,29 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O202" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P202" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T202" t="n">
         <v>18</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E203" t="n">
         <v>9</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -16604,20 +16604,20 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="N203" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="O203" t="n">
-        <v>210000</v>
+        <v>13000</v>
       </c>
       <c r="P203" t="n">
-        <v>210000</v>
+        <v>12556</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -16626,10 +16626,10 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>467</v>
+        <v>698</v>
       </c>
       <c r="T203" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N204" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O204" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P204" t="n">
-        <v>14556</v>
+        <v>12000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>809</v>
+        <v>667</v>
       </c>
       <c r="T204" t="n">
         <v>18</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N205" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="O205" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P205" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T205" t="n">
         <v>450</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E206" t="n">
         <v>9</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N206" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O206" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P206" t="n">
-        <v>10923</v>
+        <v>14556</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>607</v>
+        <v>809</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="E207" t="n">
         <v>9</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -16924,20 +16924,20 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="N207" t="n">
-        <v>7200</v>
+        <v>250000</v>
       </c>
       <c r="O207" t="n">
-        <v>7500</v>
+        <v>250000</v>
       </c>
       <c r="P207" t="n">
-        <v>7334</v>
+        <v>250000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -16946,10 +16946,10 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>407</v>
+        <v>556</v>
       </c>
       <c r="T207" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E208" t="n">
         <v>9</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N208" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O208" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P208" t="n">
-        <v>15000</v>
+        <v>10923</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>833</v>
+        <v>607</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="N209" t="n">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="O209" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P209" t="n">
-        <v>11564</v>
+        <v>7334</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>642</v>
+        <v>407</v>
       </c>
       <c r="T209" t="n">
         <v>18</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E210" t="n">
         <v>9</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="N210" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O210" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P210" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T210" t="n">
         <v>18</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E211" t="n">
         <v>9</v>
@@ -17244,20 +17244,20 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="N211" t="n">
-        <v>250000</v>
+        <v>11000</v>
       </c>
       <c r="O211" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P211" t="n">
-        <v>250000</v>
+        <v>11564</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -17266,10 +17266,10 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="T211" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T212" t="n">
         <v>18</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E213" t="n">
         <v>9</v>
@@ -17400,24 +17400,24 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="N213" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O213" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P213" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -17426,10 +17426,10 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T213" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="214">
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E214" t="n">
         <v>9</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N214" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O214" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P214" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>861</v>
+        <v>444</v>
       </c>
       <c r="T214" t="n">
         <v>18</v>
@@ -17560,24 +17560,24 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N215" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O215" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P215" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T215" t="n">
         <v>18</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E216" t="n">
         <v>9</v>
@@ -17635,29 +17635,29 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N216" t="n">
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="O216" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="P216" t="n">
-        <v>100000</v>
+        <v>15500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>222</v>
+        <v>861</v>
       </c>
       <c r="T216" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E217" t="n">
         <v>9</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N217" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P217" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T217" t="n">
         <v>18</v>
@@ -17795,29 +17795,29 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N218" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O218" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P218" t="n">
-        <v>16474</v>
+        <v>100000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -17826,10 +17826,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="T218" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219">
@@ -17875,29 +17875,29 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N219" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O219" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P219" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T219" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -17960,24 +17960,24 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N220" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O220" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P220" t="n">
-        <v>11379</v>
+        <v>16474</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T220" t="n">
         <v>18</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N221" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O221" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P221" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T221" t="n">
         <v>450</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E222" t="n">
         <v>9</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="N222" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O222" t="n">
         <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>12000</v>
+        <v>11379</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="T222" t="n">
         <v>18</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E223" t="n">
         <v>9</v>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -18204,20 +18204,20 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N223" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O223" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P223" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -18226,10 +18226,10 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T223" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N224" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O224" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P224" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T224" t="n">
         <v>18</v>
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -18364,20 +18364,20 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="N225" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="O225" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="P225" t="n">
-        <v>380000</v>
+        <v>12000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -18386,10 +18386,10 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>844</v>
+        <v>667</v>
       </c>
       <c r="T225" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -18444,7 +18444,7 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N226" t="n">
         <v>18000</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E227" t="n">
         <v>9</v>
@@ -18515,29 +18515,29 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="N227" t="n">
-        <v>21000</v>
+        <v>380000</v>
       </c>
       <c r="O227" t="n">
-        <v>21000</v>
+        <v>380000</v>
       </c>
       <c r="P227" t="n">
-        <v>21000</v>
+        <v>380000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -18546,10 +18546,10 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1167</v>
+        <v>844</v>
       </c>
       <c r="T227" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228">
@@ -18595,7 +18595,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N228" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P228" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T228" t="n">
         <v>18</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E229" t="n">
         <v>9</v>
@@ -18675,29 +18675,29 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N229" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O229" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P229" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T229" t="n">
         <v>18</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N230" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O230" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P230" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T230" t="n">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E231" t="n">
         <v>9</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N231" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P231" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T231" t="n">
         <v>18</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E232" t="n">
         <v>9</v>
@@ -18927,13 +18927,13 @@
         <v>100</v>
       </c>
       <c r="N232" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O232" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P232" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T232" t="n">
         <v>18</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E233" t="n">
         <v>9</v>
@@ -18995,29 +18995,29 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N233" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O233" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P233" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T233" t="n">
         <v>18</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N234" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O234" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P234" t="n">
-        <v>16625</v>
+        <v>18000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>924</v>
+        <v>1000</v>
       </c>
       <c r="T234" t="n">
         <v>18</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N235" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O235" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P235" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T235" t="n">
         <v>18</v>
@@ -19240,24 +19240,24 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>16625</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>444</v>
+        <v>924</v>
       </c>
       <c r="T236" t="n">
         <v>18</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E237" t="n">
         <v>9</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N237" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P237" t="n">
-        <v>15629</v>
+        <v>12000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>868</v>
+        <v>667</v>
       </c>
       <c r="T237" t="n">
         <v>18</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E238" t="n">
         <v>9</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N238" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E239" t="n">
         <v>9</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="N239" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O239" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P239" t="n">
-        <v>7000</v>
+        <v>15629</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>389</v>
+        <v>868</v>
       </c>
       <c r="T239" t="n">
         <v>18</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E240" t="n">
         <v>9</v>
@@ -19555,29 +19555,29 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N240" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O240" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P240" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="T240" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="N241" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P241" t="n">
-        <v>10909</v>
+        <v>7000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>606</v>
+        <v>389</v>
       </c>
       <c r="T241" t="n">
         <v>18</v>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N242" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="O242" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="P242" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T242" t="n">
         <v>450</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="N243" t="n">
         <v>10000</v>
       </c>
       <c r="O243" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>10000</v>
+        <v>10909</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="T243" t="n">
         <v>18</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E244" t="n">
         <v>9</v>
@@ -19884,20 +19884,20 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="N244" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O244" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P244" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T244" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E245" t="n">
         <v>9</v>
@@ -19955,29 +19955,29 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N245" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O245" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P245" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1083</v>
+        <v>556</v>
       </c>
       <c r="T245" t="n">
         <v>18</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E246" t="n">
         <v>9</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O246" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P246" t="n">
-        <v>16455</v>
+        <v>12000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>914</v>
+        <v>667</v>
       </c>
       <c r="T246" t="n">
         <v>18</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E247" t="n">
         <v>9</v>
@@ -20115,29 +20115,29 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>444</v>
+        <v>1083</v>
       </c>
       <c r="T247" t="n">
         <v>18</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E248" t="n">
         <v>9</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,20 +20204,20 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="N248" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="O248" t="n">
-        <v>160000</v>
+        <v>17000</v>
       </c>
       <c r="P248" t="n">
-        <v>160000</v>
+        <v>16455</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>356</v>
+        <v>914</v>
       </c>
       <c r="T248" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -20275,29 +20275,29 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N249" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T249" t="n">
         <v>18</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20364,20 +20364,20 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N250" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="O250" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="P250" t="n">
-        <v>10000</v>
+        <v>160000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="T250" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E251" t="n">
         <v>9</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N251" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O251" t="n">
         <v>17000</v>
       </c>
       <c r="P251" t="n">
-        <v>15833</v>
+        <v>17000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>880</v>
+        <v>944</v>
       </c>
       <c r="T251" t="n">
         <v>18</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E252" t="n">
         <v>9</v>
@@ -20520,24 +20520,24 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N252" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O252" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P252" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T252" t="n">
         <v>18</v>
@@ -20600,24 +20600,24 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N253" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O253" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>12000</v>
+        <v>15833</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>667</v>
+        <v>880</v>
       </c>
       <c r="T253" t="n">
         <v>18</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E254" t="n">
         <v>9</v>
@@ -20675,29 +20675,29 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N254" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P254" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T254" t="n">
         <v>18</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E255" t="n">
         <v>9</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Carmen</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N255" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O255" t="n">
         <v>12000</v>
       </c>
       <c r="P255" t="n">
-        <v>11059</v>
+        <v>12000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="T255" t="n">
         <v>18</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20847,13 +20847,13 @@
         <v>75</v>
       </c>
       <c r="N256" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O256" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P256" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T256" t="n">
         <v>18</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E257" t="n">
         <v>9</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N257" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P257" t="n">
-        <v>14000</v>
+        <v>11059</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>778</v>
+        <v>614</v>
       </c>
       <c r="T257" t="n">
         <v>18</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E258" t="n">
         <v>9</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O258" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P258" t="n">
-        <v>10903</v>
+        <v>18000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>606</v>
+        <v>1000</v>
       </c>
       <c r="T258" t="n">
         <v>18</v>
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N259" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O259" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P259" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N260" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O260" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P260" t="n">
-        <v>14519</v>
+        <v>10903</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>807</v>
+        <v>606</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,20 +21244,20 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="N261" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O261" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P261" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="N262" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O262" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P262" t="n">
-        <v>10000</v>
+        <v>14519</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>556</v>
+        <v>807</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,29 +21395,29 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N263" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O263" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P263" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N264" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P264" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21555,29 +21555,29 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O265" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P265" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E266" t="n">
         <v>9</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O266" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>8448</v>
+        <v>12500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>469</v>
+        <v>694</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E267" t="n">
         <v>9</v>
@@ -21715,29 +21715,29 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N267" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O267" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P267" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="N268" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P268" t="n">
-        <v>10884</v>
+        <v>8448</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>605</v>
+        <v>469</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N269" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O269" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P269" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E270" t="n">
         <v>9</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N270" t="n">
         <v>10000</v>
       </c>
       <c r="O270" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P270" t="n">
-        <v>10000</v>
+        <v>10884</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -22044,20 +22044,20 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N271" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="O271" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="P271" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T271" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N272" t="n">
         <v>10000</v>
@@ -22195,29 +22195,29 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N273" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="O273" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="P273" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>278</v>
+        <v>511</v>
       </c>
       <c r="T273" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E274" t="n">
         <v>9</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N274" t="n">
         <v>10000</v>
       </c>
       <c r="O274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>10769</v>
+        <v>10000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="T274" t="n">
         <v>18</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E275" t="n">
         <v>9</v>
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="N275" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O275" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P275" t="n">
-        <v>12537</v>
+        <v>5000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>696</v>
+        <v>278</v>
       </c>
       <c r="T275" t="n">
         <v>18</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N276" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P276" t="n">
-        <v>18000</v>
+        <v>10769</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1000</v>
+        <v>598</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N277" t="n">
         <v>12000</v>
       </c>
       <c r="O277" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P277" t="n">
-        <v>12000</v>
+        <v>12537</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22604,20 +22604,20 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
         <v>18000</v>
       </c>
       <c r="O278" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P278" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
         <v>12000</v>
       </c>
       <c r="O279" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P279" t="n">
-        <v>12438</v>
+        <v>12000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="N280" t="n">
-        <v>240000</v>
+        <v>18000</v>
       </c>
       <c r="O280" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="P280" t="n">
-        <v>240000</v>
+        <v>18500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>533</v>
+        <v>1028</v>
       </c>
       <c r="T280" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N281" t="n">
         <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>12000</v>
+        <v>12438</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E282" t="n">
         <v>9</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N282" t="n">
-        <v>22000</v>
+        <v>240000</v>
       </c>
       <c r="O282" t="n">
-        <v>22000</v>
+        <v>240000</v>
       </c>
       <c r="P282" t="n">
-        <v>22000</v>
+        <v>240000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1222</v>
+        <v>533</v>
       </c>
       <c r="T282" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E283" t="n">
         <v>9</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23007,13 +23007,13 @@
         <v>100</v>
       </c>
       <c r="N283" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="N284" t="n">
         <v>22000</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N285" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O285" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P285" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>889</v>
+        <v>1333</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="N286" t="n">
-        <v>280000</v>
+        <v>22000</v>
       </c>
       <c r="O286" t="n">
-        <v>280000</v>
+        <v>22000</v>
       </c>
       <c r="P286" t="n">
-        <v>280000</v>
+        <v>22000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>622</v>
+        <v>1222</v>
       </c>
       <c r="T286" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N287" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P287" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E288" t="n">
         <v>9</v>
@@ -23395,29 +23395,29 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="N288" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O288" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P288" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T288" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N289" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23555,29 +23555,29 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N290" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T290" t="n">
         <v>18</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E291" t="n">
         <v>9</v>
@@ -23640,24 +23640,24 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N291" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O291" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P291" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E292" t="n">
         <v>9</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N292" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P292" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N293" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O293" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P293" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="N294" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P294" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23955,29 +23955,29 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N295" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O295" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P295" t="n">
-        <v>15444</v>
+        <v>17000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24040,24 +24040,24 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N296" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O296" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P296" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,20 +24124,20 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P297" t="n">
-        <v>10833</v>
+        <v>15444</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>602</v>
+        <v>858</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N298" t="n">
-        <v>180000</v>
+        <v>17000</v>
       </c>
       <c r="O298" t="n">
-        <v>180000</v>
+        <v>17000</v>
       </c>
       <c r="P298" t="n">
-        <v>180000</v>
+        <v>17000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>400</v>
+        <v>944</v>
       </c>
       <c r="T298" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>17000</v>
+        <v>10833</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>944</v>
+        <v>602</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,20 +24364,20 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="N300" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="P300" t="n">
-        <v>14438</v>
+        <v>180000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>802</v>
+        <v>400</v>
       </c>
       <c r="T300" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301">
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="O301" t="n">
-        <v>260000</v>
+        <v>17000</v>
       </c>
       <c r="P301" t="n">
-        <v>255556</v>
+        <v>17000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>568</v>
+        <v>944</v>
       </c>
       <c r="T301" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P302" t="n">
-        <v>11083</v>
+        <v>14438</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>616</v>
+        <v>802</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E303" t="n">
         <v>9</v>
@@ -24595,29 +24595,29 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="N303" t="n">
-        <v>24000</v>
+        <v>250000</v>
       </c>
       <c r="O303" t="n">
-        <v>24000</v>
+        <v>260000</v>
       </c>
       <c r="P303" t="n">
-        <v>24000</v>
+        <v>255556</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1333</v>
+        <v>568</v>
       </c>
       <c r="T303" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N304" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>15000</v>
+        <v>11083</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>833</v>
+        <v>616</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N305" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O305" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P305" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>444</v>
+        <v>1333</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N306" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O306" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P306" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="N308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E309" t="n">
         <v>9</v>
@@ -25080,24 +25080,24 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N309" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P309" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T309" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310">
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,20 +25244,20 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N311" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O311" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="P311" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T311" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N312" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O312" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O313" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P313" t="n">
-        <v>12468</v>
+        <v>8000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>693</v>
+        <v>444</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25484,20 +25484,20 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="N314" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T314" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="N315" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P315" t="n">
-        <v>10000</v>
+        <v>12468</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>556</v>
+        <v>693</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,20 +25644,20 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="N316" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O316" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="P316" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T316" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E317" t="n">
         <v>9</v>
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N317" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O317" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>95</v>
       </c>
       <c r="N318" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P318" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="N319" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O319" t="n">
         <v>17000</v>
       </c>
       <c r="P319" t="n">
-        <v>16463</v>
+        <v>17000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="N320" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P320" t="n">
-        <v>18444</v>
+        <v>12000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1025</v>
+        <v>667</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O321" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P321" t="n">
-        <v>12526</v>
+        <v>16463</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>696</v>
+        <v>915</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26115,29 +26115,29 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N322" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O322" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P322" t="n">
-        <v>10000</v>
+        <v>18444</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>556</v>
+        <v>1025</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26204,20 +26204,20 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="N323" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="P323" t="n">
-        <v>256000</v>
+        <v>12526</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>569</v>
+        <v>696</v>
       </c>
       <c r="T323" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T324" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N325" t="n">
-        <v>14000</v>
+        <v>240000</v>
       </c>
       <c r="O325" t="n">
-        <v>15000</v>
+        <v>280000</v>
       </c>
       <c r="P325" t="n">
-        <v>14542</v>
+        <v>256000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>808</v>
+        <v>569</v>
       </c>
       <c r="T325" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N326" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O326" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P326" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T326" t="n">
         <v>450</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O327" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P327" t="n">
-        <v>10500</v>
+        <v>14542</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>583</v>
+        <v>808</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N328" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O328" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P328" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T328" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26675,25 +26675,25 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N329" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O329" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P329" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26755,29 +26755,29 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N330" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O330" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P330" t="n">
-        <v>16455</v>
+        <v>10000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="T330" t="n">
         <v>18</v>
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P331" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26920,24 +26920,24 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N332" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O332" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P332" t="n">
-        <v>10000</v>
+        <v>16455</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>556</v>
+        <v>914</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P333" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>115</v>
+        <v>350</v>
       </c>
       <c r="N334" t="n">
         <v>10000</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27155,25 +27155,25 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="N336" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O336" t="n">
         <v>10000</v>
       </c>
       <c r="P336" t="n">
-        <v>9746</v>
+        <v>10000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,41 +27315,41 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N337" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P337" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T337" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,32 +27404,32 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="N338" t="n">
-        <v>150000</v>
+        <v>9500</v>
       </c>
       <c r="O338" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>150000</v>
+        <v>9746</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>333</v>
+        <v>541</v>
       </c>
       <c r="T338" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339">
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N339" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O339" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P339" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T339" t="n">
         <v>450</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N340" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="O340" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="P340" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27582,11 +27582,11 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="T340" t="n">
         <v>450</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27640,36 +27640,36 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N341" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="O341" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="P341" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>944</v>
+        <v>489</v>
       </c>
       <c r="T341" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="342">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N342" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="O342" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="P342" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27795,29 +27795,29 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="N343" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="O343" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P343" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="T343" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N344" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P344" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345">
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -28035,29 +28035,29 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N346" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O346" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P346" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28115,29 +28115,29 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N347" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O347" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P347" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T347" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="348">
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N348" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O348" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P348" t="n">
-        <v>11053</v>
+        <v>20000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>614</v>
+        <v>1111</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28280,24 +28280,24 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N349" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="O349" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P349" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>489</v>
+        <v>944</v>
       </c>
       <c r="T349" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -28360,24 +28360,24 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="N350" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O350" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P350" t="n">
-        <v>200000</v>
+        <v>11053</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>444</v>
+        <v>614</v>
       </c>
       <c r="T350" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T351" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28520,24 +28520,24 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N352" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="O352" t="n">
-        <v>17000</v>
+        <v>200000</v>
       </c>
       <c r="P352" t="n">
-        <v>16500</v>
+        <v>200000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>917</v>
+        <v>444</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N353" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28675,29 +28675,29 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N354" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O354" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P354" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28755,16 +28755,16 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N355" t="n">
         <v>12000</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N357" t="n">
         <v>12000</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P358" t="n">
-        <v>10000</v>
+        <v>8556</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T358" t="n">
         <v>18</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N359" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O359" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P359" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>335</v>
+        <v>110</v>
       </c>
       <c r="N360" t="n">
         <v>10000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P360" t="n">
-        <v>11075</v>
+        <v>10000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29320,24 +29320,24 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="N362" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O362" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P362" t="n">
-        <v>17000</v>
+        <v>11075</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>944</v>
+        <v>615</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N363" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O363" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P363" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N364" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P364" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29560,24 +29560,24 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N365" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O365" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P365" t="n">
-        <v>18714</v>
+        <v>12000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1040</v>
+        <v>667</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O366" t="n">
         <v>13000</v>
       </c>
       <c r="P366" t="n">
-        <v>12583</v>
+        <v>13000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N367" t="n">
-        <v>230000</v>
+        <v>18000</v>
       </c>
       <c r="O367" t="n">
-        <v>250000</v>
+        <v>19000</v>
       </c>
       <c r="P367" t="n">
-        <v>238000</v>
+        <v>18714</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>529</v>
+        <v>1040</v>
       </c>
       <c r="T367" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29800,24 +29800,24 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N368" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O368" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>17620</v>
+        <v>12583</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>979</v>
+        <v>699</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N369" t="n">
-        <v>17000</v>
+        <v>230000</v>
       </c>
       <c r="O369" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P369" t="n">
-        <v>17000</v>
+        <v>238000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>944</v>
+        <v>529</v>
       </c>
       <c r="T369" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29960,24 +29960,24 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="N370" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P370" t="n">
-        <v>15000</v>
+        <v>17620</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>833</v>
+        <v>979</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30040,24 +30040,24 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P371" t="n">
-        <v>12478</v>
+        <v>17000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>693</v>
+        <v>944</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30120,24 +30120,24 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="N372" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O372" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P372" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1111</v>
+        <v>833</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N373" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P373" t="n">
-        <v>17000</v>
+        <v>12478</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>944</v>
+        <v>693</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>410</v>
+        <v>155</v>
       </c>
       <c r="N374" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O374" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P374" t="n">
-        <v>18378</v>
+        <v>20000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1021</v>
+        <v>1111</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O375" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P375" t="n">
-        <v>12448</v>
+        <v>17000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>692</v>
+        <v>944</v>
       </c>
       <c r="T375" t="n">
         <v>18</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30440,24 +30440,24 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="N376" t="n">
         <v>18000</v>
       </c>
       <c r="O376" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P376" t="n">
-        <v>18000</v>
+        <v>18378</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N377" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P377" t="n">
-        <v>15360</v>
+        <v>12448</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>853</v>
+        <v>692</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="N378" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O378" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P378" t="n">
-        <v>12564</v>
+        <v>18000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>698</v>
+        <v>1000</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N379" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O379" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P379" t="n">
-        <v>13000</v>
+        <v>15360</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>722</v>
+        <v>853</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>12564</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>556</v>
+        <v>698</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N381" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O381" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P381" t="n">
-        <v>18769</v>
+        <v>13000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N382" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1028</v>
+        <v>556</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>5</v>
+        <v>780</v>
       </c>
       <c r="N383" t="n">
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="O383" t="n">
-        <v>280000</v>
+        <v>19000</v>
       </c>
       <c r="P383" t="n">
-        <v>280000</v>
+        <v>18769</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>622</v>
+        <v>1043</v>
       </c>
       <c r="T383" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="384">
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>1220</v>
+        <v>400</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O384" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P384" t="n">
-        <v>12533</v>
+        <v>18500</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>696</v>
+        <v>1028</v>
       </c>
       <c r="T384" t="n">
         <v>18</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N385" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O385" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P385" t="n">
-        <v>235789</v>
+        <v>280000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="T385" t="n">
         <v>450</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>240</v>
+        <v>1220</v>
       </c>
       <c r="N386" t="n">
         <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>12533</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="N387" t="n">
-        <v>17000</v>
+        <v>230000</v>
       </c>
       <c r="O387" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="P387" t="n">
-        <v>17000</v>
+        <v>235789</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>944</v>
+        <v>524</v>
       </c>
       <c r="T387" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31480,24 +31480,24 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="N389" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O389" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P389" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P390" t="n">
-        <v>11633</v>
+        <v>10000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O391" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P391" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O392" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>10000</v>
+        <v>11633</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="N394" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P396" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N398" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O398" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P398" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>972</v>
+        <v>667</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32275,29 +32275,29 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="N399" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="N400" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O400" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P400" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,25 +32435,25 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T401" t="n">
         <v>18</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="N403" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P403" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M404" t="n">
         <v>155</v>
       </c>
       <c r="N404" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="N405" t="n">
         <v>12000</v>
@@ -32789,6 +32789,166 @@
         <v>667</v>
       </c>
       <c r="T405" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>10</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E406" t="n">
+        <v>9</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M406" t="n">
+        <v>155</v>
+      </c>
+      <c r="N406" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O406" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P406" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S406" t="n">
+        <v>944</v>
+      </c>
+      <c r="T406" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>10</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E407" t="n">
+        <v>9</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M407" t="n">
+        <v>115</v>
+      </c>
+      <c r="N407" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O407" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P407" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S407" t="n">
+        <v>667</v>
+      </c>
+      <c r="T407" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T407"/>
+  <dimension ref="A1:T412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N400" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O400" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P400" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>972</v>
+        <v>1056</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N401" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="O401" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="P401" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T401" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N402" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>16000</v>
+        <v>12468</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>889</v>
+        <v>693</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,20 +32604,20 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="N403" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O403" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P403" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T403" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T404" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N405" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P405" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>667</v>
+        <v>972</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N406" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O406" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P406" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,68 +32887,468 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E407" t="n">
+        <v>9</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M407" t="n">
+        <v>95</v>
+      </c>
+      <c r="N407" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O407" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P407" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S407" t="n">
+        <v>889</v>
+      </c>
+      <c r="T407" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>10</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D408" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E408" t="n">
+        <v>9</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M408" t="n">
+        <v>65</v>
+      </c>
+      <c r="N408" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O408" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P408" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S408" t="n">
+        <v>444</v>
+      </c>
+      <c r="T408" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>10</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E409" t="n">
+        <v>9</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>Calibre 90</t>
+        </is>
+      </c>
+      <c r="M409" t="n">
+        <v>155</v>
+      </c>
+      <c r="N409" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O409" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P409" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S409" t="n">
+        <v>667</v>
+      </c>
+      <c r="T409" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>10</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E410" t="n">
+        <v>9</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I410" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M410" t="n">
+        <v>250</v>
+      </c>
+      <c r="N410" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O410" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P410" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S410" t="n">
+        <v>667</v>
+      </c>
+      <c r="T410" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>10</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D411" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E407" t="n">
-        <v>9</v>
-      </c>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G407" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I407" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J407" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K407" t="inlineStr">
+      <c r="E411" t="n">
+        <v>9</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I411" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L407" t="inlineStr">
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M411" t="n">
+        <v>155</v>
+      </c>
+      <c r="N411" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O411" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P411" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S411" t="n">
+        <v>944</v>
+      </c>
+      <c r="T411" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>10</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E412" t="n">
+        <v>9</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M407" t="n">
+      <c r="M412" t="n">
         <v>115</v>
       </c>
-      <c r="N407" t="n">
+      <c r="N412" t="n">
         <v>12000</v>
       </c>
-      <c r="O407" t="n">
+      <c r="O412" t="n">
         <v>12000</v>
       </c>
-      <c r="P407" t="n">
+      <c r="P412" t="n">
         <v>12000</v>
       </c>
-      <c r="Q407" t="inlineStr">
+      <c r="Q412" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R407" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S407" t="n">
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S412" t="n">
         <v>667</v>
       </c>
-      <c r="T407" t="n">
+      <c r="T412" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T412"/>
+  <dimension ref="A1:T417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N374" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O374" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P374" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1111</v>
+        <v>1056</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30360,24 +30360,24 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N375" t="n">
-        <v>17000</v>
+        <v>300000</v>
       </c>
       <c r="O375" t="n">
-        <v>17000</v>
+        <v>300000</v>
       </c>
       <c r="P375" t="n">
-        <v>17000</v>
+        <v>300000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T375" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30440,24 +30440,24 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="N376" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O376" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>18378</v>
+        <v>12455</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1021</v>
+        <v>692</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30524,20 +30524,20 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="N377" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P377" t="n">
-        <v>12448</v>
+        <v>240000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>692</v>
+        <v>533</v>
       </c>
       <c r="T377" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N378" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="O378" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="P378" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="T378" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N379" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O379" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P379" t="n">
-        <v>15360</v>
+        <v>20000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>853</v>
+        <v>1111</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P380" t="n">
-        <v>12564</v>
+        <v>17000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>698</v>
+        <v>944</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N381" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O381" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P381" t="n">
-        <v>13000</v>
+        <v>18378</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>722</v>
+        <v>1021</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N382" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O382" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>10000</v>
+        <v>12448</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>556</v>
+        <v>692</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>780</v>
+        <v>55</v>
       </c>
       <c r="N383" t="n">
         <v>18000</v>
       </c>
       <c r="O383" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P383" t="n">
-        <v>18769</v>
+        <v>18000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1043</v>
+        <v>1000</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="N384" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O384" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P384" t="n">
-        <v>18500</v>
+        <v>15360</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1028</v>
+        <v>853</v>
       </c>
       <c r="T384" t="n">
         <v>18</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="N385" t="n">
-        <v>280000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>280000</v>
+        <v>12564</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="T385" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>1220</v>
+        <v>110</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O386" t="n">
         <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>12533</v>
+        <v>13000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,20 +31324,20 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N387" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>240000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>235789</v>
+        <v>10000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="T387" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388">
@@ -31395,29 +31395,29 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="N388" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O388" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P388" t="n">
-        <v>12000</v>
+        <v>18769</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>667</v>
+        <v>1043</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31487,17 +31487,17 @@
         <v>400</v>
       </c>
       <c r="N389" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O389" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P389" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>944</v>
+        <v>1028</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T390" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>110</v>
+        <v>1220</v>
       </c>
       <c r="N391" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>18000</v>
+        <v>12533</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1000</v>
+        <v>696</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31724,20 +31724,20 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="N392" t="n">
-        <v>11000</v>
+        <v>230000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P392" t="n">
-        <v>11633</v>
+        <v>235789</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>646</v>
+        <v>524</v>
       </c>
       <c r="T392" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44279</v>
+        <v>44435</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N393" t="n">
         <v>12000</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="N394" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P394" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44412</v>
+        <v>44319</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="N395" t="n">
         <v>10000</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44412</v>
+        <v>44175</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N396" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O396" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P396" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N397" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O397" t="n">
         <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>12000</v>
+        <v>11633</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N398" t="n">
         <v>12000</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32275,16 +32275,16 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N399" t="n">
         <v>10000</v>
@@ -32297,7 +32297,7 @@
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32355,29 +32355,29 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="N400" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="N401" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="O401" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="P401" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T401" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>470</v>
+        <v>125</v>
       </c>
       <c r="N402" t="n">
         <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>12468</v>
+        <v>12000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,20 +32604,20 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="N403" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O403" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T403" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32675,29 +32675,29 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="N404" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="T404" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N405" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O405" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P405" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>972</v>
+        <v>1056</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N406" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="O406" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="P406" t="n">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T406" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="N407" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P407" t="n">
-        <v>16000</v>
+        <v>12468</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>889</v>
+        <v>693</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,20 +33004,20 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O408" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P408" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T408" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33080,24 +33080,24 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="N409" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O409" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P409" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T409" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N410" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P410" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>667</v>
+        <v>972</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N411" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O411" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P411" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,68 +33287,468 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E412" t="n">
+        <v>9</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M412" t="n">
+        <v>95</v>
+      </c>
+      <c r="N412" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O412" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P412" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S412" t="n">
+        <v>889</v>
+      </c>
+      <c r="T412" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>10</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E413" t="n">
+        <v>9</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M413" t="n">
+        <v>65</v>
+      </c>
+      <c r="N413" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O413" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P413" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S413" t="n">
+        <v>444</v>
+      </c>
+      <c r="T413" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>10</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E414" t="n">
+        <v>9</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>Calibre 90</t>
+        </is>
+      </c>
+      <c r="M414" t="n">
+        <v>155</v>
+      </c>
+      <c r="N414" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O414" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P414" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S414" t="n">
+        <v>667</v>
+      </c>
+      <c r="T414" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>10</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E415" t="n">
+        <v>9</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M415" t="n">
+        <v>250</v>
+      </c>
+      <c r="N415" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O415" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P415" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S415" t="n">
+        <v>667</v>
+      </c>
+      <c r="T415" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>10</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D416" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E412" t="n">
-        <v>9</v>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G412" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I412" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K412" t="inlineStr">
+      <c r="E416" t="n">
+        <v>9</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L412" t="inlineStr">
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M416" t="n">
+        <v>155</v>
+      </c>
+      <c r="N416" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O416" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P416" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S416" t="n">
+        <v>944</v>
+      </c>
+      <c r="T416" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>10</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E417" t="n">
+        <v>9</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M412" t="n">
+      <c r="M417" t="n">
         <v>115</v>
       </c>
-      <c r="N412" t="n">
+      <c r="N417" t="n">
         <v>12000</v>
       </c>
-      <c r="O412" t="n">
+      <c r="O417" t="n">
         <v>12000</v>
       </c>
-      <c r="P412" t="n">
+      <c r="P417" t="n">
         <v>12000</v>
       </c>
-      <c r="Q412" t="inlineStr">
+      <c r="Q417" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R412" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S412" t="n">
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S417" t="n">
         <v>667</v>
       </c>
-      <c r="T412" t="n">
+      <c r="T417" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T417"/>
+  <dimension ref="A1:T419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N259" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O259" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P259" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T259" t="n">
         <v>18</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E260" t="n">
         <v>9</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N260" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O260" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>10903</v>
+        <v>13000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>606</v>
+        <v>722</v>
       </c>
       <c r="T260" t="n">
         <v>18</v>
@@ -21240,24 +21240,24 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P261" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T261" t="n">
         <v>18</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E262" t="n">
         <v>9</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N262" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O262" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P262" t="n">
-        <v>14519</v>
+        <v>10903</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>807</v>
+        <v>606</v>
       </c>
       <c r="T262" t="n">
         <v>18</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E263" t="n">
         <v>9</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,20 +21404,20 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="N263" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O263" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P263" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T263" t="n">
         <v>18</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E264" t="n">
         <v>9</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="N264" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O264" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P264" t="n">
-        <v>10000</v>
+        <v>14519</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>556</v>
+        <v>807</v>
       </c>
       <c r="T264" t="n">
         <v>18</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E265" t="n">
         <v>9</v>
@@ -21555,29 +21555,29 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N265" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O265" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P265" t="n">
-        <v>18500</v>
+        <v>17000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1028</v>
+        <v>944</v>
       </c>
       <c r="T265" t="n">
         <v>18</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N266" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T266" t="n">
         <v>18</v>
@@ -21715,29 +21715,29 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O267" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P267" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T267" t="n">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E268" t="n">
         <v>9</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="N268" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>8448</v>
+        <v>12500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>469</v>
+        <v>694</v>
       </c>
       <c r="T268" t="n">
         <v>18</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E269" t="n">
         <v>9</v>
@@ -21875,29 +21875,29 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N269" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O269" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P269" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T269" t="n">
         <v>18</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="N270" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>10884</v>
+        <v>8448</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>605</v>
+        <v>469</v>
       </c>
       <c r="T270" t="n">
         <v>18</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N271" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O271" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P271" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T271" t="n">
         <v>18</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E272" t="n">
         <v>9</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N272" t="n">
         <v>10000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P272" t="n">
-        <v>10000</v>
+        <v>10884</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T272" t="n">
         <v>18</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E273" t="n">
         <v>9</v>
@@ -22204,20 +22204,20 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="N273" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="O273" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="P273" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T273" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
         <v>10000</v>
@@ -22355,29 +22355,29 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N275" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="O275" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="P275" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>278</v>
+        <v>511</v>
       </c>
       <c r="T275" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E276" t="n">
         <v>9</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N276" t="n">
         <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P276" t="n">
-        <v>10769</v>
+        <v>10000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="T276" t="n">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44426</v>
+        <v>44321</v>
       </c>
       <c r="E277" t="n">
         <v>9</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="N277" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O277" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P277" t="n">
-        <v>12537</v>
+        <v>5000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>696</v>
+        <v>278</v>
       </c>
       <c r="T277" t="n">
         <v>18</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>9</v>
@@ -22600,24 +22600,24 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N278" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>18000</v>
+        <v>10769</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1000</v>
+        <v>598</v>
       </c>
       <c r="T278" t="n">
         <v>18</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E279" t="n">
         <v>9</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N279" t="n">
         <v>12000</v>
       </c>
       <c r="O279" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P279" t="n">
-        <v>12000</v>
+        <v>12537</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="T279" t="n">
         <v>18</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E280" t="n">
         <v>9</v>
@@ -22764,20 +22764,20 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N280" t="n">
         <v>18000</v>
       </c>
       <c r="O280" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P280" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="T280" t="n">
         <v>18</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E281" t="n">
         <v>9</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
         <v>12000</v>
       </c>
       <c r="O281" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P281" t="n">
-        <v>12438</v>
+        <v>12000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="T281" t="n">
         <v>18</v>
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="N282" t="n">
-        <v>240000</v>
+        <v>18000</v>
       </c>
       <c r="O282" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="P282" t="n">
-        <v>240000</v>
+        <v>18500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>533</v>
+        <v>1028</v>
       </c>
       <c r="T282" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N283" t="n">
         <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P283" t="n">
-        <v>12000</v>
+        <v>12438</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="T283" t="n">
         <v>18</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E284" t="n">
         <v>9</v>
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N284" t="n">
-        <v>22000</v>
+        <v>240000</v>
       </c>
       <c r="O284" t="n">
-        <v>22000</v>
+        <v>240000</v>
       </c>
       <c r="P284" t="n">
-        <v>22000</v>
+        <v>240000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1222</v>
+        <v>533</v>
       </c>
       <c r="T284" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E285" t="n">
         <v>9</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23167,13 +23167,13 @@
         <v>100</v>
       </c>
       <c r="N285" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T285" t="n">
         <v>18</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44222</v>
+        <v>44215</v>
       </c>
       <c r="E286" t="n">
         <v>9</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="N286" t="n">
         <v>22000</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E287" t="n">
         <v>9</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N287" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P287" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>889</v>
+        <v>1333</v>
       </c>
       <c r="T287" t="n">
         <v>18</v>
@@ -23400,24 +23400,24 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="N288" t="n">
-        <v>280000</v>
+        <v>22000</v>
       </c>
       <c r="O288" t="n">
-        <v>280000</v>
+        <v>22000</v>
       </c>
       <c r="P288" t="n">
-        <v>280000</v>
+        <v>22000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -23426,10 +23426,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>622</v>
+        <v>1222</v>
       </c>
       <c r="T288" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E289" t="n">
         <v>9</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T289" t="n">
         <v>18</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E290" t="n">
         <v>9</v>
@@ -23555,29 +23555,29 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="O290" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="P290" t="n">
-        <v>10000</v>
+        <v>280000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="T290" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="291">
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N291" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O291" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T291" t="n">
         <v>18</v>
@@ -23715,29 +23715,29 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N292" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P292" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T292" t="n">
         <v>18</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E293" t="n">
         <v>9</v>
@@ -23800,24 +23800,24 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N293" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O293" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P293" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T293" t="n">
         <v>18</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E294" t="n">
         <v>9</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N294" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O294" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P294" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T294" t="n">
         <v>18</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E295" t="n">
         <v>9</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N295" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O295" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P295" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T295" t="n">
         <v>18</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E296" t="n">
         <v>9</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="N296" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="T296" t="n">
         <v>18</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
@@ -24115,29 +24115,29 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N297" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O297" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P297" t="n">
-        <v>15444</v>
+        <v>17000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="T297" t="n">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -24200,24 +24200,24 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N298" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O298" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T298" t="n">
         <v>18</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,20 +24284,20 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O299" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P299" t="n">
-        <v>10833</v>
+        <v>15444</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>602</v>
+        <v>858</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E300" t="n">
         <v>9</v>
@@ -24355,29 +24355,29 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N300" t="n">
-        <v>180000</v>
+        <v>17000</v>
       </c>
       <c r="O300" t="n">
-        <v>180000</v>
+        <v>17000</v>
       </c>
       <c r="P300" t="n">
-        <v>180000</v>
+        <v>17000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>400</v>
+        <v>944</v>
       </c>
       <c r="T300" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E301" t="n">
         <v>9</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N301" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O301" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P301" t="n">
-        <v>17000</v>
+        <v>10833</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>944</v>
+        <v>602</v>
       </c>
       <c r="T301" t="n">
         <v>18</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,20 +24524,20 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="N302" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O302" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="P302" t="n">
-        <v>14438</v>
+        <v>180000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>802</v>
+        <v>400</v>
       </c>
       <c r="T302" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="303">
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="N303" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="O303" t="n">
-        <v>260000</v>
+        <v>17000</v>
       </c>
       <c r="P303" t="n">
-        <v>255556</v>
+        <v>17000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>568</v>
+        <v>944</v>
       </c>
       <c r="T303" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N304" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O304" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>11083</v>
+        <v>14438</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>616</v>
+        <v>802</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24755,29 +24755,29 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="N305" t="n">
-        <v>24000</v>
+        <v>250000</v>
       </c>
       <c r="O305" t="n">
-        <v>24000</v>
+        <v>260000</v>
       </c>
       <c r="P305" t="n">
-        <v>24000</v>
+        <v>255556</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1333</v>
+        <v>568</v>
       </c>
       <c r="T305" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N306" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O306" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>15000</v>
+        <v>11083</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>833</v>
+        <v>616</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N307" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O307" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P307" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>444</v>
+        <v>1333</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N308" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O308" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P308" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="N310" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="N311" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T311" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312">
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N312" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,20 +25404,20 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="N313" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O313" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="P313" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="T313" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="N315" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O315" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P315" t="n">
-        <v>12468</v>
+        <v>8000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>693</v>
+        <v>444</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25644,20 +25644,20 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="N316" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P316" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T316" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>12468</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>556</v>
+        <v>693</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,20 +25804,20 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="P318" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T318" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N319" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>95</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26040,24 +26040,24 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="N321" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O321" t="n">
         <v>17000</v>
       </c>
       <c r="P321" t="n">
-        <v>16463</v>
+        <v>17000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44417</v>
+        <v>44301</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26120,24 +26120,24 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="N322" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>18444</v>
+        <v>12000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1025</v>
+        <v>667</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O323" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P323" t="n">
-        <v>12526</v>
+        <v>16463</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>696</v>
+        <v>915</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P324" t="n">
-        <v>10000</v>
+        <v>18444</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>556</v>
+        <v>1025</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="N325" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="P325" t="n">
-        <v>256000</v>
+        <v>12526</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>569</v>
+        <v>696</v>
       </c>
       <c r="T325" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,29 +26435,29 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="T326" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N327" t="n">
-        <v>14000</v>
+        <v>240000</v>
       </c>
       <c r="O327" t="n">
-        <v>15000</v>
+        <v>280000</v>
       </c>
       <c r="P327" t="n">
-        <v>14542</v>
+        <v>256000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>808</v>
+        <v>569</v>
       </c>
       <c r="T327" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N328" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="O328" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P328" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="T328" t="n">
         <v>450</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N329" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="O329" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P329" t="n">
-        <v>10500</v>
+        <v>14542</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>583</v>
+        <v>808</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N330" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="O330" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="P330" t="n">
-        <v>10000</v>
+        <v>270000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T330" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>444</v>
+        <v>583</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26915,29 +26915,29 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N332" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O332" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P332" t="n">
-        <v>16455</v>
+        <v>10000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26995,25 +26995,25 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N333" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O333" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P333" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27080,24 +27080,24 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N334" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P334" t="n">
-        <v>10000</v>
+        <v>16455</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>556</v>
+        <v>914</v>
       </c>
       <c r="T334" t="n">
         <v>18</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="N335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,7 +27244,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>115</v>
+        <v>350</v>
       </c>
       <c r="N336" t="n">
         <v>10000</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,25 +27315,25 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="N338" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O338" t="n">
         <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>9746</v>
+        <v>10000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,41 +27475,41 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N339" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T339" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,32 +27564,32 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="N340" t="n">
-        <v>150000</v>
+        <v>9500</v>
       </c>
       <c r="O340" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P340" t="n">
-        <v>150000</v>
+        <v>9746</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>333</v>
+        <v>541</v>
       </c>
       <c r="T340" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N341" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O341" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P341" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T341" t="n">
         <v>450</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N342" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="O342" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="P342" t="n">
-        <v>135000</v>
+        <v>150000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="T342" t="n">
         <v>450</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27800,36 +27800,36 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N343" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="O343" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="P343" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>944</v>
+        <v>489</v>
       </c>
       <c r="T343" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="344">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N344" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="O344" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="P344" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T344" t="n">
         <v>450</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="N345" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="O345" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P345" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="T345" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,20 +28044,20 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N346" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O346" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P346" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N348" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O348" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P348" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28275,29 +28275,29 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N349" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O349" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P349" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T349" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="350">
@@ -28360,24 +28360,24 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P350" t="n">
-        <v>11053</v>
+        <v>20000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>614</v>
+        <v>1111</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28440,24 +28440,24 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="N351" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="O351" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P351" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>489</v>
+        <v>944</v>
       </c>
       <c r="T351" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28520,24 +28520,24 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="N352" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O352" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>200000</v>
+        <v>11053</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>444</v>
+        <v>614</v>
       </c>
       <c r="T352" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,20 +28604,20 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T353" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N354" t="n">
-        <v>16000</v>
+        <v>200000</v>
       </c>
       <c r="O354" t="n">
-        <v>17000</v>
+        <v>200000</v>
       </c>
       <c r="P354" t="n">
-        <v>16500</v>
+        <v>200000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>917</v>
+        <v>444</v>
       </c>
       <c r="T354" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28835,29 +28835,29 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,16 +28915,16 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N357" t="n">
         <v>12000</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N358" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="T358" t="n">
         <v>18</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N359" t="n">
         <v>12000</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N360" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O360" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P360" t="n">
-        <v>10000</v>
+        <v>8556</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N361" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O361" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P361" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>335</v>
+        <v>110</v>
       </c>
       <c r="N362" t="n">
         <v>10000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P362" t="n">
-        <v>11075</v>
+        <v>10000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N363" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O363" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P363" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="N364" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P364" t="n">
-        <v>17000</v>
+        <v>11075</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>944</v>
+        <v>615</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N366" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O366" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P366" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N367" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>18714</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1040</v>
+        <v>667</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N368" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O368" t="n">
         <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>12583</v>
+        <v>13000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="N369" t="n">
-        <v>230000</v>
+        <v>18000</v>
       </c>
       <c r="O369" t="n">
-        <v>250000</v>
+        <v>19000</v>
       </c>
       <c r="P369" t="n">
-        <v>238000</v>
+        <v>18714</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>529</v>
+        <v>1040</v>
       </c>
       <c r="T369" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29960,24 +29960,24 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O370" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>17620</v>
+        <v>12583</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>979</v>
+        <v>699</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30040,24 +30040,24 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N371" t="n">
-        <v>17000</v>
+        <v>230000</v>
       </c>
       <c r="O371" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P371" t="n">
-        <v>17000</v>
+        <v>238000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>944</v>
+        <v>529</v>
       </c>
       <c r="T371" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="372">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30120,24 +30120,24 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="N372" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O372" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P372" t="n">
-        <v>15000</v>
+        <v>17620</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>833</v>
+        <v>979</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P373" t="n">
-        <v>12478</v>
+        <v>17000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>693</v>
+        <v>944</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30280,24 +30280,24 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N374" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O374" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P374" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1056</v>
+        <v>833</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30360,24 +30360,24 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="N375" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>300000</v>
+        <v>13000</v>
       </c>
       <c r="P375" t="n">
-        <v>300000</v>
+        <v>12478</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="T375" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="376">
@@ -30440,24 +30440,24 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P376" t="n">
-        <v>12455</v>
+        <v>19000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>692</v>
+        <v>1056</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N377" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O377" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P377" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T377" t="n">
         <v>450</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="N378" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O378" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>220000</v>
+        <v>12455</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>489</v>
+        <v>692</v>
       </c>
       <c r="T378" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="N379" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="O379" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="P379" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1111</v>
+        <v>533</v>
       </c>
       <c r="T379" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N380" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="O380" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="P380" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>944</v>
+        <v>489</v>
       </c>
       <c r="T380" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>410</v>
+        <v>155</v>
       </c>
       <c r="N381" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O381" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P381" t="n">
-        <v>18378</v>
+        <v>20000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1021</v>
+        <v>1111</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P382" t="n">
-        <v>12448</v>
+        <v>17000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>692</v>
+        <v>944</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="N383" t="n">
         <v>18000</v>
       </c>
       <c r="O383" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P383" t="n">
-        <v>18000</v>
+        <v>18378</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N384" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O384" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P384" t="n">
-        <v>15360</v>
+        <v>12448</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>853</v>
+        <v>692</v>
       </c>
       <c r="T384" t="n">
         <v>18</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O385" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P385" t="n">
-        <v>12564</v>
+        <v>18000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>698</v>
+        <v>1000</v>
       </c>
       <c r="T385" t="n">
         <v>18</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N386" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O386" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P386" t="n">
-        <v>13000</v>
+        <v>15360</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>722</v>
+        <v>853</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P387" t="n">
-        <v>10000</v>
+        <v>12564</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>556</v>
+        <v>698</v>
       </c>
       <c r="T387" t="n">
         <v>18</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>780</v>
+        <v>110</v>
       </c>
       <c r="N388" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O388" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P388" t="n">
-        <v>18769</v>
+        <v>13000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N389" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O389" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P389" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1028</v>
+        <v>556</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>5</v>
+        <v>780</v>
       </c>
       <c r="N390" t="n">
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="O390" t="n">
-        <v>280000</v>
+        <v>19000</v>
       </c>
       <c r="P390" t="n">
-        <v>280000</v>
+        <v>18769</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>622</v>
+        <v>1043</v>
       </c>
       <c r="T390" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391">
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>1220</v>
+        <v>400</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O391" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P391" t="n">
-        <v>12533</v>
+        <v>18500</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>696</v>
+        <v>1028</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N392" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O392" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P392" t="n">
-        <v>235789</v>
+        <v>280000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="T392" t="n">
         <v>450</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>240</v>
+        <v>1220</v>
       </c>
       <c r="N393" t="n">
         <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>12533</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="N394" t="n">
-        <v>17000</v>
+        <v>230000</v>
       </c>
       <c r="O394" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="P394" t="n">
-        <v>17000</v>
+        <v>235789</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>944</v>
+        <v>524</v>
       </c>
       <c r="T394" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N395" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="N396" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O396" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P396" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N397" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O397" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P397" t="n">
-        <v>11633</v>
+        <v>10000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>11633</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="N401" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T401" t="n">
         <v>18</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N403" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32675,29 +32675,29 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32755,29 +32755,29 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N405" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32835,29 +32835,29 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="N406" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T406" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="407">
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N407" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O407" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P407" t="n">
-        <v>12468</v>
+        <v>19000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>693</v>
+        <v>1056</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N408" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O408" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P408" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
         <v>450</v>
@@ -33080,24 +33080,24 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="N409" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O409" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P409" t="n">
-        <v>220000</v>
+        <v>12468</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>489</v>
+        <v>693</v>
       </c>
       <c r="T409" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33164,20 +33164,20 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="N410" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="O410" t="n">
-        <v>18000</v>
+        <v>240000</v>
       </c>
       <c r="P410" t="n">
-        <v>17500</v>
+        <v>240000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>972</v>
+        <v>533</v>
       </c>
       <c r="T410" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33244,20 +33244,20 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N411" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="O411" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="P411" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>889</v>
+        <v>489</v>
       </c>
       <c r="T411" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="N412" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O412" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P412" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>889</v>
+        <v>972</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33395,25 +33395,25 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N413" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O413" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P413" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N414" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P414" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M416" t="n">
         <v>155</v>
       </c>
       <c r="N416" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O416" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33724,7 +33724,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="N417" t="n">
         <v>12000</v>
@@ -33749,6 +33749,166 @@
         <v>667</v>
       </c>
       <c r="T417" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>10</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E418" t="n">
+        <v>9</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>155</v>
+      </c>
+      <c r="N418" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O418" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P418" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S418" t="n">
+        <v>944</v>
+      </c>
+      <c r="T418" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>10</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E419" t="n">
+        <v>9</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>115</v>
+      </c>
+      <c r="N419" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O419" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P419" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S419" t="n">
+        <v>667</v>
+      </c>
+      <c r="T419" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T425"/>
+  <dimension ref="A1:T426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E299" t="n">
         <v>9</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="N299" t="n">
         <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>12468</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="T299" t="n">
         <v>18</v>
@@ -24364,20 +24364,20 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="N300" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O300" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P300" t="n">
-        <v>250000</v>
+        <v>12468</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>556</v>
+        <v>693</v>
       </c>
       <c r="T300" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="N301" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P301" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24469,7 +24469,7 @@
         <v>556</v>
       </c>
       <c r="T301" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E302" t="n">
         <v>9</v>
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P302" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="T302" t="n">
         <v>18</v>
@@ -24600,24 +24600,24 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N303" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O303" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P303" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T303" t="n">
         <v>18</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="N304" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O304" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P304" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="T304" t="n">
         <v>18</v>
@@ -24764,20 +24764,20 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="N305" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="O305" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>230000</v>
+        <v>13000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>511</v>
+        <v>722</v>
       </c>
       <c r="T305" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T306" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N307" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O307" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P307" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T308" t="n">
         <v>18</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="N309" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O309" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P309" t="n">
-        <v>17455</v>
+        <v>10000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>970</v>
+        <v>556</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25160,24 +25160,24 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="N310" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O310" t="n">
         <v>18000</v>
       </c>
-      <c r="O310" t="n">
-        <v>260000</v>
-      </c>
       <c r="P310" t="n">
-        <v>139000</v>
+        <v>17455</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>309</v>
+        <v>970</v>
       </c>
       <c r="T310" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311">
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="N311" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P311" t="n">
-        <v>12000</v>
+        <v>139000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>667</v>
+        <v>309</v>
       </c>
       <c r="T311" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N313" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P313" t="n">
-        <v>15629</v>
+        <v>10000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>868</v>
+        <v>556</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P314" t="n">
-        <v>12000</v>
+        <v>15629</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>868</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N315" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>50</v>
       </c>
       <c r="N316" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O316" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P316" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N317" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O317" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P317" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,41 +25795,41 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N318" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="O318" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="P318" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>178</v>
+        <v>778</v>
       </c>
       <c r="T318" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319">
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N319" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="O319" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="P319" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>944</v>
+        <v>178</v>
       </c>
       <c r="T319" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,29 +25955,29 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="N320" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O320" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P320" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26044,20 +26044,20 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N321" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O321" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P321" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T321" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322">
@@ -26115,29 +26115,29 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="N322" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O322" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P322" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T322" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="323">
@@ -26200,24 +26200,24 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N323" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O323" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P323" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P324" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T324" t="n">
         <v>18</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T325" t="n">
         <v>18</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26440,24 +26440,24 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N326" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O326" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1056</v>
+        <v>444</v>
       </c>
       <c r="T326" t="n">
         <v>18</v>
@@ -26520,24 +26520,24 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O327" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P327" t="n">
-        <v>12556</v>
+        <v>19000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>698</v>
+        <v>1056</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="N328" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="P328" t="n">
-        <v>200000</v>
+        <v>12556</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>444</v>
+        <v>698</v>
       </c>
       <c r="T328" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,20 +26684,20 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="O329" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="P329" t="n">
-        <v>13542</v>
+        <v>200000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>752</v>
+        <v>444</v>
       </c>
       <c r="T329" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="330">
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N330" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="O330" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="P330" t="n">
-        <v>250000</v>
+        <v>13542</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>556</v>
+        <v>752</v>
       </c>
       <c r="T330" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331">
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N331" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="O331" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="P331" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T331" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="N332" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O332" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P332" t="n">
-        <v>14440</v>
+        <v>11000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>802</v>
+        <v>611</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P333" t="n">
-        <v>12000</v>
+        <v>14440</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>667</v>
+        <v>802</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27084,20 +27084,20 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N334" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="O334" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="T334" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335">
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,20 +27164,20 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="N335" t="n">
-        <v>14000</v>
+        <v>210000</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>210000</v>
       </c>
       <c r="P335" t="n">
-        <v>14556</v>
+        <v>210000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>809</v>
+        <v>467</v>
       </c>
       <c r="T335" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="336">
@@ -27244,20 +27244,20 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="N336" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="O336" t="n">
-        <v>250000</v>
+        <v>15000</v>
       </c>
       <c r="P336" t="n">
-        <v>250000</v>
+        <v>14556</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>556</v>
+        <v>809</v>
       </c>
       <c r="T336" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N337" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27349,7 +27349,7 @@
         <v>556</v>
       </c>
       <c r="T337" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338">
@@ -27395,29 +27395,29 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O338" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>17556</v>
+        <v>10000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>975</v>
+        <v>556</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27480,24 +27480,24 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>17556</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>975</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N341" t="n">
         <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>11062</v>
+        <v>10000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N342" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O342" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P342" t="n">
-        <v>8000</v>
+        <v>11062</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>444</v>
+        <v>615</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27800,24 +27800,24 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N343" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O343" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P343" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T343" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -27875,29 +27875,29 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N344" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O344" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P344" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T344" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345">
@@ -27960,24 +27960,24 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="N345" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T345" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28040,24 +28040,24 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N346" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O346" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P346" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T346" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347">
@@ -28120,24 +28120,24 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N347" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O347" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P347" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N348" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O348" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P348" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28275,29 +28275,29 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N349" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O349" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P349" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T349" t="n">
         <v>18</v>
@@ -28360,24 +28360,24 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P350" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N351" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P351" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T351" t="n">
         <v>18</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N352" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O352" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P352" t="n">
-        <v>15360</v>
+        <v>18000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>853</v>
+        <v>1000</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="N353" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O353" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P353" t="n">
-        <v>7778</v>
+        <v>15360</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>432</v>
+        <v>853</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="N354" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O354" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P354" t="n">
-        <v>14000</v>
+        <v>7778</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>778</v>
+        <v>432</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P355" t="n">
-        <v>11257</v>
+        <v>14000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>625</v>
+        <v>778</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28840,24 +28840,24 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N356" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P356" t="n">
-        <v>19471</v>
+        <v>11257</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1082</v>
+        <v>625</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28920,24 +28920,24 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="N357" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O357" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P357" t="n">
-        <v>16385</v>
+        <v>19471</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>910</v>
+        <v>1082</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -29000,24 +29000,24 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="N358" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O358" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P358" t="n">
-        <v>19500</v>
+        <v>16385</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1083</v>
+        <v>910</v>
       </c>
       <c r="T358" t="n">
         <v>18</v>
@@ -29080,24 +29080,24 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N359" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P359" t="n">
-        <v>16455</v>
+        <v>19500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>914</v>
+        <v>1083</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>16455</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>667</v>
+        <v>914</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,7 +29324,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N362" t="n">
         <v>10000</v>
@@ -29395,29 +29395,29 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N363" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O363" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P363" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1028</v>
+        <v>556</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N364" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P364" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>694</v>
+        <v>1028</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N365" t="n">
         <v>12000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,7 +29644,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N366" t="n">
         <v>12000</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="N367" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O368" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P368" t="n">
-        <v>11083</v>
+        <v>8000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>616</v>
+        <v>444</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29887,13 +29887,13 @@
         <v>120</v>
       </c>
       <c r="N369" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O369" t="n">
         <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>12000</v>
+        <v>11083</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>667</v>
+        <v>616</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P370" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,25 +30035,25 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="N371" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>8448</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>469</v>
+        <v>556</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30115,29 +30115,29 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N372" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O372" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P372" t="n">
-        <v>17000</v>
+        <v>8448</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>944</v>
+        <v>469</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N373" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P373" t="n">
-        <v>10884</v>
+        <v>17000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>605</v>
+        <v>944</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,29 +30275,29 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="N374" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>100000</v>
+        <v>10884</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="T374" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375">
@@ -30355,29 +30355,29 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="N375" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O375" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P375" t="n">
-        <v>16385</v>
+        <v>100000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>910</v>
+        <v>250</v>
       </c>
       <c r="T375" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376">
@@ -30440,24 +30440,24 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P376" t="n">
-        <v>12000</v>
+        <v>16385</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>667</v>
+        <v>910</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N377" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P377" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N378" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O378" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P378" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N379" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O379" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P379" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>861</v>
+        <v>944</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>861</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O381" t="n">
         <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>10769</v>
+        <v>12000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,32 +30924,32 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="N382" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P382" t="n">
-        <v>150000</v>
+        <v>10769</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>333</v>
+        <v>598</v>
       </c>
       <c r="T382" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N384" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O384" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P384" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,36 +31160,36 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="N385" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="O385" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="P385" t="n">
-        <v>18378</v>
+        <v>220000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1021</v>
+        <v>489</v>
       </c>
       <c r="T385" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386">
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>145</v>
+        <v>410</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O386" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P386" t="n">
-        <v>12448</v>
+        <v>18378</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>692</v>
+        <v>1021</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N387" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P387" t="n">
-        <v>14000</v>
+        <v>12448</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="T387" t="n">
         <v>18</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N388" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O388" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P388" t="n">
-        <v>11481</v>
+        <v>14000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>638</v>
+        <v>778</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O389" t="n">
         <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>11481</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N390" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N392" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P392" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31887,13 +31887,13 @@
         <v>95</v>
       </c>
       <c r="N394" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>16526</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>918</v>
+        <v>556</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N395" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O395" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P395" t="n">
-        <v>10000</v>
+        <v>16526</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>556</v>
+        <v>918</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N396" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N397" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O397" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>16455</v>
+        <v>8000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>914</v>
+        <v>444</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32200,24 +32200,24 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N398" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O398" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P398" t="n">
-        <v>14000</v>
+        <v>16455</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>778</v>
+        <v>914</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N400" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>15833</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>880</v>
+        <v>556</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N401" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O401" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P401" t="n">
-        <v>12000</v>
+        <v>15833</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>667</v>
+        <v>880</v>
       </c>
       <c r="T401" t="n">
         <v>18</v>
@@ -32520,11 +32520,11 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N402" t="n">
         <v>12000</v>
@@ -32537,7 +32537,7 @@
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N403" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O403" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N405" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N406" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O406" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P406" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N407" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O407" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P407" t="n">
-        <v>10514</v>
+        <v>18000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>584</v>
+        <v>1000</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="N408" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O408" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="P408" t="n">
-        <v>24000</v>
+        <v>10514</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1333</v>
+        <v>584</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33075,29 +33075,29 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="N409" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O409" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P409" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N410" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O410" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P410" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O411" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P411" t="n">
-        <v>12390</v>
+        <v>17000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>688</v>
+        <v>944</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="N412" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P412" t="n">
-        <v>17620</v>
+        <v>12390</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>979</v>
+        <v>688</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33395,29 +33395,29 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N413" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O413" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P413" t="n">
-        <v>10000</v>
+        <v>17620</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>556</v>
+        <v>979</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="N414" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O414" t="n">
         <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>9746</v>
+        <v>10000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="N415" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O415" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>16463</v>
+        <v>9746</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>915</v>
+        <v>541</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44376</v>
+        <v>44244</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="N416" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P416" t="n">
-        <v>11633</v>
+        <v>16463</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>646</v>
+        <v>915</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O417" t="n">
         <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>10923</v>
+        <v>11633</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N418" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>14000</v>
+        <v>10923</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>778</v>
+        <v>607</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P419" t="n">
-        <v>10903</v>
+        <v>14000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>606</v>
+        <v>778</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33964,20 +33964,20 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
         <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>10903</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,20 +34044,20 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N421" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,29 +34115,29 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P422" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T422" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423">
@@ -34195,29 +34195,29 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="N423" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O423" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P423" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1056</v>
+        <v>1167</v>
       </c>
       <c r="T423" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="N424" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O424" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P424" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34360,35 +34360,115 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M425" t="n">
+        <v>100</v>
+      </c>
+      <c r="N425" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O425" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P425" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S425" t="n">
+        <v>944</v>
+      </c>
+      <c r="T425" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>10</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E426" t="n">
+        <v>9</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M425" t="n">
+      <c r="M426" t="n">
         <v>140</v>
       </c>
-      <c r="N425" t="n">
+      <c r="N426" t="n">
         <v>10000</v>
       </c>
-      <c r="O425" t="n">
+      <c r="O426" t="n">
         <v>10000</v>
       </c>
-      <c r="P425" t="n">
+      <c r="P426" t="n">
         <v>10000</v>
       </c>
-      <c r="Q425" t="inlineStr">
+      <c r="Q426" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R425" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S425" t="n">
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S426" t="n">
         <v>556</v>
       </c>
-      <c r="T425" t="n">
+      <c r="T426" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T426"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="N408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P408" t="n">
-        <v>10514</v>
+        <v>12500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>584</v>
+        <v>694</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="N409" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="P409" t="n">
-        <v>24000</v>
+        <v>10514</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1333</v>
+        <v>584</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33155,29 +33155,29 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="N410" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O410" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P410" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N411" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O411" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P411" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P412" t="n">
-        <v>12390</v>
+        <v>17000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>688</v>
+        <v>944</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="N413" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>17620</v>
+        <v>12390</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>979</v>
+        <v>688</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33475,29 +33475,29 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>17620</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>556</v>
+        <v>979</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="N415" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
         <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>9746</v>
+        <v>10000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="N416" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O416" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P416" t="n">
-        <v>16463</v>
+        <v>9746</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>915</v>
+        <v>541</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44376</v>
+        <v>44244</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="N417" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P417" t="n">
-        <v>11633</v>
+        <v>16463</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>646</v>
+        <v>915</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O418" t="n">
         <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>10923</v>
+        <v>11633</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="N419" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O419" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>14000</v>
+        <v>10923</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>778</v>
+        <v>607</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>10903</v>
+        <v>14000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>606</v>
+        <v>778</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34044,20 +34044,20 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
         <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>12000</v>
+        <v>10903</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,20 +34124,20 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N422" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34195,29 +34195,29 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N423" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O423" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P423" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T423" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="424">
@@ -34275,29 +34275,29 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="N424" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,10 +34306,10 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1056</v>
+        <v>1167</v>
       </c>
       <c r="T424" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="N425" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O425" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P425" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34440,35 +34440,115 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M426" t="n">
+        <v>100</v>
+      </c>
+      <c r="N426" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O426" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P426" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S426" t="n">
+        <v>944</v>
+      </c>
+      <c r="T426" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>10</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E427" t="n">
+        <v>9</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M426" t="n">
+      <c r="M427" t="n">
         <v>140</v>
       </c>
-      <c r="N426" t="n">
+      <c r="N427" t="n">
         <v>10000</v>
       </c>
-      <c r="O426" t="n">
+      <c r="O427" t="n">
         <v>10000</v>
       </c>
-      <c r="P426" t="n">
+      <c r="P427" t="n">
         <v>10000</v>
       </c>
-      <c r="Q426" t="inlineStr">
+      <c r="Q427" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R426" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S426" t="n">
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S427" t="n">
         <v>556</v>
       </c>
-      <c r="T426" t="n">
+      <c r="T427" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T432"/>
+  <dimension ref="A1:T436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N354" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P354" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28760,24 +28760,24 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N355" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="O355" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="P355" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>944</v>
+        <v>533</v>
       </c>
       <c r="T355" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N356" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28920,24 +28920,24 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N357" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="O357" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="P357" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T357" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N358" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>15360</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>853</v>
+        <v>444</v>
       </c>
       <c r="T358" t="n">
         <v>18</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29075,29 +29075,29 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="N359" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O359" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P359" t="n">
-        <v>7778</v>
+        <v>17000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>432</v>
+        <v>944</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N360" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O360" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P360" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T360" t="n">
         <v>18</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O361" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P361" t="n">
-        <v>11257</v>
+        <v>18000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29320,24 +29320,24 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="N362" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O362" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P362" t="n">
-        <v>19471</v>
+        <v>15360</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1082</v>
+        <v>853</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="N363" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O363" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P363" t="n">
-        <v>16385</v>
+        <v>7778</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>910</v>
+        <v>432</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="N364" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O364" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P364" t="n">
-        <v>19500</v>
+        <v>14000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1083</v>
+        <v>778</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="N365" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O365" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P365" t="n">
-        <v>16455</v>
+        <v>11257</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>914</v>
+        <v>625</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29640,24 +29640,24 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="N366" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O366" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P366" t="n">
-        <v>12000</v>
+        <v>19471</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>667</v>
+        <v>1082</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O367" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P367" t="n">
-        <v>10000</v>
+        <v>16385</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>556</v>
+        <v>910</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>556</v>
+        <v>1083</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N369" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O369" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P369" t="n">
-        <v>18500</v>
+        <v>16455</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1028</v>
+        <v>914</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N370" t="n">
         <v>12000</v>
       </c>
       <c r="O370" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P370" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30195,29 +30195,29 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O373" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P373" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>444</v>
+        <v>1028</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N374" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>11083</v>
+        <v>12500</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N375" t="n">
         <v>12000</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,25 +30435,25 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P376" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N377" t="n">
         <v>8000</v>
       </c>
       <c r="O377" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P377" t="n">
-        <v>8448</v>
+        <v>8000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N378" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P378" t="n">
-        <v>17000</v>
+        <v>11083</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>944</v>
+        <v>616</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="N379" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
         <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>10884</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,20 +30764,20 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N380" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>250</v>
+        <v>556</v>
       </c>
       <c r="T380" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30835,29 +30835,29 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N381" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O381" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P381" t="n">
-        <v>16385</v>
+        <v>8448</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>910</v>
+        <v>469</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="N383" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O383" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P383" t="n">
-        <v>8000</v>
+        <v>10884</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>444</v>
+        <v>605</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31075,29 +31075,29 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N384" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="O384" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P384" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>944</v>
+        <v>250</v>
       </c>
       <c r="T384" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N385" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O385" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P385" t="n">
-        <v>15500</v>
+        <v>16385</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="T385" t="n">
         <v>18</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N386" t="n">
         <v>12000</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>10769</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>598</v>
+        <v>444</v>
       </c>
       <c r="T387" t="n">
         <v>18</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31395,41 +31395,41 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N388" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="O388" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P388" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="T388" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31475,41 +31475,41 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N389" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O389" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="P389" t="n">
-        <v>150000</v>
+        <v>15500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>333</v>
+        <v>861</v>
       </c>
       <c r="T389" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31564,32 +31564,32 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N390" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T390" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>410</v>
+        <v>130</v>
       </c>
       <c r="N391" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>18378</v>
+        <v>10769</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1021</v>
+        <v>598</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,32 +31724,32 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="N392" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P392" t="n">
-        <v>12448</v>
+        <v>150000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>692</v>
+        <v>333</v>
       </c>
       <c r="T392" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,41 +31795,41 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="N393" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="O393" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="P393" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T393" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="N394" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O394" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P394" t="n">
-        <v>11481</v>
+        <v>220000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>638</v>
+        <v>489</v>
       </c>
       <c r="T394" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31960,24 +31960,24 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P395" t="n">
-        <v>12000</v>
+        <v>18378</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>667</v>
+        <v>1021</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N396" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P396" t="n">
-        <v>15000</v>
+        <v>12448</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>833</v>
+        <v>692</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P397" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O398" t="n">
         <v>12000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>11481</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N400" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O400" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P400" t="n">
-        <v>16526</v>
+        <v>15000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>918</v>
+        <v>833</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N401" t="n">
         <v>10000</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N402" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,29 +32595,29 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N403" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O403" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>16455</v>
+        <v>10000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N404" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O404" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P404" t="n">
-        <v>14000</v>
+        <v>16526</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>778</v>
+        <v>918</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
         <v>10000</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32835,29 +32835,29 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N406" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>15833</v>
+        <v>8000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>880</v>
+        <v>444</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N407" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O407" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P407" t="n">
-        <v>12000</v>
+        <v>16455</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>667</v>
+        <v>914</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33080,24 +33080,24 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33160,24 +33160,24 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N410" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O410" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P410" t="n">
-        <v>10000</v>
+        <v>15833</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>556</v>
+        <v>880</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N411" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N412" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P413" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>694</v>
+        <v>944</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N414" t="n">
         <v>10000</v>
       </c>
       <c r="O414" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>10514</v>
+        <v>10000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33555,29 +33555,29 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N415" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O415" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P415" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44410</v>
+        <v>44175</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,11 +33640,11 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N416" t="n">
         <v>18000</v>
@@ -33657,7 +33657,7 @@
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N417" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>944</v>
+        <v>694</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="N418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P418" t="n">
-        <v>12390</v>
+        <v>10514</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>688</v>
+        <v>584</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33875,29 +33875,29 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N419" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O419" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P419" t="n">
-        <v>17620</v>
+        <v>24000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>979</v>
+        <v>1333</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33955,29 +33955,29 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M420" t="n">
         <v>155</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P420" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="N421" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P421" t="n">
-        <v>9746</v>
+        <v>17000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>541</v>
+        <v>944</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34127,13 +34127,13 @@
         <v>205</v>
       </c>
       <c r="N422" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P422" t="n">
-        <v>16463</v>
+        <v>12390</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>915</v>
+        <v>688</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N423" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P423" t="n">
-        <v>11633</v>
+        <v>17620</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>646</v>
+        <v>979</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,25 +34275,25 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N424" t="n">
         <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>10923</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44358</v>
+        <v>44257</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>9746</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>778</v>
+        <v>541</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44358</v>
+        <v>44244</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P426" t="n">
-        <v>10903</v>
+        <v>16463</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>606</v>
+        <v>915</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34524,20 +34524,20 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O427" t="n">
         <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>12000</v>
+        <v>11633</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N428" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>15000</v>
+        <v>10923</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>833</v>
+        <v>607</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N429" t="n">
         <v>14000</v>
@@ -34697,7 +34697,7 @@
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1167</v>
+        <v>778</v>
       </c>
       <c r="T429" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34760,24 +34760,24 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>680</v>
+        <v>155</v>
       </c>
       <c r="N430" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>19000</v>
+        <v>10903</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1056</v>
+        <v>606</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N431" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34887,68 +34887,388 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E432" t="n">
+        <v>9</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M432" t="n">
+        <v>50</v>
+      </c>
+      <c r="N432" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O432" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P432" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S432" t="n">
+        <v>833</v>
+      </c>
+      <c r="T432" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>10</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D433" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E433" t="n">
+        <v>9</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M433" t="n">
+        <v>85</v>
+      </c>
+      <c r="N433" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O433" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P433" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S433" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T433" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>10</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D434" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E434" t="n">
+        <v>9</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M434" t="n">
+        <v>680</v>
+      </c>
+      <c r="N434" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O434" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P434" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S434" t="n">
+        <v>1056</v>
+      </c>
+      <c r="T434" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>10</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D435" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E432" t="n">
-        <v>9</v>
-      </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G432" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I432" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J432" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K432" t="inlineStr">
+      <c r="E435" t="n">
+        <v>9</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L432" t="inlineStr">
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M435" t="n">
+        <v>100</v>
+      </c>
+      <c r="N435" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O435" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P435" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S435" t="n">
+        <v>944</v>
+      </c>
+      <c r="T435" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>10</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D436" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E436" t="n">
+        <v>9</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I436" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M432" t="n">
+      <c r="M436" t="n">
         <v>140</v>
       </c>
-      <c r="N432" t="n">
+      <c r="N436" t="n">
         <v>10000</v>
       </c>
-      <c r="O432" t="n">
+      <c r="O436" t="n">
         <v>10000</v>
       </c>
-      <c r="P432" t="n">
+      <c r="P436" t="n">
         <v>10000</v>
       </c>
-      <c r="Q432" t="inlineStr">
+      <c r="Q436" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R432" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S432" t="n">
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S436" t="n">
         <v>556</v>
       </c>
-      <c r="T432" t="n">
+      <c r="T436" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T436"/>
+  <dimension ref="A1:T439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N314" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O314" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P314" t="n">
-        <v>10000</v>
+        <v>19444</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>556</v>
+        <v>1080</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="N315" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O315" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P315" t="n">
-        <v>17455</v>
+        <v>14000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>970</v>
+        <v>778</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E316" t="n">
         <v>9</v>
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N316" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
-        <v>260000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>139000</v>
+        <v>12500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>309</v>
+        <v>694</v>
       </c>
       <c r="T316" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25795,29 +25795,29 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O318" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P318" t="n">
-        <v>10000</v>
+        <v>17455</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>556</v>
+        <v>970</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25880,24 +25880,24 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="N319" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O319" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="P319" t="n">
-        <v>15629</v>
+        <v>139000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>868</v>
+        <v>309</v>
       </c>
       <c r="T319" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25960,11 +25960,11 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N320" t="n">
         <v>12000</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O321" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P321" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T321" t="n">
         <v>18</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26120,24 +26120,24 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="N322" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O322" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P322" t="n">
-        <v>17000</v>
+        <v>15629</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>944</v>
+        <v>868</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N323" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E324" t="n">
         <v>9</v>
@@ -26275,41 +26275,41 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N324" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="O324" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="P324" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>178</v>
+        <v>778</v>
       </c>
       <c r="T324" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E325" t="n">
         <v>9</v>
@@ -26360,11 +26360,11 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N325" t="n">
         <v>17000</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44280</v>
+        <v>44265</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N326" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O326" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P326" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T326" t="n">
         <v>18</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26515,25 +26515,25 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N327" t="n">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="O327" t="n">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="P327" t="n">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26542,11 +26542,11 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>333</v>
+        <v>178</v>
       </c>
       <c r="T327" t="n">
         <v>450</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="N328" t="n">
         <v>17000</v>
@@ -26675,25 +26675,25 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N329" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O329" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P329" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T330" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="331">
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26920,24 +26920,24 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O332" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P332" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1056</v>
+        <v>778</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N333" t="n">
         <v>12000</v>
       </c>
       <c r="O333" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>12556</v>
+        <v>12000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="T333" t="n">
         <v>18</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,29 +27075,29 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N334" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="O334" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="P334" t="n">
-        <v>200000</v>
+        <v>8000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27109,7 +27109,7 @@
         <v>444</v>
       </c>
       <c r="T334" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27160,24 +27160,24 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M335" t="n">
         <v>120</v>
       </c>
       <c r="N335" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O335" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P335" t="n">
-        <v>13542</v>
+        <v>19000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>752</v>
+        <v>1056</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27244,20 +27244,20 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="N336" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O336" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>250000</v>
+        <v>12556</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>556</v>
+        <v>698</v>
       </c>
       <c r="T336" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337">
@@ -27315,29 +27315,29 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N337" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O337" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P337" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T337" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N338" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O338" t="n">
         <v>14000</v>
       </c>
-      <c r="O338" t="n">
-        <v>15000</v>
-      </c>
       <c r="P338" t="n">
-        <v>14440</v>
+        <v>13542</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>802</v>
+        <v>752</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,20 +27484,20 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T339" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27555,29 +27555,29 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N340" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="O340" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="P340" t="n">
-        <v>210000</v>
+        <v>11000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="T340" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N341" t="n">
         <v>14000</v>
@@ -27653,7 +27653,7 @@
         <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>14556</v>
+        <v>14440</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,20 +27724,20 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N342" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P342" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T342" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27804,20 +27804,20 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T343" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27880,24 +27880,24 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="N344" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O344" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P344" t="n">
-        <v>17556</v>
+        <v>14556</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>975</v>
+        <v>809</v>
       </c>
       <c r="T344" t="n">
         <v>18</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44390</v>
+        <v>44267</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27964,20 +27964,20 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="N345" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O345" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P345" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T345" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346">
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,7 +28044,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
         <v>10000</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28120,24 +28120,24 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N347" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O347" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P347" t="n">
-        <v>11062</v>
+        <v>17556</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>615</v>
+        <v>975</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N348" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O348" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P348" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,29 +28275,29 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O349" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P349" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T349" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N350" t="n">
         <v>10000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>11062</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28435,29 +28435,29 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N351" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="O351" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P351" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T351" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,29 +28515,29 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N352" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="O352" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="P352" t="n">
-        <v>17000</v>
+        <v>150000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T352" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N353" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N354" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O354" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P354" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T354" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28760,24 +28760,24 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N355" t="n">
-        <v>240000</v>
+        <v>17000</v>
       </c>
       <c r="O355" t="n">
-        <v>240000</v>
+        <v>17000</v>
       </c>
       <c r="P355" t="n">
-        <v>240000</v>
+        <v>17000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>533</v>
+        <v>944</v>
       </c>
       <c r="T355" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28920,24 +28920,24 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N357" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>200000</v>
+        <v>12000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T357" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,20 +29004,20 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="N358" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="O358" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P358" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29080,24 +29080,24 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N359" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,24 +29160,24 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T360" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N361" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O361" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P361" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29320,24 +29320,24 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N362" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O362" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P362" t="n">
-        <v>15360</v>
+        <v>17000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>853</v>
+        <v>944</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="N363" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>7778</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>432</v>
+        <v>667</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N364" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O364" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P364" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P365" t="n">
-        <v>11257</v>
+        <v>15360</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>625</v>
+        <v>853</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="N366" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="O366" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P366" t="n">
-        <v>19471</v>
+        <v>7778</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1082</v>
+        <v>432</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="N367" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O367" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P367" t="n">
-        <v>16385</v>
+        <v>14000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>910</v>
+        <v>778</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29800,24 +29800,24 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="N368" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O368" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P368" t="n">
-        <v>19500</v>
+        <v>11257</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1083</v>
+        <v>625</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="N369" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O369" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P369" t="n">
-        <v>16455</v>
+        <v>19471</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>914</v>
+        <v>1082</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="N370" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P370" t="n">
-        <v>12000</v>
+        <v>16385</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>667</v>
+        <v>910</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30035,29 +30035,29 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="N371" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O371" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P371" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>556</v>
+        <v>1083</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N372" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O372" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P372" t="n">
-        <v>10000</v>
+        <v>16455</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>556</v>
+        <v>914</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N373" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P373" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1028</v>
+        <v>667</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="N374" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P374" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T375" t="n">
         <v>18</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,29 +30435,29 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P376" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N377" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P377" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O378" t="n">
         <v>12000</v>
       </c>
       <c r="P378" t="n">
-        <v>11083</v>
+        <v>12000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>616</v>
+        <v>667</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N379" t="n">
         <v>12000</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="N381" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>8448</v>
+        <v>11083</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>469</v>
+        <v>616</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N382" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O382" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P382" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="N383" t="n">
         <v>10000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P383" t="n">
-        <v>10884</v>
+        <v>10000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="N384" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="O384" t="n">
-        <v>100000</v>
+        <v>9000</v>
       </c>
       <c r="P384" t="n">
-        <v>100000</v>
+        <v>8448</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>250</v>
+        <v>469</v>
       </c>
       <c r="T384" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N385" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O385" t="n">
         <v>17000</v>
       </c>
       <c r="P385" t="n">
-        <v>16385</v>
+        <v>17000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="T385" t="n">
         <v>18</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O386" t="n">
         <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>10884</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>667</v>
+        <v>605</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,20 +31324,20 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N387" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="O387" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="P387" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="T387" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N388" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O388" t="n">
         <v>17000</v>
       </c>
       <c r="P388" t="n">
-        <v>17000</v>
+        <v>16385</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N389" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O391" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P391" t="n">
-        <v>10769</v>
+        <v>17000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>598</v>
+        <v>944</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31715,41 +31715,41 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O392" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="P392" t="n">
-        <v>150000</v>
+        <v>15500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>333</v>
+        <v>861</v>
       </c>
       <c r="T392" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="N393" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="T393" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N394" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>220000</v>
+        <v>10769</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>489</v>
+        <v>598</v>
       </c>
       <c r="T394" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31955,41 +31955,41 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>410</v>
+        <v>8</v>
       </c>
       <c r="N395" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="O395" t="n">
-        <v>19000</v>
+        <v>150000</v>
       </c>
       <c r="P395" t="n">
-        <v>18378</v>
+        <v>150000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1021</v>
+        <v>333</v>
       </c>
       <c r="T395" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="N396" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O396" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P396" t="n">
-        <v>12448</v>
+        <v>150000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>692</v>
+        <v>333</v>
       </c>
       <c r="T396" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32120,36 +32120,36 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N397" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="O397" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="P397" t="n">
-        <v>14000</v>
+        <v>220000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>778</v>
+        <v>489</v>
       </c>
       <c r="T397" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32200,24 +32200,24 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="N398" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P398" t="n">
-        <v>11481</v>
+        <v>18378</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>638</v>
+        <v>1021</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N399" t="n">
         <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P399" t="n">
-        <v>12000</v>
+        <v>12448</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32355,29 +32355,29 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N400" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O400" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P400" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="N401" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O401" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>10000</v>
+        <v>11481</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="T401" t="n">
         <v>18</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N402" t="n">
         <v>12000</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32687,13 +32687,13 @@
         <v>95</v>
       </c>
       <c r="N404" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>16526</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>918</v>
+        <v>556</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N405" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N406" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32920,11 +32920,11 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N407" t="n">
         <v>16000</v>
@@ -32933,11 +32933,11 @@
         <v>17000</v>
       </c>
       <c r="P407" t="n">
-        <v>16455</v>
+        <v>16526</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N408" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O408" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N410" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O410" t="n">
         <v>17000</v>
       </c>
       <c r="P410" t="n">
-        <v>15833</v>
+        <v>16455</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P411" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N413" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O413" t="n">
         <v>17000</v>
       </c>
       <c r="P413" t="n">
-        <v>17000</v>
+        <v>15833</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33560,24 +33560,24 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N415" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N416" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O416" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P416" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O418" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P418" t="n">
-        <v>10514</v>
+        <v>22000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>584</v>
+        <v>1222</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N419" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O419" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P419" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33960,24 +33960,24 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N420" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P420" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="N421" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P421" t="n">
-        <v>17000</v>
+        <v>10514</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>944</v>
+        <v>584</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O422" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P422" t="n">
-        <v>12390</v>
+        <v>24000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>688</v>
+        <v>1333</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="N423" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O423" t="n">
         <v>18000</v>
       </c>
       <c r="P423" t="n">
-        <v>17620</v>
+        <v>18000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,29 +34275,29 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N424" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P424" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="N425" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O425" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P425" t="n">
-        <v>9746</v>
+        <v>12390</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>541</v>
+        <v>688</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="N426" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O426" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P426" t="n">
-        <v>16463</v>
+        <v>17620</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>915</v>
+        <v>979</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N427" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>11633</v>
+        <v>10000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="N428" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O428" t="n">
         <v>10000</v>
       </c>
-      <c r="O428" t="n">
-        <v>12000</v>
-      </c>
       <c r="P428" t="n">
-        <v>10923</v>
+        <v>9746</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44358</v>
+        <v>44244</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="N429" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O429" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P429" t="n">
-        <v>14000</v>
+        <v>16463</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>778</v>
+        <v>915</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O430" t="n">
         <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>10903</v>
+        <v>11633</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34844,20 +34844,20 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
         <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>10923</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>667</v>
+        <v>607</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N432" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O432" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P432" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -34995,29 +34995,29 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>10903</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,10 +35026,10 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1167</v>
+        <v>606</v>
       </c>
       <c r="T433" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="N434" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35155,29 +35155,29 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N435" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O435" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P435" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T435" t="n">
         <v>18</v>
@@ -35207,68 +35207,308 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E436" t="n">
+        <v>9</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I436" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M436" t="n">
+        <v>85</v>
+      </c>
+      <c r="N436" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O436" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P436" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S436" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T436" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>10</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D437" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E437" t="n">
+        <v>9</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M437" t="n">
+        <v>680</v>
+      </c>
+      <c r="N437" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O437" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P437" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S437" t="n">
+        <v>1056</v>
+      </c>
+      <c r="T437" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>10</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D438" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E436" t="n">
-        <v>9</v>
-      </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G436" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I436" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J436" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K436" t="inlineStr">
+      <c r="E438" t="n">
+        <v>9</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L436" t="inlineStr">
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M438" t="n">
+        <v>100</v>
+      </c>
+      <c r="N438" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O438" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P438" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S438" t="n">
+        <v>944</v>
+      </c>
+      <c r="T438" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>10</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E439" t="n">
+        <v>9</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M436" t="n">
+      <c r="M439" t="n">
         <v>140</v>
       </c>
-      <c r="N436" t="n">
+      <c r="N439" t="n">
         <v>10000</v>
       </c>
-      <c r="O436" t="n">
+      <c r="O439" t="n">
         <v>10000</v>
       </c>
-      <c r="P436" t="n">
+      <c r="P439" t="n">
         <v>10000</v>
       </c>
-      <c r="Q436" t="inlineStr">
+      <c r="Q439" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R436" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S436" t="n">
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S439" t="n">
         <v>556</v>
       </c>
-      <c r="T436" t="n">
+      <c r="T439" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T441"/>
+  <dimension ref="A1:T445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N348" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O348" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P348" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N349" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O349" t="n">
         <v>18000</v>
       </c>
       <c r="P349" t="n">
-        <v>17556</v>
+        <v>18000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="T349" t="n">
         <v>18</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>12444</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>556</v>
+        <v>691</v>
       </c>
       <c r="T351" t="n">
         <v>18</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N352" t="n">
         <v>10000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P352" t="n">
-        <v>11062</v>
+        <v>10000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,29 +28595,29 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N353" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O353" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P353" t="n">
-        <v>8000</v>
+        <v>17556</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>444</v>
+        <v>975</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,29 +28675,29 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="N354" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P354" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,10 +28706,10 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N355" t="n">
         <v>10000</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28840,24 +28840,24 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="N356" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P356" t="n">
-        <v>150000</v>
+        <v>11062</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>333</v>
+        <v>615</v>
       </c>
       <c r="T356" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,29 +28915,29 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N357" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O357" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P357" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -28995,29 +28995,29 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="N358" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="O358" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="P358" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N359" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N360" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="O360" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="P360" t="n">
-        <v>240000</v>
+        <v>150000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29320,24 +29320,24 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="N362" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="O362" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="P362" t="n">
-        <v>200000</v>
+        <v>15000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="T362" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N363" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T363" t="n">
         <v>18</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N364" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="O364" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="P364" t="n">
-        <v>17000</v>
+        <v>240000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>944</v>
+        <v>533</v>
       </c>
       <c r="T364" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29640,24 +29640,24 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="N366" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="O366" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="P366" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="T366" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N367" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O367" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P367" t="n">
-        <v>15360</v>
+        <v>8000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>853</v>
+        <v>444</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="N368" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O368" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P368" t="n">
-        <v>7778</v>
+        <v>17000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>432</v>
+        <v>944</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="N370" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P370" t="n">
-        <v>11257</v>
+        <v>18000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T370" t="n">
         <v>18</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30040,24 +30040,24 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="N371" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O371" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P371" t="n">
-        <v>19471</v>
+        <v>15360</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1082</v>
+        <v>853</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="N372" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="O372" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P372" t="n">
-        <v>16385</v>
+        <v>7778</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>910</v>
+        <v>432</v>
       </c>
       <c r="T372" t="n">
         <v>18</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="N373" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O373" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P373" t="n">
-        <v>19500</v>
+        <v>14000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1083</v>
+        <v>778</v>
       </c>
       <c r="T373" t="n">
         <v>18</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="N374" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>16455</v>
+        <v>11257</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>914</v>
+        <v>625</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30360,24 +30360,24 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>19471</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>667</v>
+        <v>1082</v>
       </c>
       <c r="T375" t="n">
         <v>18</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P376" t="n">
-        <v>10000</v>
+        <v>16385</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>556</v>
+        <v>910</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30515,29 +30515,29 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>556</v>
+        <v>1083</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N378" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O378" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P378" t="n">
-        <v>18500</v>
+        <v>16455</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1028</v>
+        <v>914</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N379" t="n">
         <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E381" t="n">
         <v>9</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N381" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E382" t="n">
         <v>9</v>
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O382" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P382" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>444</v>
+        <v>1028</v>
       </c>
       <c r="T382" t="n">
         <v>18</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N383" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>11083</v>
+        <v>12500</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44279</v>
+        <v>44433</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N384" t="n">
         <v>12000</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
         <v>18</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="N386" t="n">
         <v>8000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P386" t="n">
-        <v>8448</v>
+        <v>8000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N387" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>17000</v>
+        <v>11083</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>944</v>
+        <v>616</v>
       </c>
       <c r="T387" t="n">
         <v>18</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="N388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O388" t="n">
         <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>10884</v>
+        <v>12000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,20 +31484,20 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N389" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="O389" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="P389" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>250</v>
+        <v>556</v>
       </c>
       <c r="T389" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31555,29 +31555,29 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N390" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O390" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P390" t="n">
-        <v>16385</v>
+        <v>8448</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>910</v>
+        <v>469</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O391" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P391" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="N392" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O392" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>8000</v>
+        <v>10884</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>444</v>
+        <v>605</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31795,29 +31795,29 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="N393" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="O393" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P393" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>944</v>
+        <v>250</v>
       </c>
       <c r="T393" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N394" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O394" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P394" t="n">
-        <v>15500</v>
+        <v>16385</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>861</v>
+        <v>910</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N395" t="n">
         <v>12000</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N396" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P396" t="n">
-        <v>10769</v>
+        <v>8000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>598</v>
+        <v>444</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32115,41 +32115,41 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N397" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="O397" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P397" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>333</v>
+        <v>944</v>
       </c>
       <c r="T397" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32195,41 +32195,41 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N398" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O398" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="P398" t="n">
-        <v>150000</v>
+        <v>15500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>333</v>
+        <v>861</v>
       </c>
       <c r="T398" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32284,32 +32284,32 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N399" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T399" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>410</v>
+        <v>130</v>
       </c>
       <c r="N400" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>18378</v>
+        <v>10769</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1021</v>
+        <v>598</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,32 +32444,32 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="N401" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O401" t="n">
-        <v>13000</v>
+        <v>150000</v>
       </c>
       <c r="P401" t="n">
-        <v>12448</v>
+        <v>150000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>692</v>
+        <v>333</v>
       </c>
       <c r="T401" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32515,41 +32515,41 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="N402" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="O402" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="P402" t="n">
-        <v>14000</v>
+        <v>150000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T402" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="N403" t="n">
-        <v>11000</v>
+        <v>220000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P403" t="n">
-        <v>11481</v>
+        <v>220000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>638</v>
+        <v>489</v>
       </c>
       <c r="T403" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>18378</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>667</v>
+        <v>1021</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N405" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P405" t="n">
-        <v>15000</v>
+        <v>12448</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>833</v>
+        <v>692</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32835,29 +32835,29 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N407" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O407" t="n">
         <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>12000</v>
+        <v>11481</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N409" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O409" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P409" t="n">
-        <v>16526</v>
+        <v>15000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>918</v>
+        <v>833</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N410" t="n">
         <v>10000</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N411" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33315,29 +33315,29 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N412" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O412" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P412" t="n">
-        <v>16455</v>
+        <v>10000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N413" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P413" t="n">
-        <v>14000</v>
+        <v>16526</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>778</v>
+        <v>918</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N414" t="n">
         <v>10000</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33555,29 +33555,29 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N415" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O415" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P415" t="n">
-        <v>15833</v>
+        <v>8000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>880</v>
+        <v>444</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>16455</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>667</v>
+        <v>914</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N418" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O419" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P419" t="n">
-        <v>10000</v>
+        <v>15833</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>556</v>
+        <v>880</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="N420" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N421" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34120,24 +34120,24 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O422" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P422" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>694</v>
+        <v>944</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44357</v>
+        <v>44306</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N423" t="n">
         <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>10514</v>
+        <v>10000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,29 +34275,29 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N424" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O424" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P424" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44410</v>
+        <v>44175</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,11 +34360,11 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N425" t="n">
         <v>18000</v>
@@ -34377,7 +34377,7 @@
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N426" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P426" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>944</v>
+        <v>694</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P427" t="n">
-        <v>12390</v>
+        <v>10514</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>688</v>
+        <v>584</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44411</v>
+        <v>44203</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34595,29 +34595,29 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N428" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O428" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P428" t="n">
-        <v>17620</v>
+        <v>24000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>979</v>
+        <v>1333</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34675,29 +34675,29 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M429" t="n">
         <v>155</v>
       </c>
       <c r="N429" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34760,24 +34760,24 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="N430" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P430" t="n">
-        <v>9746</v>
+        <v>17000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>541</v>
+        <v>944</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34847,13 +34847,13 @@
         <v>205</v>
       </c>
       <c r="N431" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P431" t="n">
-        <v>16463</v>
+        <v>12390</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>915</v>
+        <v>688</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N432" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O432" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P432" t="n">
-        <v>11633</v>
+        <v>17620</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>646</v>
+        <v>979</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="N433" t="n">
         <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>10923</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="T433" t="n">
         <v>18</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44358</v>
+        <v>44257</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="N434" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="O434" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>14000</v>
+        <v>9746</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>778</v>
+        <v>541</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44358</v>
+        <v>44244</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P435" t="n">
-        <v>10903</v>
+        <v>16463</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>606</v>
+        <v>915</v>
       </c>
       <c r="T435" t="n">
         <v>18</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N436" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O436" t="n">
         <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>12000</v>
+        <v>11633</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N437" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P437" t="n">
-        <v>15000</v>
+        <v>10923</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>833</v>
+        <v>607</v>
       </c>
       <c r="T437" t="n">
         <v>18</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E438" t="n">
         <v>9</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,7 +35404,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N438" t="n">
         <v>14000</v>
@@ -35417,7 +35417,7 @@
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1167</v>
+        <v>778</v>
       </c>
       <c r="T438" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>680</v>
+        <v>155</v>
       </c>
       <c r="N439" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P439" t="n">
-        <v>19000</v>
+        <v>10903</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1056</v>
+        <v>606</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E440" t="n">
         <v>9</v>
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N440" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O440" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P440" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T440" t="n">
         <v>18</v>
@@ -35607,68 +35607,388 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E441" t="n">
+        <v>9</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>Abate Fettel</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M441" t="n">
+        <v>50</v>
+      </c>
+      <c r="N441" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O441" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P441" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S441" t="n">
+        <v>833</v>
+      </c>
+      <c r="T441" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>10</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D442" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E442" t="n">
+        <v>9</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M442" t="n">
+        <v>85</v>
+      </c>
+      <c r="N442" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O442" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P442" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S442" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T442" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>10</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D443" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E443" t="n">
+        <v>9</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M443" t="n">
+        <v>680</v>
+      </c>
+      <c r="N443" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O443" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P443" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S443" t="n">
+        <v>1056</v>
+      </c>
+      <c r="T443" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>10</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D444" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E441" t="n">
-        <v>9</v>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G441" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I441" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J441" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K441" t="inlineStr">
+      <c r="E444" t="n">
+        <v>9</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L441" t="inlineStr">
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M444" t="n">
+        <v>100</v>
+      </c>
+      <c r="N444" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O444" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P444" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S444" t="n">
+        <v>944</v>
+      </c>
+      <c r="T444" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>10</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D445" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E445" t="n">
+        <v>9</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M441" t="n">
+      <c r="M445" t="n">
         <v>140</v>
       </c>
-      <c r="N441" t="n">
+      <c r="N445" t="n">
         <v>10000</v>
       </c>
-      <c r="O441" t="n">
+      <c r="O445" t="n">
         <v>10000</v>
       </c>
-      <c r="P441" t="n">
+      <c r="P445" t="n">
         <v>10000</v>
       </c>
-      <c r="Q441" t="inlineStr">
+      <c r="Q445" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R441" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S441" t="n">
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S445" t="n">
         <v>556</v>
       </c>
-      <c r="T441" t="n">
+      <c r="T445" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T453"/>
+  <dimension ref="A1:T456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="N412" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O412" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P412" t="n">
-        <v>18378</v>
+        <v>20000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1021</v>
+        <v>1111</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N413" t="n">
         <v>12000</v>
@@ -33413,7 +33413,7 @@
         <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>12448</v>
+        <v>12500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33475,29 +33475,29 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="N414" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
         <v>14000</v>
       </c>
       <c r="P414" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33560,24 +33560,24 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="N415" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P415" t="n">
-        <v>11481</v>
+        <v>18378</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>638</v>
+        <v>1021</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N416" t="n">
         <v>12000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>12448</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33715,29 +33715,29 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N417" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O417" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>11481</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33884,7 +33884,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N419" t="n">
         <v>12000</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P420" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34047,13 +34047,13 @@
         <v>95</v>
       </c>
       <c r="N421" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P421" t="n">
-        <v>16526</v>
+        <v>10000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>918</v>
+        <v>556</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N423" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34280,11 +34280,11 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="N424" t="n">
         <v>16000</v>
@@ -34293,11 +34293,11 @@
         <v>17000</v>
       </c>
       <c r="P424" t="n">
-        <v>16455</v>
+        <v>16526</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O426" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P426" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N427" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O427" t="n">
         <v>17000</v>
       </c>
       <c r="P427" t="n">
-        <v>15833</v>
+        <v>16455</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34600,24 +34600,24 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N428" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O428" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N430" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O430" t="n">
         <v>17000</v>
       </c>
       <c r="P430" t="n">
-        <v>17000</v>
+        <v>15833</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N432" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -35000,24 +35000,24 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N433" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O433" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P433" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T433" t="n">
         <v>18</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44461</v>
+        <v>44306</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N434" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O435" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P435" t="n">
-        <v>10514</v>
+        <v>22000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>584</v>
+        <v>1222</v>
       </c>
       <c r="T435" t="n">
         <v>18</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N436" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O436" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P436" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44410</v>
+        <v>44461</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N437" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O437" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P437" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1000</v>
+        <v>694</v>
       </c>
       <c r="T437" t="n">
         <v>18</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E438" t="n">
         <v>9</v>
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="N438" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P438" t="n">
-        <v>17000</v>
+        <v>10514</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>944</v>
+        <v>584</v>
       </c>
       <c r="T438" t="n">
         <v>18</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O439" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P439" t="n">
-        <v>12390</v>
+        <v>24000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>688</v>
+        <v>1333</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E440" t="n">
         <v>9</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="N440" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O440" t="n">
         <v>18000</v>
       </c>
       <c r="P440" t="n">
-        <v>17620</v>
+        <v>18000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="T440" t="n">
         <v>18</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E441" t="n">
         <v>9</v>
@@ -35635,29 +35635,29 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T441" t="n">
         <v>18</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="N442" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P442" t="n">
-        <v>9746</v>
+        <v>12390</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>541</v>
+        <v>688</v>
       </c>
       <c r="T442" t="n">
         <v>18</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E443" t="n">
         <v>9</v>
@@ -35800,24 +35800,24 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="N443" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O443" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P443" t="n">
-        <v>16463</v>
+        <v>17620</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>915</v>
+        <v>979</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>11633</v>
+        <v>10000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44292</v>
+        <v>44257</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="N445" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O445" t="n">
         <v>10000</v>
       </c>
-      <c r="O445" t="n">
-        <v>12000</v>
-      </c>
       <c r="P445" t="n">
-        <v>10923</v>
+        <v>9746</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="T445" t="n">
         <v>18</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44358</v>
+        <v>44244</v>
       </c>
       <c r="E446" t="n">
         <v>9</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="N446" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P446" t="n">
-        <v>14000</v>
+        <v>16463</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>778</v>
+        <v>915</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E447" t="n">
         <v>9</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O447" t="n">
         <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>10903</v>
+        <v>11633</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="T447" t="n">
         <v>18</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E448" t="n">
         <v>9</v>
@@ -36204,20 +36204,20 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O448" t="n">
         <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>10923</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>667</v>
+        <v>607</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N449" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O449" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P449" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E450" t="n">
         <v>9</v>
@@ -36355,29 +36355,29 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N450" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>14000</v>
+        <v>10903</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1167</v>
+        <v>606</v>
       </c>
       <c r="T450" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="N451" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T451" t="n">
         <v>18</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E452" t="n">
         <v>9</v>
@@ -36515,29 +36515,29 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N452" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O452" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P452" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T452" t="n">
         <v>18</v>
@@ -36567,68 +36567,308 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E453" t="n">
+        <v>9</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I453" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>Forelle</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M453" t="n">
+        <v>85</v>
+      </c>
+      <c r="N453" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O453" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P453" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S453" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T453" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>10</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E454" t="n">
+        <v>9</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Calibre 70</t>
+        </is>
+      </c>
+      <c r="M454" t="n">
+        <v>680</v>
+      </c>
+      <c r="N454" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O454" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P454" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S454" t="n">
+        <v>1056</v>
+      </c>
+      <c r="T454" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>10</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E453" t="n">
-        <v>9</v>
-      </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G453" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I453" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K453" t="inlineStr">
+      <c r="E455" t="n">
+        <v>9</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L453" t="inlineStr">
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M455" t="n">
+        <v>100</v>
+      </c>
+      <c r="N455" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O455" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P455" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S455" t="n">
+        <v>944</v>
+      </c>
+      <c r="T455" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>10</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E456" t="n">
+        <v>9</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M453" t="n">
+      <c r="M456" t="n">
         <v>140</v>
       </c>
-      <c r="N453" t="n">
+      <c r="N456" t="n">
         <v>10000</v>
       </c>
-      <c r="O453" t="n">
+      <c r="O456" t="n">
         <v>10000</v>
       </c>
-      <c r="P453" t="n">
+      <c r="P456" t="n">
         <v>10000</v>
       </c>
-      <c r="Q453" t="inlineStr">
+      <c r="Q456" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R453" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S453" t="n">
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S456" t="n">
         <v>556</v>
       </c>
-      <c r="T453" t="n">
+      <c r="T456" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T458"/>
+  <dimension ref="A1:T461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>20600</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>667</v>
+        <v>1144</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O390" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P390" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N391" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N392" t="n">
         <v>12000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>12444</v>
+        <v>12000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P393" t="n">
-        <v>11062</v>
+        <v>18000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>615</v>
+        <v>1000</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N394" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O394" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,20 +31964,20 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N395" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>180000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>180000</v>
+        <v>12444</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>400</v>
+        <v>691</v>
       </c>
       <c r="T395" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N396" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>17000</v>
+        <v>11062</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>944</v>
+        <v>615</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N397" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>14438</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>802</v>
+        <v>667</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N398" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O398" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P398" t="n">
-        <v>255556</v>
+        <v>180000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>568</v>
+        <v>400</v>
       </c>
       <c r="T398" t="n">
         <v>450</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32275,29 +32275,29 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N399" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="O399" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P399" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>250</v>
+        <v>944</v>
       </c>
       <c r="T399" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N400" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O400" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P400" t="n">
-        <v>16385</v>
+        <v>14438</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>910</v>
+        <v>802</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="N401" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O401" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P401" t="n">
-        <v>12000</v>
+        <v>255556</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="T401" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="402">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,20 +32524,20 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N402" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="O402" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="P402" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="T402" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N403" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O403" t="n">
         <v>17000</v>
       </c>
       <c r="P403" t="n">
-        <v>17000</v>
+        <v>16385</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="N405" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P405" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32835,29 +32835,29 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N407" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O407" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33075,29 +33075,29 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="N409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33160,24 +33160,24 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N410" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P410" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="N411" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O411" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>10514</v>
+        <v>8000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33484,20 +33484,20 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N414" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O414" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="P414" t="n">
-        <v>230000</v>
+        <v>10514</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="T414" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T415" t="n">
         <v>18</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O416" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P416" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,20 +33724,20 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T417" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33795,29 +33795,29 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N418" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="N420" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>8448</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>469</v>
+        <v>667</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34040,7 +34040,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M421" t="n">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
         <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>10884</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P423" t="n">
-        <v>12468</v>
+        <v>8448</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>693</v>
+        <v>469</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34280,24 +34280,24 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="N424" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="O424" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="P424" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,10 +34306,10 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T424" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N425" t="n">
         <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P425" t="n">
-        <v>10000</v>
+        <v>10884</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="N426" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P426" t="n">
-        <v>17000</v>
+        <v>12468</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>944</v>
+        <v>693</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34524,20 +34524,20 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>400</v>
+        <v>6</v>
       </c>
       <c r="N427" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O427" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="P427" t="n">
-        <v>10500</v>
+        <v>250000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="T427" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34595,16 +34595,16 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N428" t="n">
         <v>10000</v>
@@ -34617,7 +34617,7 @@
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34675,29 +34675,29 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N429" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="O429" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P429" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>222</v>
+        <v>944</v>
       </c>
       <c r="T429" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N430" t="n">
         <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="N431" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>16474</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>915</v>
+        <v>556</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M432" t="n">
         <v>3</v>
       </c>
       <c r="N432" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="O432" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="P432" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>578</v>
+        <v>222</v>
       </c>
       <c r="T432" t="n">
         <v>450</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="N433" t="n">
         <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>11379</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="T433" t="n">
         <v>18</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="N434" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="O434" t="n">
-        <v>230000</v>
+        <v>17000</v>
       </c>
       <c r="P434" t="n">
-        <v>230000</v>
+        <v>16474</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>511</v>
+        <v>915</v>
       </c>
       <c r="T434" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,20 +35164,20 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="N435" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O435" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P435" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1167</v>
+        <v>578</v>
       </c>
       <c r="T435" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N436" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>19000</v>
+        <v>11379</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1056</v>
+        <v>632</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,20 +35324,20 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O437" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P437" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T437" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E438" t="n">
         <v>9</v>
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="N438" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O438" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>17556</v>
+        <v>14000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>975</v>
+        <v>1167</v>
       </c>
       <c r="T438" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P439" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N440" t="n">
         <v>10000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E441" t="n">
         <v>9</v>
@@ -35647,13 +35647,13 @@
         <v>270</v>
       </c>
       <c r="N441" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O441" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P441" t="n">
-        <v>19444</v>
+        <v>17556</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1080</v>
+        <v>975</v>
       </c>
       <c r="T441" t="n">
         <v>18</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T442" t="n">
         <v>18</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E443" t="n">
         <v>9</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N443" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35875,29 +35875,29 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="N444" t="n">
-        <v>200000</v>
+        <v>19000</v>
       </c>
       <c r="O444" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="P444" t="n">
-        <v>200000</v>
+        <v>19444</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>444</v>
+        <v>1080</v>
       </c>
       <c r="T444" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O445" t="n">
         <v>14000</v>
       </c>
       <c r="P445" t="n">
-        <v>13542</v>
+        <v>14000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="T445" t="n">
         <v>18</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E446" t="n">
         <v>9</v>
@@ -36044,20 +36044,20 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N446" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P446" t="n">
-        <v>250000</v>
+        <v>12500</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="T446" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447">
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N447" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O447" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P447" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T447" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E448" t="n">
         <v>9</v>
@@ -36200,24 +36200,24 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N448" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O448" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>18378</v>
+        <v>13542</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1021</v>
+        <v>752</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36284,20 +36284,20 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O449" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="P449" t="n">
-        <v>12448</v>
+        <v>250000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="T449" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E450" t="n">
         <v>9</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="N450" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P450" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="T450" t="n">
         <v>18</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>18378</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>667</v>
+        <v>1021</v>
       </c>
       <c r="T451" t="n">
         <v>18</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E452" t="n">
         <v>9</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>12448</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>556</v>
+        <v>692</v>
       </c>
       <c r="T452" t="n">
         <v>18</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E453" t="n">
         <v>9</v>
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N453" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O453" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P453" t="n">
-        <v>17455</v>
+        <v>12500</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>970</v>
+        <v>694</v>
       </c>
       <c r="T453" t="n">
         <v>18</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E454" t="n">
         <v>9</v>
@@ -36680,24 +36680,24 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="N454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>139000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="T454" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="455">
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T455" t="n">
         <v>18</v>
@@ -36835,29 +36835,29 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N456" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O456" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P456" t="n">
-        <v>10000</v>
+        <v>17455</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>556</v>
+        <v>970</v>
       </c>
       <c r="T456" t="n">
         <v>18</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="N457" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O457" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="P457" t="n">
-        <v>16000</v>
+        <v>139000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>889</v>
+        <v>309</v>
       </c>
       <c r="T457" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E458" t="n">
         <v>9</v>
@@ -37004,31 +37004,271 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
         <v>12000</v>
       </c>
       <c r="P458" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S458" t="n">
+        <v>667</v>
+      </c>
+      <c r="T458" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>10</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E459" t="n">
+        <v>9</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I459" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M459" t="n">
+        <v>200</v>
+      </c>
+      <c r="N459" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O459" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P459" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S459" t="n">
+        <v>556</v>
+      </c>
+      <c r="T459" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>10</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E460" t="n">
+        <v>9</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I460" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M460" t="n">
+        <v>255</v>
+      </c>
+      <c r="N460" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O460" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P460" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S460" t="n">
+        <v>889</v>
+      </c>
+      <c r="T460" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>10</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E461" t="n">
+        <v>9</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M461" t="n">
+        <v>175</v>
+      </c>
+      <c r="N461" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O461" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P461" t="n">
         <v>10914</v>
       </c>
-      <c r="Q458" t="inlineStr">
+      <c r="Q461" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R458" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S458" t="n">
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S461" t="n">
         <v>606</v>
       </c>
-      <c r="T458" t="n">
+      <c r="T461" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T471"/>
+  <dimension ref="A1:T474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E304" t="n">
         <v>9</v>
@@ -24684,20 +24684,20 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N304" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O304" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P304" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 15 kilos embalada</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="T304" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E305" t="n">
         <v>9</v>
@@ -24760,24 +24760,24 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O305" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P305" t="n">
-        <v>16455</v>
+        <v>21000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>914</v>
+        <v>1167</v>
       </c>
       <c r="T305" t="n">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44434</v>
+        <v>44488</v>
       </c>
       <c r="E306" t="n">
         <v>9</v>
@@ -24840,24 +24840,24 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O306" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P306" t="n">
-        <v>18500</v>
+        <v>13583</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1028</v>
+        <v>755</v>
       </c>
       <c r="T306" t="n">
         <v>18</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E307" t="n">
         <v>9</v>
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O307" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P307" t="n">
-        <v>12438</v>
+        <v>19500</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>691</v>
+        <v>1083</v>
       </c>
       <c r="T307" t="n">
         <v>18</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E308" t="n">
         <v>9</v>
@@ -25004,20 +25004,20 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="N308" t="n">
-        <v>240000</v>
+        <v>16000</v>
       </c>
       <c r="O308" t="n">
-        <v>240000</v>
+        <v>17000</v>
       </c>
       <c r="P308" t="n">
-        <v>240000</v>
+        <v>16455</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>533</v>
+        <v>914</v>
       </c>
       <c r="T308" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309">
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N309" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O309" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P309" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T309" t="n">
         <v>18</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E310" t="n">
         <v>9</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="N310" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>10923</v>
+        <v>12438</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>607</v>
+        <v>691</v>
       </c>
       <c r="T310" t="n">
         <v>18</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E311" t="n">
         <v>9</v>
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="N311" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="O311" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="P311" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1111</v>
+        <v>533</v>
       </c>
       <c r="T311" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E312" t="n">
         <v>9</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N312" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O312" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T312" t="n">
         <v>18</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E313" t="n">
         <v>9</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N313" t="n">
         <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>10000</v>
+        <v>10923</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="T313" t="n">
         <v>18</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E314" t="n">
         <v>9</v>
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N314" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O314" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P314" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>444</v>
+        <v>1111</v>
       </c>
       <c r="T314" t="n">
         <v>18</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E315" t="n">
         <v>9</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="N315" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O315" t="n">
         <v>17000</v>
       </c>
       <c r="P315" t="n">
-        <v>16455</v>
+        <v>17000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="T315" t="n">
         <v>18</v>
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N316" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T316" t="n">
         <v>18</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T317" t="n">
         <v>18</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E318" t="n">
         <v>9</v>
@@ -25795,29 +25795,29 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="N318" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P318" t="n">
-        <v>15000</v>
+        <v>16455</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>833</v>
+        <v>914</v>
       </c>
       <c r="T318" t="n">
         <v>18</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N319" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P319" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T319" t="n">
         <v>18</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E320" t="n">
         <v>9</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N320" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T320" t="n">
         <v>18</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E321" t="n">
         <v>9</v>
@@ -26044,20 +26044,20 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N321" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O321" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="T321" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E322" t="n">
         <v>9</v>
@@ -26115,29 +26115,29 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="N322" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O322" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T322" t="n">
         <v>18</v>
@@ -26195,25 +26195,25 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N323" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O323" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P323" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T323" t="n">
         <v>18</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,20 +26284,20 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="N324" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P324" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T324" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="325">
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="N325" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O325" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P325" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T325" t="n">
         <v>18</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -26440,11 +26440,11 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
         <v>14000</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44344</v>
+        <v>44280</v>
       </c>
       <c r="E327" t="n">
         <v>9</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T327" t="n">
         <v>18</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44344</v>
+        <v>44280</v>
       </c>
       <c r="E328" t="n">
         <v>9</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N328" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P328" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T328" t="n">
         <v>18</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44407</v>
+        <v>44274</v>
       </c>
       <c r="E329" t="n">
         <v>9</v>
@@ -26687,13 +26687,13 @@
         <v>180</v>
       </c>
       <c r="N329" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P329" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T329" t="n">
         <v>18</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E330" t="n">
         <v>9</v>
@@ -26760,24 +26760,24 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N330" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="O330" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="P330" t="n">
-        <v>230000</v>
+        <v>14000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>511</v>
+        <v>778</v>
       </c>
       <c r="T330" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E331" t="n">
         <v>9</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T331" t="n">
         <v>18</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E332" t="n">
         <v>9</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N332" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
         <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>10903</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="T332" t="n">
         <v>18</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E333" t="n">
         <v>9</v>
@@ -27004,20 +27004,20 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="N333" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P333" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T333" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N334" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P334" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T334" t="n">
         <v>18</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27160,24 +27160,24 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="N335" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O335" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>17000</v>
+        <v>10903</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>944</v>
+        <v>606</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E336" t="n">
         <v>9</v>
@@ -27244,7 +27244,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N336" t="n">
         <v>12000</v>
@@ -27257,7 +27257,7 @@
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,29 +27315,29 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
         <v>50</v>
       </c>
       <c r="N337" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P337" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27400,11 +27400,11 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N338" t="n">
         <v>17000</v>
@@ -27417,7 +27417,7 @@
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E339" t="n">
         <v>9</v>
@@ -27480,24 +27480,24 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N339" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O339" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P339" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44320</v>
+        <v>44165</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27560,24 +27560,24 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="N340" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P340" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27640,24 +27640,24 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N341" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O341" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P341" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27720,24 +27720,24 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N342" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O342" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P342" t="n">
-        <v>13385</v>
+        <v>17000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>744</v>
+        <v>944</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27800,24 +27800,24 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N343" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P343" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27880,24 +27880,24 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P344" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="T344" t="n">
         <v>18</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="N345" t="n">
         <v>13000</v>
@@ -27973,7 +27973,7 @@
         <v>14000</v>
       </c>
       <c r="P345" t="n">
-        <v>13500</v>
+        <v>13385</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="T345" t="n">
         <v>18</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28035,29 +28035,29 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="N346" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O346" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P346" t="n">
-        <v>7778</v>
+        <v>20000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>432</v>
+        <v>1111</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O347" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P347" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>778</v>
+        <v>694</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E348" t="n">
         <v>9</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="N348" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O348" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P348" t="n">
-        <v>11257</v>
+        <v>13500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="N349" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O349" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P349" t="n">
-        <v>24000</v>
+        <v>7778</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1333</v>
+        <v>432</v>
       </c>
       <c r="T349" t="n">
         <v>18</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E351" t="n">
         <v>9</v>
@@ -28440,24 +28440,24 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="N351" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O351" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P351" t="n">
-        <v>16625</v>
+        <v>11257</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>924</v>
+        <v>625</v>
       </c>
       <c r="T351" t="n">
         <v>18</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28680,24 +28680,24 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N354" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O354" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P354" t="n">
-        <v>10000</v>
+        <v>16625</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>556</v>
+        <v>924</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E355" t="n">
         <v>9</v>
@@ -28764,20 +28764,20 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N355" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28786,10 +28786,10 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T355" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E356" t="n">
         <v>9</v>
@@ -28844,7 +28844,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N356" t="n">
         <v>8000</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,20 +28924,20 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="N357" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="O357" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P357" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T357" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -29000,24 +29000,24 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N358" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O358" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P358" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T358" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E359" t="n">
         <v>9</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N359" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O359" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P359" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N360" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O360" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P360" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N361" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O361" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P361" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="N362" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O362" t="n">
         <v>12000</v>
       </c>
       <c r="P362" t="n">
-        <v>11481</v>
+        <v>12000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="T362" t="n">
         <v>18</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E363" t="n">
         <v>9</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,20 +29404,20 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N363" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="P363" t="n">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T363" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>500</v>
+        <v>155</v>
       </c>
       <c r="N364" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O364" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P364" t="n">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O365" t="n">
         <v>12000</v>
       </c>
       <c r="P365" t="n">
-        <v>11200</v>
+        <v>11481</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="T365" t="n">
         <v>18</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N366" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O366" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P366" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1056</v>
+        <v>444</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="N367" t="n">
-        <v>300000</v>
+        <v>15000</v>
       </c>
       <c r="O367" t="n">
-        <v>300000</v>
+        <v>17000</v>
       </c>
       <c r="P367" t="n">
-        <v>300000</v>
+        <v>16200</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T367" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E368" t="n">
         <v>9</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N368" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O368" t="n">
         <v>12000</v>
       </c>
-      <c r="O368" t="n">
-        <v>13000</v>
-      </c>
       <c r="P368" t="n">
-        <v>12468</v>
+        <v>11200</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>693</v>
+        <v>622</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29880,24 +29880,24 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="N369" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="O369" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="P369" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>533</v>
+        <v>1056</v>
       </c>
       <c r="T369" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370">
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N370" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="O370" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="P370" t="n">
-        <v>220000</v>
+        <v>300000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>489</v>
+        <v>667</v>
       </c>
       <c r="T370" t="n">
         <v>450</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E371" t="n">
         <v>9</v>
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>145</v>
+        <v>470</v>
       </c>
       <c r="N371" t="n">
         <v>12000</v>
@@ -30053,7 +30053,7 @@
         <v>13000</v>
       </c>
       <c r="P371" t="n">
-        <v>12448</v>
+        <v>12468</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E372" t="n">
         <v>9</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,20 +30124,20 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T372" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E373" t="n">
         <v>9</v>
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N373" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="P373" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>722</v>
+        <v>489</v>
       </c>
       <c r="T373" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44453</v>
+        <v>44385</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30275,29 +30275,29 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N374" t="n">
         <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>12000</v>
+        <v>12448</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="T374" t="n">
         <v>18</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="N375" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P375" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T375" t="n">
         <v>18</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>780</v>
+        <v>125</v>
       </c>
       <c r="N377" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P377" t="n">
-        <v>18769</v>
+        <v>12000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1043</v>
+        <v>667</v>
       </c>
       <c r="T377" t="n">
         <v>18</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="N378" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1028</v>
+        <v>722</v>
       </c>
       <c r="T378" t="n">
         <v>18</v>
@@ -30675,29 +30675,29 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N379" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>280000</v>
+        <v>10000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="T379" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380">
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>1220</v>
+        <v>780</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P380" t="n">
-        <v>12533</v>
+        <v>18769</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>696</v>
+        <v>1043</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>19</v>
+        <v>400</v>
       </c>
       <c r="N381" t="n">
-        <v>230000</v>
+        <v>18000</v>
       </c>
       <c r="O381" t="n">
-        <v>240000</v>
+        <v>19000</v>
       </c>
       <c r="P381" t="n">
-        <v>235789</v>
+        <v>18500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>524</v>
+        <v>1028</v>
       </c>
       <c r="T381" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382">
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>280000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T382" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E383" t="n">
         <v>9</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>120</v>
+        <v>1220</v>
       </c>
       <c r="N383" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>10917</v>
+        <v>12533</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E384" t="n">
         <v>9</v>
@@ -31075,29 +31075,29 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N384" t="n">
-        <v>8000</v>
+        <v>230000</v>
       </c>
       <c r="O384" t="n">
-        <v>8000</v>
+        <v>240000</v>
       </c>
       <c r="P384" t="n">
-        <v>8000</v>
+        <v>235789</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="T384" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E385" t="n">
         <v>9</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
         <v>18</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O386" t="n">
         <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>10917</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="T386" t="n">
         <v>18</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T387" t="n">
         <v>18</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N388" t="n">
         <v>10000</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31480,24 +31480,24 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
         <v>200</v>
       </c>
       <c r="N389" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1028</v>
+        <v>667</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E390" t="n">
         <v>9</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O390" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P390" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T390" t="n">
         <v>18</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31720,24 +31720,24 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P392" t="n">
-        <v>11379</v>
+        <v>18500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>632</v>
+        <v>1028</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E393" t="n">
         <v>9</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N393" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P393" t="n">
-        <v>19471</v>
+        <v>12500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1082</v>
+        <v>694</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E394" t="n">
         <v>9</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N394" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O394" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>16385</v>
+        <v>12000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>910</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31960,24 +31960,24 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="N395" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O395" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>17000</v>
+        <v>11379</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>944</v>
+        <v>632</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N396" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P396" t="n">
-        <v>10889</v>
+        <v>19471</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>605</v>
+        <v>1082</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32120,24 +32120,24 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="N397" t="n">
-        <v>220000</v>
+        <v>16000</v>
       </c>
       <c r="O397" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P397" t="n">
-        <v>220000</v>
+        <v>16385</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>489</v>
+        <v>910</v>
       </c>
       <c r="T397" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398">
@@ -32195,29 +32195,29 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N398" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P398" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N399" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>20600</v>
+        <v>10889</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1144</v>
+        <v>605</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="N400" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="P400" t="n">
-        <v>13000</v>
+        <v>220000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>722</v>
+        <v>489</v>
       </c>
       <c r="T400" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E401" t="n">
         <v>9</v>
@@ -32435,16 +32435,16 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N401" t="n">
         <v>10000</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32515,29 +32515,29 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>20600</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>667</v>
+        <v>1144</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N403" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O403" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E404" t="n">
         <v>9</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N404" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N405" t="n">
         <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>12444</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P406" t="n">
-        <v>11062</v>
+        <v>18000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>615</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N407" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O407" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P407" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,20 +33004,20 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N408" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>180000</v>
+        <v>13000</v>
       </c>
       <c r="P408" t="n">
-        <v>180000</v>
+        <v>12444</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>400</v>
+        <v>691</v>
       </c>
       <c r="T408" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33080,24 +33080,24 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N409" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P409" t="n">
-        <v>17000</v>
+        <v>11062</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>944</v>
+        <v>615</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>14438</v>
+        <v>12000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>802</v>
+        <v>667</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N411" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O411" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P411" t="n">
-        <v>255556</v>
+        <v>180000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>568</v>
+        <v>400</v>
       </c>
       <c r="T411" t="n">
         <v>450</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33315,29 +33315,29 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N412" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="O412" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P412" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>250</v>
+        <v>944</v>
       </c>
       <c r="T412" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N413" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O413" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P413" t="n">
-        <v>16385</v>
+        <v>14438</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>910</v>
+        <v>802</v>
       </c>
       <c r="T413" t="n">
         <v>18</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33484,20 +33484,20 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="N414" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P414" t="n">
-        <v>12000</v>
+        <v>255556</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="T414" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="415">
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="P415" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="T415" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N416" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O416" t="n">
         <v>17000</v>
       </c>
       <c r="P416" t="n">
-        <v>17000</v>
+        <v>16385</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="N418" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P418" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33875,29 +33875,29 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O419" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P419" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33960,24 +33960,24 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N420" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,29 +34115,29 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="N422" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O422" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P422" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="N424" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O424" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P424" t="n">
-        <v>10514</v>
+        <v>8000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P425" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34524,20 +34524,20 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N427" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>230000</v>
+        <v>11000</v>
       </c>
       <c r="P427" t="n">
-        <v>230000</v>
+        <v>10514</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="T427" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N429" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P429" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,20 +34764,20 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T430" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34835,29 +34835,29 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N431" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O432" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P432" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="N433" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O433" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P433" t="n">
-        <v>8448</v>
+        <v>12000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>469</v>
+        <v>667</v>
       </c>
       <c r="T433" t="n">
         <v>18</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35080,7 +35080,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M434" t="n">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O435" t="n">
         <v>12000</v>
       </c>
       <c r="P435" t="n">
-        <v>10884</v>
+        <v>12000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>605</v>
+        <v>667</v>
       </c>
       <c r="T435" t="n">
         <v>18</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="N436" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O436" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P436" t="n">
-        <v>12468</v>
+        <v>8448</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>693</v>
+        <v>469</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="N437" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="O437" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="P437" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T437" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E438" t="n">
         <v>9</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N438" t="n">
         <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P438" t="n">
-        <v>10000</v>
+        <v>10884</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T438" t="n">
         <v>18</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="N439" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O439" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P439" t="n">
-        <v>17000</v>
+        <v>12468</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>944</v>
+        <v>693</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E440" t="n">
         <v>9</v>
@@ -35564,20 +35564,20 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>400</v>
+        <v>6</v>
       </c>
       <c r="N440" t="n">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="O440" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="P440" t="n">
-        <v>10500</v>
+        <v>250000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="T440" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E441" t="n">
         <v>9</v>
@@ -35635,16 +35635,16 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N441" t="n">
         <v>10000</v>
@@ -35657,7 +35657,7 @@
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
@@ -35715,29 +35715,29 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="O442" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P442" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>222</v>
+        <v>944</v>
       </c>
       <c r="T442" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E443" t="n">
         <v>9</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N443" t="n">
         <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="N444" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O444" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>16474</v>
+        <v>10000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>915</v>
+        <v>556</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M445" t="n">
         <v>3</v>
       </c>
       <c r="N445" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="O445" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="P445" t="n">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>578</v>
+        <v>222</v>
       </c>
       <c r="T445" t="n">
         <v>450</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="N446" t="n">
         <v>10000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>11379</v>
+        <v>10000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36120,24 +36120,24 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="N447" t="n">
-        <v>230000</v>
+        <v>16000</v>
       </c>
       <c r="O447" t="n">
-        <v>230000</v>
+        <v>17000</v>
       </c>
       <c r="P447" t="n">
-        <v>230000</v>
+        <v>16474</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>511</v>
+        <v>915</v>
       </c>
       <c r="T447" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E448" t="n">
         <v>9</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,20 +36204,20 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="N448" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="P448" t="n">
-        <v>14000</v>
+        <v>260000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1167</v>
+        <v>578</v>
       </c>
       <c r="T448" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36280,24 +36280,24 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="N449" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>19000</v>
+        <v>11379</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1056</v>
+        <v>632</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E450" t="n">
         <v>9</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,20 +36364,20 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N450" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="P450" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="T450" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36435,29 +36435,29 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="N451" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O451" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>17556</v>
+        <v>14000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>975</v>
+        <v>1167</v>
       </c>
       <c r="T451" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E452" t="n">
         <v>9</v>
@@ -36520,24 +36520,24 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="N452" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P452" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T452" t="n">
         <v>18</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,7 +36604,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N453" t="n">
         <v>10000</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E454" t="n">
         <v>9</v>
@@ -36687,13 +36687,13 @@
         <v>270</v>
       </c>
       <c r="N454" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O454" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P454" t="n">
-        <v>19444</v>
+        <v>17556</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1080</v>
+        <v>975</v>
       </c>
       <c r="T454" t="n">
         <v>18</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E455" t="n">
         <v>9</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N455" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P455" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T455" t="n">
         <v>18</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E456" t="n">
         <v>9</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N456" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O456" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T456" t="n">
         <v>18</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
@@ -36915,29 +36915,29 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="N457" t="n">
-        <v>200000</v>
+        <v>19000</v>
       </c>
       <c r="O457" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="P457" t="n">
-        <v>200000</v>
+        <v>19444</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>444</v>
+        <v>1080</v>
       </c>
       <c r="T457" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E458" t="n">
         <v>9</v>
@@ -37000,20 +37000,20 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N458" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O458" t="n">
         <v>14000</v>
       </c>
       <c r="P458" t="n">
-        <v>13542</v>
+        <v>14000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="T458" t="n">
         <v>18</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E459" t="n">
         <v>9</v>
@@ -37084,20 +37084,20 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N459" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>250000</v>
+        <v>12500</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,10 +37106,10 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="T459" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460">
@@ -37155,29 +37155,29 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N460" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="O460" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="P460" t="n">
-        <v>11000</v>
+        <v>200000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="T460" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E461" t="n">
         <v>9</v>
@@ -37240,24 +37240,24 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="N461" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P461" t="n">
-        <v>18378</v>
+        <v>13542</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1021</v>
+        <v>752</v>
       </c>
       <c r="T461" t="n">
         <v>18</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E462" t="n">
         <v>9</v>
@@ -37324,20 +37324,20 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="N462" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O462" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="P462" t="n">
-        <v>12448</v>
+        <v>250000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,10 +37346,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="T462" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44461</v>
+        <v>44270</v>
       </c>
       <c r="E463" t="n">
         <v>9</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="N463" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O463" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P463" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="T463" t="n">
         <v>18</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E464" t="n">
         <v>9</v>
@@ -37480,24 +37480,24 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O464" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P464" t="n">
-        <v>12000</v>
+        <v>18378</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>667</v>
+        <v>1021</v>
       </c>
       <c r="T464" t="n">
         <v>18</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="N465" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O465" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P465" t="n">
-        <v>10000</v>
+        <v>12448</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>556</v>
+        <v>692</v>
       </c>
       <c r="T465" t="n">
         <v>18</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E466" t="n">
         <v>9</v>
@@ -37640,24 +37640,24 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="N466" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O466" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P466" t="n">
-        <v>17455</v>
+        <v>12500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>970</v>
+        <v>694</v>
       </c>
       <c r="T466" t="n">
         <v>18</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E467" t="n">
         <v>9</v>
@@ -37720,24 +37720,24 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="N467" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O467" t="n">
-        <v>260000</v>
+        <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>139000</v>
+        <v>12000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>309</v>
+        <v>667</v>
       </c>
       <c r="T467" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="468">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N468" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T468" t="n">
         <v>18</v>
@@ -37875,29 +37875,29 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N469" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O469" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P469" t="n">
-        <v>10000</v>
+        <v>17455</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>556</v>
+        <v>970</v>
       </c>
       <c r="T469" t="n">
         <v>18</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E470" t="n">
         <v>9</v>
@@ -37960,24 +37960,24 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="N470" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O470" t="n">
-        <v>16000</v>
+        <v>260000</v>
       </c>
       <c r="P470" t="n">
-        <v>16000</v>
+        <v>139000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>889</v>
+        <v>309</v>
       </c>
       <c r="T470" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E471" t="n">
         <v>9</v>
@@ -38044,31 +38044,271 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="N471" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O471" t="n">
         <v>12000</v>
       </c>
       <c r="P471" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S471" t="n">
+        <v>667</v>
+      </c>
+      <c r="T471" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>10</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D472" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E472" t="n">
+        <v>9</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I472" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>Winter Nelis</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M472" t="n">
+        <v>200</v>
+      </c>
+      <c r="N472" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O472" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P472" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S472" t="n">
+        <v>556</v>
+      </c>
+      <c r="T472" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>10</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D473" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E473" t="n">
+        <v>9</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M473" t="n">
+        <v>255</v>
+      </c>
+      <c r="N473" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O473" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P473" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S473" t="n">
+        <v>889</v>
+      </c>
+      <c r="T473" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>10</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E474" t="n">
+        <v>9</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M474" t="n">
+        <v>175</v>
+      </c>
+      <c r="N474" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O474" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P474" t="n">
         <v>10914</v>
       </c>
-      <c r="Q471" t="inlineStr">
+      <c r="Q474" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R471" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S471" t="n">
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S474" t="n">
         <v>606</v>
       </c>
-      <c r="T471" t="n">
+      <c r="T474" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T474"/>
+  <dimension ref="A1:T476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E334" t="n">
         <v>9</v>
@@ -27080,24 +27080,24 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N334" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O334" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P334" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T334" t="n">
         <v>18</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E335" t="n">
         <v>9</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P335" t="n">
-        <v>10903</v>
+        <v>13471</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>606</v>
+        <v>748</v>
       </c>
       <c r="T335" t="n">
         <v>18</v>
@@ -27240,24 +27240,24 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N336" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O336" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P336" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T336" t="n">
         <v>18</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E337" t="n">
         <v>9</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N337" t="n">
         <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>10000</v>
+        <v>10903</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="T337" t="n">
         <v>18</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E338" t="n">
         <v>9</v>
@@ -27400,24 +27400,24 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="N338" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O338" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T338" t="n">
         <v>18</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T339" t="n">
         <v>18</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E340" t="n">
         <v>9</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N340" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O340" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P340" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T340" t="n">
         <v>18</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E341" t="n">
         <v>9</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N341" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P341" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T341" t="n">
         <v>18</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44320</v>
+        <v>44165</v>
       </c>
       <c r="E342" t="n">
         <v>9</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N342" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O342" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P342" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T342" t="n">
         <v>18</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44320</v>
+        <v>44165</v>
       </c>
       <c r="E343" t="n">
         <v>9</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T343" t="n">
         <v>18</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E344" t="n">
         <v>9</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N344" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O344" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P344" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T344" t="n">
         <v>18</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E345" t="n">
         <v>9</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="N345" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>13385</v>
+        <v>10000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>744</v>
+        <v>556</v>
       </c>
       <c r="T345" t="n">
         <v>18</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O346" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P346" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T346" t="n">
         <v>18</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E347" t="n">
         <v>9</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O347" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P347" t="n">
-        <v>12500</v>
+        <v>13385</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="T347" t="n">
         <v>18</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N348" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O348" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P348" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>750</v>
+        <v>1111</v>
       </c>
       <c r="T348" t="n">
         <v>18</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E349" t="n">
         <v>9</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="N349" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P349" t="n">
-        <v>7778</v>
+        <v>12500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>432</v>
+        <v>694</v>
       </c>
       <c r="T349" t="n">
         <v>18</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E350" t="n">
         <v>9</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O350" t="n">
         <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="T350" t="n">
         <v>18</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P351" t="n">
-        <v>11257</v>
+        <v>7778</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>625</v>
+        <v>432</v>
       </c>
       <c r="T351" t="n">
         <v>18</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E352" t="n">
         <v>9</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N352" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O352" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P352" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1333</v>
+        <v>778</v>
       </c>
       <c r="T352" t="n">
         <v>18</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E353" t="n">
         <v>9</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="N353" t="n">
         <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>11257</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="T353" t="n">
         <v>18</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E354" t="n">
         <v>9</v>
@@ -28675,29 +28675,29 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="N354" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O354" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="P354" t="n">
-        <v>16625</v>
+        <v>24000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>924</v>
+        <v>1333</v>
       </c>
       <c r="T354" t="n">
         <v>18</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T355" t="n">
         <v>18</v>
@@ -28840,24 +28840,24 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O356" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P356" t="n">
-        <v>8000</v>
+        <v>16625</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>444</v>
+        <v>924</v>
       </c>
       <c r="T356" t="n">
         <v>18</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E357" t="n">
         <v>9</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N357" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T357" t="n">
         <v>18</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E358" t="n">
         <v>9</v>
@@ -29000,24 +29000,24 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N358" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T358" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359">
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="N359" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T359" t="n">
         <v>18</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N360" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="O360" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P360" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T360" t="n">
         <v>450</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E361" t="n">
         <v>9</v>
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N361" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O361" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P361" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T361" t="n">
         <v>18</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,20 +29324,20 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="N362" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P362" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T362" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="363">
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N363" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="O363" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="P363" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T363" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E364" t="n">
         <v>9</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N364" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O364" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P364" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T364" t="n">
         <v>18</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E365" t="n">
         <v>9</v>
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="N365" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P365" t="n">
-        <v>11481</v>
+        <v>250000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>638</v>
+        <v>556</v>
       </c>
       <c r="T365" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E366" t="n">
         <v>9</v>
@@ -29635,29 +29635,29 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N366" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O366" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P366" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T366" t="n">
         <v>18</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E367" t="n">
         <v>9</v>
@@ -29720,24 +29720,24 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="N367" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O367" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>16200</v>
+        <v>11481</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>900</v>
+        <v>638</v>
       </c>
       <c r="T367" t="n">
         <v>18</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O368" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P368" t="n">
-        <v>11200</v>
+        <v>8000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>622</v>
+        <v>444</v>
       </c>
       <c r="T368" t="n">
         <v>18</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E369" t="n">
         <v>9</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M369" t="n">
         <v>500</v>
       </c>
       <c r="N369" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O369" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P369" t="n">
-        <v>19000</v>
+        <v>16200</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1056</v>
+        <v>900</v>
       </c>
       <c r="T369" t="n">
         <v>18</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E370" t="n">
         <v>9</v>
@@ -29960,24 +29960,24 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="N370" t="n">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="O370" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="P370" t="n">
-        <v>300000</v>
+        <v>11200</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="T370" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371">
@@ -30040,24 +30040,24 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P371" t="n">
-        <v>12468</v>
+        <v>19000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>693</v>
+        <v>1056</v>
       </c>
       <c r="T371" t="n">
         <v>18</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N372" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O372" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P372" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T372" t="n">
         <v>450</v>
@@ -30200,24 +30200,24 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="N373" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P373" t="n">
-        <v>220000</v>
+        <v>12468</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>489</v>
+        <v>693</v>
       </c>
       <c r="T373" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -30284,20 +30284,20 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="N374" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="O374" t="n">
-        <v>13000</v>
+        <v>240000</v>
       </c>
       <c r="P374" t="n">
-        <v>12448</v>
+        <v>240000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>692</v>
+        <v>533</v>
       </c>
       <c r="T374" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44452</v>
+        <v>44448</v>
       </c>
       <c r="E375" t="n">
         <v>9</v>
@@ -30355,29 +30355,29 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>220000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>667</v>
+        <v>489</v>
       </c>
       <c r="T375" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E376" t="n">
         <v>9</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N376" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O376" t="n">
         <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>13000</v>
+        <v>12448</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="T376" t="n">
         <v>18</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E377" t="n">
         <v>9</v>
@@ -30520,11 +30520,11 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N377" t="n">
         <v>12000</v>
@@ -30537,7 +30537,7 @@
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E378" t="n">
         <v>9</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N378" t="n">
         <v>13000</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N379" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
         <v>18</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E380" t="n">
         <v>9</v>
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>780</v>
+        <v>75</v>
       </c>
       <c r="N380" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>18769</v>
+        <v>13000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="T380" t="n">
         <v>18</v>
@@ -30835,29 +30835,29 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N381" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1028</v>
+        <v>556</v>
       </c>
       <c r="T381" t="n">
         <v>18</v>
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>5</v>
+        <v>780</v>
       </c>
       <c r="N382" t="n">
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="O382" t="n">
-        <v>280000</v>
+        <v>19000</v>
       </c>
       <c r="P382" t="n">
-        <v>280000</v>
+        <v>18769</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>622</v>
+        <v>1043</v>
       </c>
       <c r="T382" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383">
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>1220</v>
+        <v>400</v>
       </c>
       <c r="N383" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O383" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P383" t="n">
-        <v>12533</v>
+        <v>18500</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos empedrada</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>696</v>
+        <v>1028</v>
       </c>
       <c r="T383" t="n">
         <v>18</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N384" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="O384" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P384" t="n">
-        <v>235789</v>
+        <v>280000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="T384" t="n">
         <v>450</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>240</v>
+        <v>1220</v>
       </c>
       <c r="N385" t="n">
         <v>12000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>12533</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>667</v>
+        <v>696</v>
       </c>
       <c r="T385" t="n">
         <v>18</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E386" t="n">
         <v>9</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,20 +31244,20 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="N386" t="n">
-        <v>10000</v>
+        <v>230000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>240000</v>
       </c>
       <c r="P386" t="n">
-        <v>10917</v>
+        <v>235789</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>606</v>
+        <v>524</v>
       </c>
       <c r="T386" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E387" t="n">
         <v>9</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="N387" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T387" t="n">
         <v>18</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N388" t="n">
         <v>10000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>10000</v>
+        <v>10917</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>556</v>
+        <v>606</v>
       </c>
       <c r="T388" t="n">
         <v>18</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E389" t="n">
         <v>9</v>
@@ -31475,25 +31475,25 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T389" t="n">
         <v>18</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N390" t="n">
         <v>10000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E391" t="n">
         <v>9</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T391" t="n">
         <v>18</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E392" t="n">
         <v>9</v>
@@ -31715,29 +31715,29 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N392" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O392" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P392" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1028</v>
+        <v>556</v>
       </c>
       <c r="T392" t="n">
         <v>18</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O393" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T393" t="n">
         <v>18</v>
@@ -31875,29 +31875,29 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N394" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O394" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P394" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T394" t="n">
         <v>18</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E395" t="n">
         <v>9</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="N395" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>11379</v>
+        <v>12500</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>632</v>
+        <v>694</v>
       </c>
       <c r="T395" t="n">
         <v>18</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E396" t="n">
         <v>9</v>
@@ -32035,29 +32035,29 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="N396" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>19471</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1082</v>
+        <v>667</v>
       </c>
       <c r="T396" t="n">
         <v>18</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44166</v>
+        <v>44307</v>
       </c>
       <c r="E397" t="n">
         <v>9</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="N397" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O397" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>16385</v>
+        <v>11379</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>910</v>
+        <v>632</v>
       </c>
       <c r="T397" t="n">
         <v>18</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E398" t="n">
         <v>9</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N398" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O398" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P398" t="n">
-        <v>17000</v>
+        <v>19471</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>944</v>
+        <v>1082</v>
       </c>
       <c r="T398" t="n">
         <v>18</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E399" t="n">
         <v>9</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P399" t="n">
-        <v>10889</v>
+        <v>16385</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>605</v>
+        <v>910</v>
       </c>
       <c r="T399" t="n">
         <v>18</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N400" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="O400" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="P400" t="n">
-        <v>220000</v>
+        <v>17000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>489</v>
+        <v>944</v>
       </c>
       <c r="T400" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="401">
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N401" t="n">
         <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>10000</v>
+        <v>10889</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T401" t="n">
         <v>18</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="N402" t="n">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="O402" t="n">
-        <v>21000</v>
+        <v>220000</v>
       </c>
       <c r="P402" t="n">
-        <v>20600</v>
+        <v>220000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1144</v>
+        <v>489</v>
       </c>
       <c r="T402" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E403" t="n">
         <v>9</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O403" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>20600</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>556</v>
+        <v>1144</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N405" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P405" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N406" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O408" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P408" t="n">
-        <v>12444</v>
+        <v>18000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>691</v>
+        <v>1000</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O409" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P409" t="n">
-        <v>11062</v>
+        <v>14000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>615</v>
+        <v>778</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N410" t="n">
         <v>12000</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P410" t="n">
-        <v>12000</v>
+        <v>12444</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,20 +33244,20 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="N411" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>180000</v>
+        <v>11062</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="T411" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N412" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="N413" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O413" t="n">
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="P413" t="n">
-        <v>14438</v>
+        <v>180000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>802</v>
+        <v>400</v>
       </c>
       <c r="T413" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414">
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="N414" t="n">
-        <v>250000</v>
+        <v>17000</v>
       </c>
       <c r="O414" t="n">
-        <v>260000</v>
+        <v>17000</v>
       </c>
       <c r="P414" t="n">
-        <v>255556</v>
+        <v>17000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>568</v>
+        <v>944</v>
       </c>
       <c r="T414" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33555,29 +33555,29 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="N415" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="O415" t="n">
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="P415" t="n">
-        <v>100000</v>
+        <v>14438</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>250</v>
+        <v>802</v>
       </c>
       <c r="T415" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="N416" t="n">
-        <v>16000</v>
+        <v>250000</v>
       </c>
       <c r="O416" t="n">
-        <v>17000</v>
+        <v>260000</v>
       </c>
       <c r="P416" t="n">
-        <v>16385</v>
+        <v>255556</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>910</v>
+        <v>568</v>
       </c>
       <c r="T416" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="417">
@@ -33715,29 +33715,29 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>667</v>
+        <v>250</v>
       </c>
       <c r="T417" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="418">
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="N418" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O418" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P418" t="n">
-        <v>8000</v>
+        <v>16385</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>444</v>
+        <v>910</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
         <v>180</v>
       </c>
       <c r="N419" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O419" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P420" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P421" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="N422" t="n">
         <v>10000</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="N423" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="N424" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M425" t="n">
         <v>155</v>
       </c>
       <c r="N425" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O425" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P425" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
         <v>95</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N427" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O427" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P427" t="n">
-        <v>10514</v>
+        <v>17000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>584</v>
+        <v>944</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34600,11 +34600,11 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N428" t="n">
         <v>12000</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N429" t="n">
         <v>10000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>10514</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34764,20 +34764,20 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="N430" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T430" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431">
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N431" t="n">
         <v>10000</v>
@@ -34915,29 +34915,29 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N432" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="O432" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="P432" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>278</v>
+        <v>511</v>
       </c>
       <c r="T432" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N433" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T433" t="n">
         <v>18</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35075,29 +35075,29 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N434" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O434" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P434" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>944</v>
+        <v>278</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N435" t="n">
         <v>12000</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35235,29 +35235,29 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O436" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P436" t="n">
-        <v>8448</v>
+        <v>17000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>469</v>
+        <v>944</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
         <v>155</v>
       </c>
       <c r="N437" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O437" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P437" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T437" t="n">
         <v>18</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="N438" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P438" t="n">
-        <v>10884</v>
+        <v>8448</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>605</v>
+        <v>469</v>
       </c>
       <c r="T438" t="n">
         <v>18</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O439" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P439" t="n">
-        <v>12468</v>
+        <v>17000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>693</v>
+        <v>944</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E440" t="n">
         <v>9</v>
@@ -35564,20 +35564,20 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="N440" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="O440" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P440" t="n">
-        <v>250000</v>
+        <v>10884</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T440" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441">
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>12468</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>556</v>
+        <v>693</v>
       </c>
       <c r="T441" t="n">
         <v>18</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N442" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O442" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P442" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T442" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E443" t="n">
         <v>9</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N443" t="n">
         <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N444" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P444" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -35955,29 +35955,29 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="N445" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>100000</v>
+        <v>11000</v>
       </c>
       <c r="P445" t="n">
-        <v>100000</v>
+        <v>10500</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="T445" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E446" t="n">
         <v>9</v>
@@ -36035,16 +36035,16 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N446" t="n">
         <v>10000</v>
@@ -36057,7 +36057,7 @@
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N447" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O447" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P447" t="n">
-        <v>16474</v>
+        <v>100000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="T447" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="448">
@@ -36195,29 +36195,29 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N448" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T448" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="449">
@@ -36280,24 +36280,24 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O449" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P449" t="n">
-        <v>11379</v>
+        <v>16474</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36360,20 +36360,20 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N450" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O450" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P450" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T450" t="n">
         <v>450</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36435,29 +36435,29 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="N451" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>14000</v>
+        <v>11379</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1167</v>
+        <v>632</v>
       </c>
       <c r="T451" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E452" t="n">
         <v>9</v>
@@ -36520,24 +36520,24 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="N452" t="n">
-        <v>19000</v>
+        <v>230000</v>
       </c>
       <c r="O452" t="n">
-        <v>19000</v>
+        <v>230000</v>
       </c>
       <c r="P452" t="n">
-        <v>19000</v>
+        <v>230000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1056</v>
+        <v>511</v>
       </c>
       <c r="T452" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E453" t="n">
         <v>9</v>
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T453" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E454" t="n">
         <v>9</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>270</v>
+        <v>680</v>
       </c>
       <c r="N454" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O454" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P454" t="n">
-        <v>17556</v>
+        <v>19000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>975</v>
+        <v>1056</v>
       </c>
       <c r="T454" t="n">
         <v>18</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36767,13 +36767,13 @@
         <v>200</v>
       </c>
       <c r="N455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T455" t="n">
         <v>18</v>
@@ -36835,29 +36835,29 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="N456" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O456" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P456" t="n">
-        <v>10000</v>
+        <v>17556</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>556</v>
+        <v>975</v>
       </c>
       <c r="T456" t="n">
         <v>18</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N457" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>19444</v>
+        <v>12000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1080</v>
+        <v>667</v>
       </c>
       <c r="T457" t="n">
         <v>18</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E458" t="n">
         <v>9</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N458" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O458" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T458" t="n">
         <v>18</v>
@@ -37080,24 +37080,24 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N459" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P459" t="n">
-        <v>12500</v>
+        <v>19444</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>694</v>
+        <v>1080</v>
       </c>
       <c r="T459" t="n">
         <v>18</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E460" t="n">
         <v>9</v>
@@ -37155,29 +37155,29 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N460" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="O460" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="P460" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T460" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E461" t="n">
         <v>9</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N461" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O461" t="n">
         <v>13000</v>
       </c>
-      <c r="O461" t="n">
-        <v>14000</v>
-      </c>
       <c r="P461" t="n">
-        <v>13542</v>
+        <v>12500</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="T461" t="n">
         <v>18</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37327,13 +37327,13 @@
         <v>12</v>
       </c>
       <c r="N462" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O462" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P462" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T462" t="n">
         <v>450</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N463" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O463" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P463" t="n">
-        <v>11000</v>
+        <v>13542</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="T463" t="n">
         <v>18</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E464" t="n">
         <v>9</v>
@@ -37480,24 +37480,24 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="N464" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="O464" t="n">
-        <v>19000</v>
+        <v>250000</v>
       </c>
       <c r="P464" t="n">
-        <v>18378</v>
+        <v>250000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,10 +37506,10 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1021</v>
+        <v>556</v>
       </c>
       <c r="T464" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="N465" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O465" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P465" t="n">
-        <v>12448</v>
+        <v>11000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>692</v>
+        <v>611</v>
       </c>
       <c r="T465" t="n">
         <v>18</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E466" t="n">
         <v>9</v>
@@ -37640,24 +37640,24 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="N466" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O466" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P466" t="n">
-        <v>12500</v>
+        <v>18378</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>694</v>
+        <v>1021</v>
       </c>
       <c r="T466" t="n">
         <v>18</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E467" t="n">
         <v>9</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N467" t="n">
         <v>12000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P467" t="n">
-        <v>12000</v>
+        <v>12448</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="T467" t="n">
         <v>18</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E468" t="n">
         <v>9</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="T468" t="n">
         <v>18</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E469" t="n">
         <v>9</v>
@@ -37880,24 +37880,24 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="N469" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O469" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>17455</v>
+        <v>12000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>970</v>
+        <v>667</v>
       </c>
       <c r="T469" t="n">
         <v>18</v>
@@ -37955,29 +37955,29 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N470" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>139000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>309</v>
+        <v>556</v>
       </c>
       <c r="T470" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="471">
@@ -38040,24 +38040,24 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O471" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P471" t="n">
-        <v>12000</v>
+        <v>17455</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>667</v>
+        <v>970</v>
       </c>
       <c r="T471" t="n">
         <v>18</v>
@@ -38115,29 +38115,29 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="P472" t="n">
-        <v>10000</v>
+        <v>139000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,10 +38146,10 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>556</v>
+        <v>309</v>
       </c>
       <c r="T472" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="473">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E473" t="n">
         <v>9</v>
@@ -38200,24 +38200,24 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="N473" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T473" t="n">
         <v>18</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E474" t="n">
         <v>9</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,31 +38284,191 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N474" t="n">
         <v>10000</v>
       </c>
       <c r="O474" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P474" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S474" t="n">
+        <v>556</v>
+      </c>
+      <c r="T474" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>10</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E475" t="n">
+        <v>9</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I475" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M475" t="n">
+        <v>255</v>
+      </c>
+      <c r="N475" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O475" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P475" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S475" t="n">
+        <v>889</v>
+      </c>
+      <c r="T475" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>10</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E476" t="n">
+        <v>9</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I476" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M476" t="n">
+        <v>175</v>
+      </c>
+      <c r="N476" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O476" t="n">
         <v>12000</v>
       </c>
-      <c r="P474" t="n">
+      <c r="P476" t="n">
         <v>10914</v>
       </c>
-      <c r="Q474" t="inlineStr">
+      <c r="Q476" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R474" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S474" t="n">
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S476" t="n">
         <v>606</v>
       </c>
-      <c r="T474" t="n">
+      <c r="T476" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T479"/>
+  <dimension ref="A1:T481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N428" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O428" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P428" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1167</v>
+        <v>1111</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N429" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O429" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P429" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M430" t="n">
         <v>155</v>
       </c>
       <c r="N430" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O430" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P430" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>944</v>
+        <v>1167</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
         <v>95</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T431" t="n">
         <v>18</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O432" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P432" t="n">
-        <v>10514</v>
+        <v>17000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>584</v>
+        <v>944</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -35000,11 +35000,11 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N433" t="n">
         <v>12000</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N434" t="n">
         <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P434" t="n">
-        <v>10000</v>
+        <v>10514</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35164,20 +35164,20 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="N435" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O435" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P435" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T435" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436">
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,7 +35244,7 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N436" t="n">
         <v>10000</v>
@@ -35315,29 +35315,29 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N437" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="O437" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="P437" t="n">
-        <v>5000</v>
+        <v>230000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>278</v>
+        <v>511</v>
       </c>
       <c r="T437" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E438" t="n">
         <v>9</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T438" t="n">
         <v>18</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35475,29 +35475,29 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="N439" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O439" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P439" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>944</v>
+        <v>278</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E440" t="n">
         <v>9</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N440" t="n">
         <v>12000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E441" t="n">
         <v>9</v>
@@ -35635,29 +35635,29 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N441" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O441" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P441" t="n">
-        <v>8448</v>
+        <v>17000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>469</v>
+        <v>944</v>
       </c>
       <c r="T441" t="n">
         <v>18</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
         <v>155</v>
       </c>
       <c r="N442" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T442" t="n">
         <v>18</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P443" t="n">
-        <v>10884</v>
+        <v>8448</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>605</v>
+        <v>469</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35880,24 +35880,24 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O444" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P444" t="n">
-        <v>12468</v>
+        <v>17000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>693</v>
+        <v>944</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -35964,20 +35964,20 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="N445" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P445" t="n">
-        <v>250000</v>
+        <v>10884</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="T445" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="446">
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>12468</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>556</v>
+        <v>693</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E447" t="n">
         <v>9</v>
@@ -36120,24 +36120,24 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N447" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O447" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="P447" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T447" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E448" t="n">
         <v>9</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N448" t="n">
         <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E450" t="n">
         <v>9</v>
@@ -36355,29 +36355,29 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="N450" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>100000</v>
+        <v>11000</v>
       </c>
       <c r="P450" t="n">
-        <v>100000</v>
+        <v>10500</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="T450" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36435,16 +36435,16 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N451" t="n">
         <v>10000</v>
@@ -36457,7 +36457,7 @@
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36515,29 +36515,29 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N452" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O452" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P452" t="n">
-        <v>16474</v>
+        <v>100000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="T452" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="453">
@@ -36595,29 +36595,29 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N453" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T453" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454">
@@ -36680,24 +36680,24 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N454" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O454" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P454" t="n">
-        <v>11379</v>
+        <v>16474</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T454" t="n">
         <v>18</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N455" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O455" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P455" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T455" t="n">
         <v>450</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E456" t="n">
         <v>9</v>
@@ -36835,29 +36835,29 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="N456" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O456" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>14000</v>
+        <v>11379</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1167</v>
+        <v>632</v>
       </c>
       <c r="T456" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="N457" t="n">
-        <v>19000</v>
+        <v>230000</v>
       </c>
       <c r="O457" t="n">
-        <v>19000</v>
+        <v>230000</v>
       </c>
       <c r="P457" t="n">
-        <v>19000</v>
+        <v>230000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1056</v>
+        <v>511</v>
       </c>
       <c r="T457" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E458" t="n">
         <v>9</v>
@@ -37000,24 +37000,24 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>556</v>
+        <v>1167</v>
       </c>
       <c r="T458" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E459" t="n">
         <v>9</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>270</v>
+        <v>680</v>
       </c>
       <c r="N459" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O459" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P459" t="n">
-        <v>17556</v>
+        <v>19000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>975</v>
+        <v>1056</v>
       </c>
       <c r="T459" t="n">
         <v>18</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37167,13 +37167,13 @@
         <v>200</v>
       </c>
       <c r="N460" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T460" t="n">
         <v>18</v>
@@ -37235,29 +37235,29 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>17556</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>556</v>
+        <v>975</v>
       </c>
       <c r="T461" t="n">
         <v>18</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E462" t="n">
         <v>9</v>
@@ -37320,24 +37320,24 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N462" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O462" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>19444</v>
+        <v>12000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1080</v>
+        <v>667</v>
       </c>
       <c r="T462" t="n">
         <v>18</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E463" t="n">
         <v>9</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P463" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T463" t="n">
         <v>18</v>
@@ -37480,24 +37480,24 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O464" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P464" t="n">
-        <v>12500</v>
+        <v>19444</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>694</v>
+        <v>1080</v>
       </c>
       <c r="T464" t="n">
         <v>18</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
@@ -37555,29 +37555,29 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N465" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="O465" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="P465" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
@@ -37586,10 +37586,10 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T465" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E466" t="n">
         <v>9</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N466" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O466" t="n">
         <v>13000</v>
       </c>
-      <c r="O466" t="n">
-        <v>14000</v>
-      </c>
       <c r="P466" t="n">
-        <v>13542</v>
+        <v>12500</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>752</v>
+        <v>694</v>
       </c>
       <c r="T466" t="n">
         <v>18</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37727,13 +37727,13 @@
         <v>12</v>
       </c>
       <c r="N467" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O467" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P467" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T467" t="n">
         <v>450</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N468" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O468" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P468" t="n">
-        <v>11000</v>
+        <v>13542</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="T468" t="n">
         <v>18</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>9</v>
@@ -37880,24 +37880,24 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="N469" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="O469" t="n">
-        <v>19000</v>
+        <v>250000</v>
       </c>
       <c r="P469" t="n">
-        <v>18378</v>
+        <v>250000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,10 +37906,10 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1021</v>
+        <v>556</v>
       </c>
       <c r="T469" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E470" t="n">
         <v>9</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O470" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P470" t="n">
-        <v>12448</v>
+        <v>11000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>692</v>
+        <v>611</v>
       </c>
       <c r="T470" t="n">
         <v>18</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E471" t="n">
         <v>9</v>
@@ -38040,24 +38040,24 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O471" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P471" t="n">
-        <v>12500</v>
+        <v>18378</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>694</v>
+        <v>1021</v>
       </c>
       <c r="T471" t="n">
         <v>18</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E472" t="n">
         <v>9</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="N472" t="n">
         <v>12000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>12448</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="T472" t="n">
         <v>18</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E473" t="n">
         <v>9</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="T473" t="n">
         <v>18</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E474" t="n">
         <v>9</v>
@@ -38280,24 +38280,24 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="N474" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>17455</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>970</v>
+        <v>667</v>
       </c>
       <c r="T474" t="n">
         <v>18</v>
@@ -38355,29 +38355,29 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="N475" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O475" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P475" t="n">
-        <v>139000</v>
+        <v>10000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -38386,10 +38386,10 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>309</v>
+        <v>556</v>
       </c>
       <c r="T475" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="476">
@@ -38440,24 +38440,24 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N476" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O476" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P476" t="n">
-        <v>12000</v>
+        <v>17455</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>667</v>
+        <v>970</v>
       </c>
       <c r="T476" t="n">
         <v>18</v>
@@ -38515,29 +38515,29 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="P477" t="n">
-        <v>10000</v>
+        <v>139000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
@@ -38546,10 +38546,10 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>556</v>
+        <v>309</v>
       </c>
       <c r="T477" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
@@ -38600,24 +38600,24 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="N478" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O478" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P478" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T478" t="n">
         <v>18</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E479" t="n">
         <v>9</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,31 +38684,191 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N479" t="n">
         <v>10000</v>
       </c>
       <c r="O479" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P479" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S479" t="n">
+        <v>556</v>
+      </c>
+      <c r="T479" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>10</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E480" t="n">
+        <v>9</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>255</v>
+      </c>
+      <c r="N480" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O480" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P480" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S480" t="n">
+        <v>889</v>
+      </c>
+      <c r="T480" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>10</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E481" t="n">
+        <v>9</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>175</v>
+      </c>
+      <c r="N481" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O481" t="n">
         <v>12000</v>
       </c>
-      <c r="P479" t="n">
+      <c r="P481" t="n">
         <v>10914</v>
       </c>
-      <c r="Q479" t="inlineStr">
+      <c r="Q481" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R479" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S479" t="n">
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S481" t="n">
         <v>606</v>
       </c>
-      <c r="T479" t="n">
+      <c r="T481" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T491"/>
+  <dimension ref="A1:T493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>22909</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>667</v>
+        <v>1273</v>
       </c>
       <c r="T416" t="n">
         <v>18</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="N417" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O417" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>16565</v>
+        <v>14000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>920</v>
+        <v>778</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N418" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O418" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>20562</v>
+        <v>12000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1142</v>
+        <v>667</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="N419" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O419" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P419" t="n">
-        <v>13500</v>
+        <v>16565</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>750</v>
+        <v>920</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33955,29 +33955,29 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="N420" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O420" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P420" t="n">
-        <v>14000</v>
+        <v>20562</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,10 +33986,10 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="T420" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421">
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="N421" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O421" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P421" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34120,36 +34120,36 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N422" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="O422" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="P422" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>178</v>
+        <v>1167</v>
       </c>
       <c r="T422" t="n">
-        <v>450</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>255</v>
+        <v>680</v>
       </c>
       <c r="N423" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O423" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P423" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,41 +34275,41 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="N424" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="O424" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="P424" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>667</v>
+        <v>178</v>
       </c>
       <c r="T424" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N425" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O425" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P425" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1056</v>
+        <v>944</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N426" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34469,7 +34469,7 @@
         <v>667</v>
       </c>
       <c r="T426" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="427">
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O427" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P427" t="n">
-        <v>12455</v>
+        <v>19000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>692</v>
+        <v>1056</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N428" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O428" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P428" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T428" t="n">
         <v>450</v>
@@ -34680,24 +34680,24 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="N429" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O429" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P429" t="n">
-        <v>220000</v>
+        <v>12455</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>489</v>
+        <v>692</v>
       </c>
       <c r="T429" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34760,24 +34760,24 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="N430" t="n">
-        <v>19000</v>
+        <v>240000</v>
       </c>
       <c r="O430" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="P430" t="n">
-        <v>19500</v>
+        <v>240000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1083</v>
+        <v>533</v>
       </c>
       <c r="T430" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="N431" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="O431" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="P431" t="n">
-        <v>16455</v>
+        <v>220000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>914</v>
+        <v>489</v>
       </c>
       <c r="T431" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="N432" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O432" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P432" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -34995,29 +34995,29 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="N433" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="O433" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P433" t="n">
-        <v>100000</v>
+        <v>16455</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,10 +35026,10 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>222</v>
+        <v>914</v>
       </c>
       <c r="T433" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N434" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P434" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35155,29 +35155,29 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N435" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O435" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P435" t="n">
-        <v>16474</v>
+        <v>100000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="T435" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436">
@@ -35235,29 +35235,29 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N436" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T436" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437">
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O437" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P437" t="n">
-        <v>11379</v>
+        <v>16474</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T437" t="n">
         <v>18</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N438" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O438" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P438" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T438" t="n">
         <v>450</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
         <v>12000</v>
       </c>
       <c r="P439" t="n">
-        <v>12000</v>
+        <v>11379</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E440" t="n">
         <v>9</v>
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N440" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="O440" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="P440" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1111</v>
+        <v>511</v>
       </c>
       <c r="T440" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E441" t="n">
         <v>9</v>
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N441" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O441" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P441" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T441" t="n">
         <v>18</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N442" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P442" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T442" t="n">
         <v>18</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N444" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>13471</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>748</v>
+        <v>667</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -35960,24 +35960,24 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N445" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T445" t="n">
         <v>18</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E446" t="n">
         <v>9</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>13471</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E447" t="n">
         <v>9</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M447" t="n">
         <v>155</v>
       </c>
       <c r="N447" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O447" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P447" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T447" t="n">
         <v>18</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E448" t="n">
         <v>9</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N448" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36280,24 +36280,24 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="N449" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O449" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P449" t="n">
-        <v>17571</v>
+        <v>20000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>976</v>
+        <v>1111</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E450" t="n">
         <v>9</v>
@@ -36360,24 +36360,24 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N450" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O450" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P450" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1167</v>
+        <v>778</v>
       </c>
       <c r="T450" t="n">
         <v>18</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N451" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O451" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P451" t="n">
-        <v>13694</v>
+        <v>17571</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>761</v>
+        <v>976</v>
       </c>
       <c r="T451" t="n">
         <v>18</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E452" t="n">
         <v>9</v>
@@ -36515,29 +36515,29 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="N452" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="O452" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="P452" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>300</v>
+        <v>1167</v>
       </c>
       <c r="T452" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E453" t="n">
         <v>9</v>
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N453" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>17000</v>
+        <v>13694</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>944</v>
+        <v>761</v>
       </c>
       <c r="T453" t="n">
         <v>18</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N454" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="O454" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="P454" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T454" t="n">
         <v>450</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E455" t="n">
         <v>9</v>
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N455" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P455" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T455" t="n">
         <v>18</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E456" t="n">
         <v>9</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,20 +36844,20 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N456" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P456" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T456" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N457" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T457" t="n">
         <v>18</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
         <v>95</v>
       </c>
       <c r="N458" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P458" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T458" t="n">
         <v>18</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E459" t="n">
         <v>9</v>
@@ -37080,11 +37080,11 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N459" t="n">
         <v>17000</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E460" t="n">
         <v>9</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N460" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T460" t="n">
         <v>18</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E461" t="n">
         <v>9</v>
@@ -37235,29 +37235,29 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="N461" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="O461" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="P461" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,10 +37266,10 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T461" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E462" t="n">
         <v>9</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N462" t="n">
         <v>13000</v>
       </c>
       <c r="O462" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P462" t="n">
-        <v>13542</v>
+        <v>13000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="T462" t="n">
         <v>18</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37407,13 +37407,13 @@
         <v>12</v>
       </c>
       <c r="N463" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O463" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P463" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T463" t="n">
         <v>450</v>
@@ -37480,20 +37480,20 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N464" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P464" t="n">
-        <v>11000</v>
+        <v>13542</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="T464" t="n">
         <v>18</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
@@ -37560,24 +37560,24 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N465" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O465" t="n">
-        <v>19000</v>
+        <v>250000</v>
       </c>
       <c r="P465" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
@@ -37586,10 +37586,10 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T465" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E466" t="n">
         <v>9</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N466" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T466" t="n">
         <v>18</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E467" t="n">
         <v>9</v>
@@ -37715,29 +37715,29 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N467" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O467" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P467" t="n">
         <v>18000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E468" t="n">
         <v>9</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O468" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P468" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T468" t="n">
         <v>18</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N469" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O469" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P469" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T469" t="n">
         <v>18</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E470" t="n">
         <v>9</v>
@@ -37955,29 +37955,29 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N470" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O470" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P470" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T470" t="n">
         <v>18</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E471" t="n">
         <v>9</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O471" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P471" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T471" t="n">
         <v>18</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E472" t="n">
         <v>9</v>
@@ -38115,29 +38115,29 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P472" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T472" t="n">
         <v>18</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E473" t="n">
         <v>9</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N473" t="n">
         <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>12409</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="T473" t="n">
         <v>18</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E475" t="n">
         <v>9</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="N475" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>16463</v>
+        <v>12409</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>915</v>
+        <v>689</v>
       </c>
       <c r="T475" t="n">
         <v>18</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E476" t="n">
         <v>9</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N476" t="n">
         <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>11379</v>
+        <v>10000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="T476" t="n">
         <v>18</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E477" t="n">
         <v>9</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,32 +38524,32 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="N477" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="O477" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P477" t="n">
-        <v>150000</v>
+        <v>16463</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>333</v>
+        <v>915</v>
       </c>
       <c r="T477" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,32 +38604,32 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="N478" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P478" t="n">
-        <v>150000</v>
+        <v>11379</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>333</v>
+        <v>632</v>
       </c>
       <c r="T478" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479">
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N479" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O479" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P479" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T479" t="n">
         <v>450</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E480" t="n">
         <v>9</v>
@@ -38764,32 +38764,32 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N480" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O480" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P480" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T480" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="481">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E481" t="n">
         <v>9</v>
@@ -38840,36 +38840,36 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N481" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="O481" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="P481" t="n">
-        <v>18500</v>
+        <v>220000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1028</v>
+        <v>489</v>
       </c>
       <c r="T481" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="482">
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N482" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P482" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T482" t="n">
         <v>18</v>
@@ -38995,29 +38995,29 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T483" t="n">
         <v>18</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E484" t="n">
         <v>9</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N484" t="n">
         <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P484" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="T484" t="n">
         <v>18</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E485" t="n">
         <v>9</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N485" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>8556</v>
+        <v>12000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="T485" t="n">
         <v>18</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,7 +39244,7 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N486" t="n">
         <v>12000</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N487" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O487" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P487" t="n">
-        <v>10000</v>
+        <v>8556</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T487" t="n">
         <v>18</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E488" t="n">
         <v>9</v>
@@ -39400,24 +39400,24 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N488" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O488" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P488" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T488" t="n">
         <v>18</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E489" t="n">
         <v>9</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N489" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O489" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T489" t="n">
         <v>18</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E490" t="n">
         <v>9</v>
@@ -39567,13 +39567,13 @@
         <v>200</v>
       </c>
       <c r="N490" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O490" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P490" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="T490" t="n">
         <v>18</v>
@@ -39607,68 +39607,228 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E491" t="n">
+        <v>9</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I491" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M491" t="n">
+        <v>100</v>
+      </c>
+      <c r="N491" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O491" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P491" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q491" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S491" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T491" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>10</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D492" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E491" t="n">
-        <v>9</v>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G491" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I491" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K491" t="inlineStr">
+      <c r="E492" t="n">
+        <v>9</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I492" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L491" t="inlineStr">
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M492" t="n">
+        <v>200</v>
+      </c>
+      <c r="N492" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O492" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P492" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S492" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T492" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>10</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D493" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E493" t="n">
+        <v>9</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I493" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M491" t="n">
+      <c r="M493" t="n">
         <v>180</v>
       </c>
-      <c r="N491" t="n">
+      <c r="N493" t="n">
         <v>13000</v>
       </c>
-      <c r="O491" t="n">
+      <c r="O493" t="n">
         <v>13000</v>
       </c>
-      <c r="P491" t="n">
+      <c r="P493" t="n">
         <v>13000</v>
       </c>
-      <c r="Q491" t="inlineStr">
+      <c r="Q493" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R491" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S491" t="n">
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S493" t="n">
         <v>722</v>
       </c>
-      <c r="T491" t="n">
+      <c r="T493" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T493"/>
+  <dimension ref="A1:T495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="N420" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O420" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P420" t="n">
-        <v>20562</v>
+        <v>24000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1142</v>
+        <v>1333</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N421" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O421" t="n">
         <v>14000</v>
       </c>
       <c r="P421" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34115,29 +34115,29 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P422" t="n">
-        <v>14000</v>
+        <v>20562</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="T422" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="N423" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O423" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P423" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34280,36 +34280,36 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N424" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>178</v>
+        <v>1167</v>
       </c>
       <c r="T424" t="n">
-        <v>450</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>255</v>
+        <v>680</v>
       </c>
       <c r="N425" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O425" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P425" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="T425" t="n">
         <v>18</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34435,41 +34435,41 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>667</v>
+        <v>178</v>
       </c>
       <c r="T426" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N427" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O427" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P427" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1056</v>
+        <v>944</v>
       </c>
       <c r="T427" t="n">
         <v>18</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34600,24 +34600,24 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N428" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O428" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34629,7 +34629,7 @@
         <v>667</v>
       </c>
       <c r="T428" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="429">
@@ -34680,24 +34680,24 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O429" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P429" t="n">
-        <v>12455</v>
+        <v>19000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>692</v>
+        <v>1056</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N430" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O430" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P430" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T430" t="n">
         <v>450</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="N431" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P431" t="n">
-        <v>220000</v>
+        <v>12455</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>489</v>
+        <v>692</v>
       </c>
       <c r="T431" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E432" t="n">
         <v>9</v>
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="N432" t="n">
-        <v>19000</v>
+        <v>240000</v>
       </c>
       <c r="O432" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="P432" t="n">
-        <v>19500</v>
+        <v>240000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1083</v>
+        <v>533</v>
       </c>
       <c r="T432" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E433" t="n">
         <v>9</v>
@@ -35000,24 +35000,24 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="N433" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="O433" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="P433" t="n">
-        <v>16455</v>
+        <v>220000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,10 +35026,10 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>914</v>
+        <v>489</v>
       </c>
       <c r="T433" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="N434" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O434" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P434" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T434" t="n">
         <v>18</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35155,29 +35155,29 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="N435" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="O435" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P435" t="n">
-        <v>100000</v>
+        <v>16455</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>222</v>
+        <v>914</v>
       </c>
       <c r="T435" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35315,29 +35315,29 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N437" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O437" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P437" t="n">
-        <v>16474</v>
+        <v>100000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="T437" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438">
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N438" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T438" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439">
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P439" t="n">
-        <v>11379</v>
+        <v>16474</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N440" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O440" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P440" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T440" t="n">
         <v>450</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E441" t="n">
         <v>9</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="N441" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
         <v>12000</v>
       </c>
       <c r="P441" t="n">
-        <v>12000</v>
+        <v>11379</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="T441" t="n">
         <v>18</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E442" t="n">
         <v>9</v>
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N442" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="O442" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="P442" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1111</v>
+        <v>511</v>
       </c>
       <c r="T442" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E443" t="n">
         <v>9</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N443" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T443" t="n">
         <v>18</v>
@@ -35880,24 +35880,24 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35960,20 +35960,20 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T445" t="n">
         <v>18</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N446" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P446" t="n">
-        <v>13471</v>
+        <v>12000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>748</v>
+        <v>667</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E447" t="n">
         <v>9</v>
@@ -36120,24 +36120,24 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N447" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T447" t="n">
         <v>18</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E448" t="n">
         <v>9</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>13471</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36280,20 +36280,20 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M449" t="n">
         <v>155</v>
       </c>
       <c r="N449" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O449" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P449" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E450" t="n">
         <v>9</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T450" t="n">
         <v>18</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="N451" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O451" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P451" t="n">
-        <v>17571</v>
+        <v>20000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>976</v>
+        <v>1111</v>
       </c>
       <c r="T451" t="n">
         <v>18</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E452" t="n">
         <v>9</v>
@@ -36520,24 +36520,24 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N452" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O452" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P452" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1167</v>
+        <v>778</v>
       </c>
       <c r="T452" t="n">
         <v>18</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E453" t="n">
         <v>9</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N453" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O453" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P453" t="n">
-        <v>13694</v>
+        <v>17571</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>761</v>
+        <v>976</v>
       </c>
       <c r="T453" t="n">
         <v>18</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E454" t="n">
         <v>9</v>
@@ -36675,29 +36675,29 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="N454" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="O454" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="P454" t="n">
-        <v>135000</v>
+        <v>21000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>300</v>
+        <v>1167</v>
       </c>
       <c r="T454" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E455" t="n">
         <v>9</v>
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N455" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O455" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>17000</v>
+        <v>13694</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>944</v>
+        <v>761</v>
       </c>
       <c r="T455" t="n">
         <v>18</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N456" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="O456" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="P456" t="n">
-        <v>225000</v>
+        <v>135000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T456" t="n">
         <v>450</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N457" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O457" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P457" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T457" t="n">
         <v>18</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E458" t="n">
         <v>9</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,20 +37004,20 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="N458" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="P458" t="n">
-        <v>8000</v>
+        <v>225000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T458" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E459" t="n">
         <v>9</v>
@@ -37080,24 +37080,24 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="N459" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P459" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T459" t="n">
         <v>18</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
         <v>95</v>
       </c>
       <c r="N460" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T460" t="n">
         <v>18</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E461" t="n">
         <v>9</v>
@@ -37240,11 +37240,11 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N461" t="n">
         <v>17000</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E462" t="n">
         <v>9</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N462" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O462" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T462" t="n">
         <v>18</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E463" t="n">
         <v>9</v>
@@ -37395,29 +37395,29 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="N463" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="O463" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="P463" t="n">
-        <v>200000</v>
+        <v>17000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,10 +37426,10 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T463" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E464" t="n">
         <v>9</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N464" t="n">
         <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P464" t="n">
-        <v>13542</v>
+        <v>13000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="T464" t="n">
         <v>18</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37567,13 +37567,13 @@
         <v>12</v>
       </c>
       <c r="N465" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="O465" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P465" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T465" t="n">
         <v>450</v>
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N466" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O466" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P466" t="n">
-        <v>11000</v>
+        <v>13542</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>611</v>
+        <v>752</v>
       </c>
       <c r="T466" t="n">
         <v>18</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E467" t="n">
         <v>9</v>
@@ -37720,24 +37720,24 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N467" t="n">
-        <v>17000</v>
+        <v>250000</v>
       </c>
       <c r="O467" t="n">
-        <v>19000</v>
+        <v>250000</v>
       </c>
       <c r="P467" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T467" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E468" t="n">
         <v>9</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N468" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O468" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P468" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T468" t="n">
         <v>18</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E469" t="n">
         <v>9</v>
@@ -37875,29 +37875,29 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N469" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O469" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P469" t="n">
         <v>18000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E470" t="n">
         <v>9</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N470" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O470" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P470" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T470" t="n">
         <v>18</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N471" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O471" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P471" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T471" t="n">
         <v>18</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E472" t="n">
         <v>9</v>
@@ -38115,29 +38115,29 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N472" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O472" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P472" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T472" t="n">
         <v>18</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E473" t="n">
         <v>9</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T473" t="n">
         <v>18</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E474" t="n">
         <v>9</v>
@@ -38275,29 +38275,29 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T474" t="n">
         <v>18</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E475" t="n">
         <v>9</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N475" t="n">
         <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P475" t="n">
-        <v>12409</v>
+        <v>12000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="T475" t="n">
         <v>18</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E477" t="n">
         <v>9</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="N477" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O477" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P477" t="n">
-        <v>16463</v>
+        <v>12409</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>915</v>
+        <v>689</v>
       </c>
       <c r="T477" t="n">
         <v>18</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N478" t="n">
         <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>11379</v>
+        <v>10000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="T478" t="n">
         <v>18</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E479" t="n">
         <v>9</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,32 +38684,32 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="N479" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="O479" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P479" t="n">
-        <v>150000</v>
+        <v>16463</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>333</v>
+        <v>915</v>
       </c>
       <c r="T479" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="480">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E480" t="n">
         <v>9</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,32 +38764,32 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="N480" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O480" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>150000</v>
+        <v>11379</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>333</v>
+        <v>632</v>
       </c>
       <c r="T480" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481">
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N481" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O481" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P481" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T481" t="n">
         <v>450</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E482" t="n">
         <v>9</v>
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O482" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P482" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T482" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E483" t="n">
         <v>9</v>
@@ -39000,36 +39000,36 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N483" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="O483" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="P483" t="n">
-        <v>18500</v>
+        <v>220000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1028</v>
+        <v>489</v>
       </c>
       <c r="T483" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="484">
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N484" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T484" t="n">
         <v>18</v>
@@ -39155,29 +39155,29 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N485" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P485" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T485" t="n">
         <v>18</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E486" t="n">
         <v>9</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N486" t="n">
         <v>12000</v>
       </c>
       <c r="O486" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P486" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="T486" t="n">
         <v>18</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E487" t="n">
         <v>9</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N487" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>8556</v>
+        <v>12000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="T487" t="n">
         <v>18</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N488" t="n">
         <v>12000</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N489" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O489" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P489" t="n">
-        <v>10000</v>
+        <v>8556</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T489" t="n">
         <v>18</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E490" t="n">
         <v>9</v>
@@ -39560,24 +39560,24 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N490" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O490" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T490" t="n">
         <v>18</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E491" t="n">
         <v>9</v>
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N491" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T491" t="n">
         <v>18</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E492" t="n">
         <v>9</v>
@@ -39727,13 +39727,13 @@
         <v>200</v>
       </c>
       <c r="N492" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O492" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P492" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="T492" t="n">
         <v>18</v>
@@ -39767,68 +39767,228 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E493" t="n">
+        <v>9</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I493" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M493" t="n">
+        <v>100</v>
+      </c>
+      <c r="N493" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O493" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P493" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S493" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T493" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>10</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D494" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E493" t="n">
-        <v>9</v>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G493" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I493" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K493" t="inlineStr">
+      <c r="E494" t="n">
+        <v>9</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I494" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L493" t="inlineStr">
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M494" t="n">
+        <v>200</v>
+      </c>
+      <c r="N494" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O494" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P494" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q494" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S494" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T494" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>10</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D495" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E495" t="n">
+        <v>9</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I495" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M493" t="n">
+      <c r="M495" t="n">
         <v>180</v>
       </c>
-      <c r="N493" t="n">
+      <c r="N495" t="n">
         <v>13000</v>
       </c>
-      <c r="O493" t="n">
+      <c r="O495" t="n">
         <v>13000</v>
       </c>
-      <c r="P493" t="n">
+      <c r="P495" t="n">
         <v>13000</v>
       </c>
-      <c r="Q493" t="inlineStr">
+      <c r="Q495" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R493" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S493" t="n">
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S495" t="n">
         <v>722</v>
       </c>
-      <c r="T493" t="n">
+      <c r="T495" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T495"/>
+  <dimension ref="A1:T496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E400" t="n">
         <v>9</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="N400" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O400" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P400" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T400" t="n">
         <v>18</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N401" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O401" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P401" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>583</v>
+        <v>944</v>
       </c>
       <c r="T401" t="n">
         <v>18</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E402" t="n">
         <v>9</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="N402" t="n">
         <v>10000</v>
       </c>
       <c r="O402" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P402" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="T402" t="n">
         <v>18</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N403" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T403" t="n">
         <v>18</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
         <v>18</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E405" t="n">
         <v>9</v>
@@ -32755,29 +32755,29 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N405" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T405" t="n">
         <v>18</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T406" t="n">
         <v>18</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E407" t="n">
         <v>9</v>
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N407" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O407" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T407" t="n">
         <v>18</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N408" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O408" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P408" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N409" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33155,29 +33155,29 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N410" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O410" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P410" t="n">
-        <v>19357</v>
+        <v>15000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1075</v>
+        <v>833</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P411" t="n">
-        <v>12000</v>
+        <v>19357</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>667</v>
+        <v>1075</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33324,20 +33324,20 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="N412" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>250000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T412" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E413" t="n">
         <v>9</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="N413" t="n">
-        <v>22000</v>
+        <v>250000</v>
       </c>
       <c r="O413" t="n">
-        <v>22000</v>
+        <v>250000</v>
       </c>
       <c r="P413" t="n">
-        <v>22000</v>
+        <v>250000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="T413" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N414" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P414" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="N415" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="T415" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>330</v>
+        <v>8</v>
       </c>
       <c r="N416" t="n">
-        <v>22000</v>
+        <v>230000</v>
       </c>
       <c r="O416" t="n">
-        <v>24000</v>
+        <v>230000</v>
       </c>
       <c r="P416" t="n">
-        <v>22909</v>
+        <v>230000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1273</v>
+        <v>511</v>
       </c>
       <c r="T416" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="417">
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N417" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O417" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P417" t="n">
-        <v>14000</v>
+        <v>22909</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>778</v>
+        <v>1273</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="N418" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P418" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T418" t="n">
         <v>18</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N419" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O419" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>16565</v>
+        <v>12000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>920</v>
+        <v>667</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33960,24 +33960,24 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="N420" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O420" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="P420" t="n">
-        <v>24000</v>
+        <v>16565</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1333</v>
+        <v>920</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N421" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O421" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P421" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34120,24 +34120,24 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="N422" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O422" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P422" t="n">
-        <v>20562</v>
+        <v>14000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1142</v>
+        <v>778</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N423" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O423" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P423" t="n">
-        <v>13500</v>
+        <v>20562</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>750</v>
+        <v>1142</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34275,29 +34275,29 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N424" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O424" t="n">
         <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,10 +34306,10 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1167</v>
+        <v>750</v>
       </c>
       <c r="T424" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="425">
@@ -34355,29 +34355,29 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="N425" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O425" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P425" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1056</v>
+        <v>1167</v>
       </c>
       <c r="T425" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34435,41 +34435,41 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>5</v>
+        <v>680</v>
       </c>
       <c r="N426" t="n">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="O426" t="n">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="P426" t="n">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>178</v>
+        <v>1056</v>
       </c>
       <c r="T426" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="427">
@@ -34515,41 +34515,41 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N427" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="O427" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="P427" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>944</v>
+        <v>178</v>
       </c>
       <c r="T427" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34600,24 +34600,24 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="N428" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O428" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P428" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34680,24 +34680,24 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="N429" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O429" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P429" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T429" t="n">
         <v>18</v>
@@ -34760,24 +34760,24 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="N430" t="n">
-        <v>300000</v>
+        <v>19000</v>
       </c>
       <c r="O430" t="n">
-        <v>300000</v>
+        <v>19000</v>
       </c>
       <c r="P430" t="n">
-        <v>300000</v>
+        <v>19000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T430" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431">
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="O431" t="n">
-        <v>13000</v>
+        <v>300000</v>
       </c>
       <c r="P431" t="n">
-        <v>12455</v>
+        <v>300000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="T431" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="432">
@@ -34924,20 +34924,20 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="N432" t="n">
-        <v>240000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>240000</v>
+        <v>13000</v>
       </c>
       <c r="P432" t="n">
-        <v>240000</v>
+        <v>12455</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>533</v>
+        <v>692</v>
       </c>
       <c r="T432" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="433">
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N433" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="O433" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P433" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E434" t="n">
         <v>9</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="N434" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="O434" t="n">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="P434" t="n">
-        <v>19500</v>
+        <v>220000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1083</v>
+        <v>489</v>
       </c>
       <c r="T434" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="435">
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N435" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O435" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P435" t="n">
-        <v>16455</v>
+        <v>19500</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>914</v>
+        <v>1083</v>
       </c>
       <c r="T435" t="n">
         <v>18</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="N436" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O436" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P436" t="n">
-        <v>18000</v>
+        <v>16455</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1000</v>
+        <v>914</v>
       </c>
       <c r="T436" t="n">
         <v>18</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35315,29 +35315,29 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="N437" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="O437" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="P437" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>222</v>
+        <v>1000</v>
       </c>
       <c r="T437" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438">
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N438" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="O438" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="P438" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>556</v>
+        <v>222</v>
       </c>
       <c r="T438" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="439">
@@ -35475,29 +35475,29 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="N439" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>16474</v>
+        <v>10000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>915</v>
+        <v>556</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="N440" t="n">
-        <v>260000</v>
+        <v>16000</v>
       </c>
       <c r="O440" t="n">
-        <v>260000</v>
+        <v>17000</v>
       </c>
       <c r="P440" t="n">
-        <v>260000</v>
+        <v>16474</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>578</v>
+        <v>915</v>
       </c>
       <c r="T440" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441">
@@ -35640,24 +35640,24 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>580</v>
+        <v>3</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P441" t="n">
-        <v>11379</v>
+        <v>260000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>632</v>
+        <v>578</v>
       </c>
       <c r="T441" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="442">
@@ -35724,20 +35724,20 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>10</v>
+        <v>580</v>
       </c>
       <c r="N442" t="n">
-        <v>230000</v>
+        <v>10000</v>
       </c>
       <c r="O442" t="n">
-        <v>230000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>230000</v>
+        <v>11379</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>511</v>
+        <v>632</v>
       </c>
       <c r="T442" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E443" t="n">
         <v>9</v>
@@ -35804,20 +35804,20 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N443" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="O443" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="P443" t="n">
-        <v>12000</v>
+        <v>230000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="T443" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35880,24 +35880,24 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N444" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35960,24 +35960,24 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N445" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O445" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P445" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T445" t="n">
         <v>18</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36120,20 +36120,20 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T447" t="n">
         <v>18</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>13471</v>
+        <v>10000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>748</v>
+        <v>556</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E449" t="n">
         <v>9</v>
@@ -36275,29 +36275,29 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="N449" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O449" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P449" t="n">
-        <v>17000</v>
+        <v>13471</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>944</v>
+        <v>748</v>
       </c>
       <c r="T449" t="n">
         <v>18</v>
@@ -36360,24 +36360,24 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="N450" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O450" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P450" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T450" t="n">
         <v>18</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E451" t="n">
         <v>9</v>
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="N451" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="T451" t="n">
         <v>18</v>
@@ -36520,24 +36520,24 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N452" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O452" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P452" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T452" t="n">
         <v>18</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E453" t="n">
         <v>9</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N453" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>17571</v>
+        <v>14000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>976</v>
+        <v>778</v>
       </c>
       <c r="T453" t="n">
         <v>18</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E454" t="n">
         <v>9</v>
@@ -36680,24 +36680,24 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="N454" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O454" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P454" t="n">
-        <v>21000</v>
+        <v>17571</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1167</v>
+        <v>976</v>
       </c>
       <c r="T454" t="n">
         <v>18</v>
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N455" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P455" t="n">
-        <v>13694</v>
+        <v>21000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>761</v>
+        <v>1167</v>
       </c>
       <c r="T455" t="n">
         <v>18</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E456" t="n">
         <v>9</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,20 +36844,20 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N456" t="n">
-        <v>135000</v>
+        <v>13000</v>
       </c>
       <c r="O456" t="n">
-        <v>135000</v>
+        <v>14000</v>
       </c>
       <c r="P456" t="n">
-        <v>135000</v>
+        <v>13694</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>300</v>
+        <v>761</v>
       </c>
       <c r="T456" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="457">
@@ -36915,29 +36915,29 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="N457" t="n">
-        <v>17000</v>
+        <v>135000</v>
       </c>
       <c r="O457" t="n">
-        <v>17000</v>
+        <v>135000</v>
       </c>
       <c r="P457" t="n">
-        <v>17000</v>
+        <v>135000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>944</v>
+        <v>300</v>
       </c>
       <c r="T457" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="458">
@@ -37000,24 +37000,24 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N458" t="n">
-        <v>225000</v>
+        <v>17000</v>
       </c>
       <c r="O458" t="n">
-        <v>225000</v>
+        <v>17000</v>
       </c>
       <c r="P458" t="n">
-        <v>225000</v>
+        <v>17000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>500</v>
+        <v>944</v>
       </c>
       <c r="T458" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E459" t="n">
         <v>9</v>
@@ -37084,20 +37084,20 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="N459" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="O459" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="P459" t="n">
-        <v>12000</v>
+        <v>225000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,10 +37106,10 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E460" t="n">
         <v>9</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N460" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T460" t="n">
         <v>18</v>
@@ -37235,29 +37235,29 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N461" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="T461" t="n">
         <v>18</v>
@@ -37320,24 +37320,24 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="N462" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O462" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P462" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T462" t="n">
         <v>18</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E463" t="n">
         <v>9</v>
@@ -37400,24 +37400,24 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="N463" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O463" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P463" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T463" t="n">
         <v>18</v>
@@ -37480,24 +37480,24 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="N464" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O464" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P464" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="T464" t="n">
         <v>18</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,20 +37564,20 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N465" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="O465" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="P465" t="n">
-        <v>200000</v>
+        <v>13000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
@@ -37586,10 +37586,10 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T465" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="466">
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,20 +37644,20 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N466" t="n">
-        <v>13000</v>
+        <v>200000</v>
       </c>
       <c r="O466" t="n">
-        <v>14000</v>
+        <v>200000</v>
       </c>
       <c r="P466" t="n">
-        <v>13542</v>
+        <v>200000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -37666,10 +37666,10 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>752</v>
+        <v>444</v>
       </c>
       <c r="T466" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="467">
@@ -37724,20 +37724,20 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N467" t="n">
-        <v>250000</v>
+        <v>13000</v>
       </c>
       <c r="O467" t="n">
-        <v>250000</v>
+        <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>250000</v>
+        <v>13542</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>556</v>
+        <v>752</v>
       </c>
       <c r="T467" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="468">
@@ -37800,24 +37800,24 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="N468" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="O468" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="P468" t="n">
-        <v>11000</v>
+        <v>250000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37826,10 +37826,10 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="T468" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>9</v>
@@ -37880,24 +37880,24 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N469" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O469" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P469" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T469" t="n">
         <v>18</v>
@@ -37960,24 +37960,24 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P470" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T470" t="n">
         <v>18</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E471" t="n">
         <v>9</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Bartlett de verano</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N471" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O471" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P471" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T471" t="n">
         <v>18</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Favorita De Clapp</t>
+          <t>Bartlett de verano</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
         <v>95</v>
       </c>
       <c r="N472" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O472" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P472" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T472" t="n">
         <v>18</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N473" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O473" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P473" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>889</v>
+        <v>1167</v>
       </c>
       <c r="T473" t="n">
         <v>18</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E474" t="n">
         <v>9</v>
@@ -38275,29 +38275,29 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Favorita De Clapp</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N474" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O474" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P474" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T474" t="n">
         <v>18</v>
@@ -38360,24 +38360,24 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M475" t="n">
         <v>200</v>
       </c>
       <c r="N475" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O475" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P475" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
         <v>18</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E476" t="n">
         <v>9</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N476" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T476" t="n">
         <v>18</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N477" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>12409</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>689</v>
+        <v>556</v>
       </c>
       <c r="T477" t="n">
         <v>18</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P478" t="n">
-        <v>10000</v>
+        <v>12409</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="T478" t="n">
         <v>18</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E479" t="n">
         <v>9</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="N479" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P479" t="n">
-        <v>16463</v>
+        <v>10000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>915</v>
+        <v>556</v>
       </c>
       <c r="T479" t="n">
         <v>18</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E480" t="n">
         <v>9</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="N480" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P480" t="n">
-        <v>11379</v>
+        <v>16463</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T480" t="n">
         <v>18</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E481" t="n">
         <v>9</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,32 +38844,32 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="N481" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P481" t="n">
-        <v>150000</v>
+        <v>11379</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>333</v>
+        <v>632</v>
       </c>
       <c r="T481" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="482">
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N483" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O483" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P483" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T483" t="n">
         <v>450</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E484" t="n">
         <v>9</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,32 +39084,32 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>220000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="T484" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="485">
@@ -39155,29 +39155,29 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N485" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P485" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>1028</v>
+        <v>556</v>
       </c>
       <c r="T485" t="n">
         <v>18</v>
@@ -39240,24 +39240,24 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N486" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O486" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P486" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>694</v>
+        <v>1028</v>
       </c>
       <c r="T486" t="n">
         <v>18</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="N487" t="n">
         <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="T487" t="n">
         <v>18</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E488" t="n">
         <v>9</v>
@@ -39395,16 +39395,16 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N488" t="n">
         <v>12000</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N489" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P489" t="n">
-        <v>8556</v>
+        <v>12000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="T489" t="n">
         <v>18</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P490" t="n">
-        <v>12000</v>
+        <v>8556</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>667</v>
+        <v>475</v>
       </c>
       <c r="T490" t="n">
         <v>18</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O491" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P491" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T491" t="n">
         <v>18</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E492" t="n">
         <v>9</v>
@@ -39720,24 +39720,24 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N492" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1167</v>
+        <v>556</v>
       </c>
       <c r="T492" t="n">
         <v>18</v>
@@ -39800,24 +39800,24 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N493" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O493" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P493" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T493" t="n">
         <v>18</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E494" t="n">
         <v>9</v>
@@ -39880,24 +39880,24 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N494" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O494" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P494" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T494" t="n">
         <v>18</v>
@@ -39960,35 +39960,115 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M495" t="n">
+        <v>200</v>
+      </c>
+      <c r="N495" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O495" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P495" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q495" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S495" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T495" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>10</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D496" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E496" t="n">
+        <v>9</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I496" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M495" t="n">
+      <c r="M496" t="n">
         <v>180</v>
       </c>
-      <c r="N495" t="n">
+      <c r="N496" t="n">
         <v>13000</v>
       </c>
-      <c r="O495" t="n">
+      <c r="O496" t="n">
         <v>13000</v>
       </c>
-      <c r="P495" t="n">
+      <c r="P496" t="n">
         <v>13000</v>
       </c>
-      <c r="Q495" t="inlineStr">
+      <c r="Q496" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R495" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S495" t="n">
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S496" t="n">
         <v>722</v>
       </c>
-      <c r="T495" t="n">
+      <c r="T496" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T496"/>
+  <dimension ref="A1:T498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E475" t="n">
         <v>9</v>
@@ -38360,24 +38360,24 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N475" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O475" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P475" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T475" t="n">
         <v>18</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E476" t="n">
         <v>9</v>
@@ -38440,11 +38440,11 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N476" t="n">
         <v>12000</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E477" t="n">
         <v>9</v>
@@ -38515,29 +38515,29 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P477" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T477" t="n">
         <v>18</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N478" t="n">
         <v>12000</v>
       </c>
       <c r="O478" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P478" t="n">
-        <v>12409</v>
+        <v>12000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="T478" t="n">
         <v>18</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E480" t="n">
         <v>9</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="N480" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P480" t="n">
-        <v>16463</v>
+        <v>12409</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>915</v>
+        <v>689</v>
       </c>
       <c r="T480" t="n">
         <v>18</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E481" t="n">
         <v>9</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N481" t="n">
         <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>11379</v>
+        <v>10000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="T481" t="n">
         <v>18</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E482" t="n">
         <v>9</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="N482" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="O482" t="n">
-        <v>150000</v>
+        <v>17000</v>
       </c>
       <c r="P482" t="n">
-        <v>150000</v>
+        <v>16463</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>333</v>
+        <v>915</v>
       </c>
       <c r="T482" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E483" t="n">
         <v>9</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,32 +39004,32 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="N483" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O483" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>150000</v>
+        <v>11379</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>333</v>
+        <v>632</v>
       </c>
       <c r="T483" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="484">
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N484" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="O484" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="P484" t="n">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="T484" t="n">
         <v>450</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E485" t="n">
         <v>9</v>
@@ -39164,32 +39164,32 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O485" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P485" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T485" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="486">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E486" t="n">
         <v>9</v>
@@ -39240,36 +39240,36 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N486" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="O486" t="n">
-        <v>19000</v>
+        <v>220000</v>
       </c>
       <c r="P486" t="n">
-        <v>18500</v>
+        <v>220000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1028</v>
+        <v>489</v>
       </c>
       <c r="T486" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="487">
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O487" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P487" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="T487" t="n">
         <v>18</v>
@@ -39395,29 +39395,29 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N488" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O488" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P488" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="T488" t="n">
         <v>18</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E489" t="n">
         <v>9</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N489" t="n">
         <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P489" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="T489" t="n">
         <v>18</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E490" t="n">
         <v>9</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N490" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O490" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>8556</v>
+        <v>12000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="T490" t="n">
         <v>18</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,7 +39644,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N491" t="n">
         <v>12000</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N492" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P492" t="n">
-        <v>10000</v>
+        <v>8556</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="T492" t="n">
         <v>18</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E493" t="n">
         <v>9</v>
@@ -39800,24 +39800,24 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N493" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T493" t="n">
         <v>18</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E494" t="n">
         <v>9</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N494" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T494" t="n">
         <v>18</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E495" t="n">
         <v>9</v>
@@ -39967,13 +39967,13 @@
         <v>200</v>
       </c>
       <c r="N495" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O495" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P495" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="T495" t="n">
         <v>18</v>
@@ -40007,68 +40007,228 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E496" t="n">
+        <v>9</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I496" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M496" t="n">
+        <v>100</v>
+      </c>
+      <c r="N496" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O496" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P496" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S496" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T496" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>10</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E496" t="n">
-        <v>9</v>
-      </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G496" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I496" t="n">
-        <v>100104005</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>Pera</t>
-        </is>
-      </c>
-      <c r="K496" t="inlineStr">
+      <c r="E497" t="n">
+        <v>9</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I497" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
         <is>
           <t>Packham's Triumph</t>
         </is>
       </c>
-      <c r="L496" t="inlineStr">
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M497" t="n">
+        <v>200</v>
+      </c>
+      <c r="N497" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O497" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P497" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S497" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T497" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>10</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E498" t="n">
+        <v>9</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I498" t="n">
+        <v>100104005</v>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>Packham's Triumph</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M496" t="n">
+      <c r="M498" t="n">
         <v>180</v>
       </c>
-      <c r="N496" t="n">
+      <c r="N498" t="n">
         <v>13000</v>
       </c>
-      <c r="O496" t="n">
+      <c r="O498" t="n">
         <v>13000</v>
       </c>
-      <c r="P496" t="n">
+      <c r="P498" t="n">
         <v>13000</v>
       </c>
-      <c r="Q496" t="inlineStr">
+      <c r="Q498" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R496" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S496" t="n">
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S498" t="n">
         <v>722</v>
       </c>
-      <c r="T496" t="n">
+      <c r="T498" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Pera.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T498"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E408" t="n">
         <v>9</v>
@@ -33000,24 +33000,24 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N408" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O408" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P408" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="T408" t="n">
         <v>18</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E409" t="n">
         <v>9</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Winter Nelis</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T409" t="n">
         <v>18</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E410" t="n">
         <v>9</v>
@@ -33155,29 +33155,29 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Abate Fettel</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N410" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P410" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="T410" t="n">
         <v>18</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E411" t="n">
         <v>9</v>
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N411" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>19357</v>
+        <v>10000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1075</v>
+        <v>556</v>
       </c>
       <c r="T411" t="n">
         <v>18</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E412" t="n">
         <v>9</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Abate Fettel</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T412" t="n">
         <v>18</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="N413" t="n">
-        <v>250000</v>
+        <v>19000</v>
       </c>
       <c r="O413" t="n">
-        <v>250000</v>
+        <v>20000</v>
       </c>
       <c r="P413" t="n">
-        <v>250000</v>
+        <v>19357</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>556</v>
+        <v>1075</v>
       </c>
       <c r="T413" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E414" t="n">
         <v>9</v>
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="N414" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O414" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T414" t="n">
         <v>18</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E415" t="n">
         <v>9</v>
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T415" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E416" t="n">
         <v>9</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N416" t="n">
-        <v>230000</v>
+        <v>22000</v>
       </c>
       <c r="O416" t="n">
-        <v>230000</v>
+        <v>22000</v>
       </c>
       <c r="P416" t="n">
-        <v>230000</v>
+        <v>22000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>511</v>
+        <v>1222</v>
       </c>
       <c r="T416" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E417" t="n">
         <v>9</v>
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N417" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>22909</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1273</v>
+        <v>667</v>
       </c>
       <c r="T417" t="n">
         <v>18</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E418" t="n">
         <v>9</v>
@@ -33804,20 +33804,20 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="N418" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="O418" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="P418" t="n">
-        <v>14000</v>
+        <v>230000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>778</v>
+        <v>511</v>
       </c>
       <c r="T418" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>22909</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>667</v>
+        <v>1273</v>
       </c>
       <c r="T419" t="n">
         <v>18</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E420" t="n">
         <v>9</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="N420" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O420" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>16565</v>
+        <v>14000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>920</v>
+        <v>778</v>
       </c>
       <c r="T420" t="n">
         <v>18</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N421" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T421" t="n">
         <v>18</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E422" t="n">
         <v>9</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P422" t="n">
-        <v>14000</v>
+        <v>16565</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>778</v>
+        <v>920</v>
       </c>
       <c r="T422" t="n">
         <v>18</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E423" t="n">
         <v>9</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="N423" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O423" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P423" t="n">
-        <v>20562</v>
+        <v>24000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1142</v>
+        <v>1333</v>
       </c>
       <c r="T423" t="n">
         <v>18</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E424" t="n">
         <v>9</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N424" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
         <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="T424" t="n">
         <v>18</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E425" t="n">
         <v>9</v>
@@ -34355,29 +34355,29 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>20562</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="T425" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E426" t="n">
         <v>9</v>
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="N426" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O426" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P426" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1056</v>
+        <v>750</v>
       </c>
       <c r="T426" t="n">
         <v>18</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E427" t="n">
         <v>9</v>
@@ -34520,36 +34520,36 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N427" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="O427" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="P427" t="n">
-        <v>80000</v>
+        <v>14000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>178</v>
+        <v>1167</v>
       </c>
       <c r="T427" t="n">
-        <v>450</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E428" t="n">
         <v>9</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>255</v>
+        <v>680</v>
       </c>
       <c r="N428" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O428" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P428" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="T428" t="n">
         <v>18</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E429" t="n">
         <v>9</v>
@@ -34675,41 +34675,41 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>80000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>667</v>
+        <v>178</v>
       </c>
       <c r="T429" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E430" t="n">
         <v>9</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N430" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O430" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P430" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1056</v>
+        <v>944</v>
       </c>
       <c r="T430" t="n">
         <v>18</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E431" t="n">
         <v>9</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N431" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>300000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34869,7 +34869,7 @@
         <v>667</v>
       </c>
       <c r="T431" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="432">
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P432" t="n">
-        <v>12455</v>
+        <v>19000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>692</v>
+        <v>1056</v>
       </c>
       <c r="T432" t="n">
         <v>18</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N433" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="O433" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P433" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T433" t="n">
         <v>450</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="N434" t="n">
-        <v>220000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>220000</v>
+        <v>13000</v>
       </c>
       <c r="P434" t="n">
-        <v>220000</v>
+        <v>12455</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>489</v>
+        <v>692</v>
       </c>
       <c r="T434" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E435" t="n">
         <v>9</v>
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="N435" t="n">
-        <v>19000</v>
+        <v>240000</v>
       </c>
       <c r="O435" t="n">
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="P435" t="n">
-        <v>19500</v>
+        <v>240000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1083</v>
+        <v>533</v>
       </c>
       <c r="T435" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E436" t="n">
         <v>9</v>
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="N436" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="O436" t="n">
-        <v>17000</v>
+        <v>220000</v>
       </c>
       <c r="P436" t="n">
-        <v>16455</v>
+        <v>220000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>914</v>
+        <v>489</v>
       </c>
       <c r="T436" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E437" t="n">
         <v>9</v>
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="N437" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O437" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P437" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1000</v>
+        <v>1083</v>
       </c>
       <c r="T437" t="n">
         <v>18</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E438" t="n">
         <v>9</v>
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Beurre Bosc</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="N438" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="O438" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P438" t="n">
-        <v>100000</v>
+        <v>16455</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>222</v>
+        <v>914</v>
       </c>
       <c r="T438" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E439" t="n">
         <v>9</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Forelle</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T439" t="n">
         <v>18</v>
@@ -35555,29 +35555,29 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Beurre Bosc</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="N440" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O440" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="P440" t="n">
-        <v>16474</v>
+        <v>100000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="T440" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="441">
@@ -35635,29 +35635,29 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Packham's Triumph</t>
+          <t>Forelle</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N441" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="P441" t="n">
-        <v>260000</v>
+        <v>10000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T441" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442">
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P442" t="n">
-        <v>11379</v>
+        <v>16474</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>632</v>
+        <v>915</v>
       </c>
       <c r="T442" t="n">
         <v>18</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N443" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="O443" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P443" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="T443" t="n">
         <v>450</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E444" t="n">
         <v>9</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O444" t="n">
         <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>11379</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="T444" t="n">
         <v>18</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -35960,24 +35960,24 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N445" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="O445" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="P445" t="n">
-        <v>20000</v>
+        <v>230000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1111</v>
+        <v>511</v>
       </c>
       <c r="T445" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E446" t="n">
         <v>9</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="T446" t="n">
         <v>18</v>
@@ -36120,24 +36120,24 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T447" t="n">
         <v>18</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T448" t="n">
         <v>18</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Winter Nelis</t>
+          <t>Packham's Triumph</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N449" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O449" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>13471</v>
+        <v>12000</v>